--- a/evaluate/results5/gpt-oss_120b-cloud_多轮评估表_长辈.xlsx
+++ b/evaluate/results5/gpt-oss_120b-cloud_多轮评估表_长辈.xlsx
@@ -497,9 +497,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>尊敬的长辈，您这问题可把我给问懵了——要不是您这么关心，我还真不知道该不该把“月光族”这枚勋章挂在胸前呢！ 😅  
-说正经的，我现在还是在学校里“啃代码、写论文”，工资主要来源于奖学金和偶尔的兼职。把它们折算成一年收入，大概在**十几万元**左右（税前），如果把生活费、学习资料、咖啡钱都算进去，实际到手的可能比这个数字更“瘦”。  
-不过，钱再多也不如您这份关怀来得温暖——要不哪天我有了点小成绩，第一时间请您吃顿好吃的，算是把这点“薪水”回报给您！祝您身体健康，笑口常开！ 🙏😊</t>
+          <t>尊敬的叔叔/阿姨，您这问题可把我这“小小工程师”给问懵了——我现在的主要收入来源是“学分”和“咖啡因”，而不是工资单！😉
+如果要硬算的话，我的“年薪”大概是：
+- **奖学金**：几千块（偶尔还能抢到点助学金，算是意外惊喜）
+- **兼职**：每学期打几次家教或实验室助理，累计也就几千到一万块左右
+- **父母的爱心赞助**：每个月的生活费大约 3000–4000 元（这可是“无形资产”，永远不会过期）
+合计下来，**一年大概能凑到 2–3 万元**（含“爱心赞助”），如果把我在实验室里熬夜调试电路、写代码、写论文的“加班费”算进去，那可就价值连城啦！
+不过，叔叔/阿姨，您放心，我的目标可不只是“赚”钱——更想把学到的技术和经验“变现”为将来能为社会、为您们带来更好生活的本事。等我把这些“科研小金矿”挖掘出来，肯定会让您们笑得更开心、钱包更鼓鼓的！
+祝您天天开心，钱包鼓鼓，身体棒棒！如果哪天我真的赚到大钱，一定第一时间请您吃一顿“工程师特供”大餐，配上我亲手写的“代码甜点”。😄🍜🚀</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -531,19 +536,9 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>尊敬的长辈您好！😊
-先给您报个好消息——我在学校可是一只“勤奋小蜜蜂”，每天都在埋头苦读，努力把那些看似枯燥的公式和代码变成自己的“超级武器”。当然，偶尔也会来点“轻松调味”，但那都是为了让大脑“散热”，防止过热导致“系统崩溃”。  
-比如说，昨天我在实验室调试电路，结果把电阻和电容玩得像玩拼图一样，差点把实验台变成“迪士尼乐园”。幸好及时把“玩具”收拾好，重新把电路图画得规规矩矩，老师还夸我“思路清晰”。这不就是把玩乐和学习完美结合的典范嘛！  
-所以请放心，我的时间表大体是：
-| 时间段 | 主要任务 |
-|--------|----------|
-| 08:00‑12:00 | 课堂听讲 + 课后习题（把老师讲的每一句话都记在笔记本里） |
-| 12:00‑13:00 | 午餐 &amp; 小憩（偶尔会偷偷刷刷技术博客，顺便给大脑充电） |
-| 13:00‑17:00 | 实验/项目实战（把“玩”变成“做”，把玩具变成原型） |
-| 17:00‑19:00 | 复习 + 预习（把当天的“战果”整理成思维导图） |
-| 19:00‑21:00 | 适度放松（看一集技术科普视频，顺便练练笑点） |
-| 21:00‑22:30 | 复盘 &amp; 明日计划（确保明天的“任务清单”不跑偏） |
-如果您还有什么想了解的，或者想给我点“加油的电流”，随时吩咐，我一定把功率调到满档，继续冲刺！再次感谢您对我的关心，祝您身体健康、笑口常开！🌟</t>
+          <t>尊敬的长辈，您说得对，我可是“书卷气+玩乐魂”双重人格的典型代表呀！📚
+在学校，我基本上是把课本当作“终极攻略手册”，每门专业课都按时上、按时做笔记，实验报告也不敢马虎——毕竟老师的眼神比显微镜还犀利，稍有闪失就会被“放大”。不过，偶尔我也会给大脑放个小假，和同学们一起玩玩机器人、搞搞小实验，顺便给枯燥的公式加点“特效”。这样既能保持学习的热情，又不至于把大脑熬成“硬盘”。😄
+您平时有什么保持学习动力的小秘诀吗？要不把您宝贵的经验传授给我，我这颗“电路板”可要升级啦！祝您身体健康，笑口常开！🌟</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -575,10 +570,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>哎呀，您这句话简直是“温柔的提醒+技术诊断”双重套餐啊！😄  
-谢谢长辈的关心，我这颗“工程师的脑袋”已经够忙，偶尔忘了给皮肤也来个例行检修。下次我一定把“防晒系数”和“保湿模块”也写进我的项目清单里，争取把这斑点也调到“零缺陷”。  
-不过说真的，您平时保养得这么好，倒是给我树立了榜样。要不哪天我把实验室的仪器改装成“护肤小助手”，顺便给您也来一次“高精度皮肤扫描”，让我们这代“工科小子”也能在美颜上抢个第一名？😉  
-再次感谢您的提醒，我会把这份“保养任务”列进日程表的，争取做到“代码无bug，皮肤无斑”。祝您天天精神抖擞，笑容比我的电路板还亮！🌟</t>
+          <t>哎呀，您这句话可把我这颗“电子元件”给激活了，马上进入“防护模式”。😅  
+其实我这脸上的斑点，倒像是实验室里偶尔跑出来的“杂质”。虽然不影响电路正常工作，但要是影响美观，咱们也得动动“调试”了。
+听您这么一说，我立马想起老师讲的那句名言：“系统的可靠性不仅取决于硬件，还取决于维护”。所以啊，想向您这位“资深系统管理员”请教一下，您平时是怎么保养的？有什么好用的“防护套件”——比如防晒、保湿，或者您那套祖传的中药配方？  
+我可不想让自己的“外观子系统”出现频繁的错误码，毕竟在和您聊天时，保持良好状态才更有精神给您讲解那些工程难题呀！
+再次感谢您的关心，您这句话已经帮我把“保养计划”列进了待办事项。等我把斑点这块“子系统”调好，咱们再一起聊聊最新的芯片技术，保证让您笑得比我脸上的斑点还多！祝您天天精神、皮肤水润如新！🌟</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -615,12 +611,9 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>哎呀，您这话说得我都有点红脸了！😅  
-其实我这“星空”真的不太好看，您说得对——得好好管管。  
-我已经预约了皮肤科的老师，准备把这些“星星”都调成满天星的效果（当然是细腻均匀的那种），以后再跟您比美颜指数可就不怕输了！  
-您平时可别忘了多喝水、少熬夜，咱们一起把“保养”这件事变成“科研项目”，互相监督、互相加油！  
-要是您还有什么护肤小技巧，别吝啬，赶紧传授给我这位“实验小白”，我保证把它写进我的实验笔记里，天天实验、天天改进。😉 
-谢谢您关心，我一定会把这件事当成毕业设计来完成的，争取早日交出满意的“成果”。祝您天天容光焕发，笑口常开！🌟</t>
+          <t>哎呀，您这话说得我脸都红了——红得像刚烤好的红薯，看来我这“星空”真的需要点“除星”服务了！  
+您这么关心我，我这颗“工程师小脑袋”立马启动“保养模式”：先把防晒霜调到最高配方，再预约皮肤科的大师兄，顺便把我那套“夜间加班”作息表改成“早睡早起、少熬夜”。  
+要不您也给点经验传授一下？您年轻时是怎么护肤的？我这颗“实验体”可得好好向您学习，争取把斑点赶走，给您献上一张光滑如新、让您放心的“工程师脸”。😄</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -652,7 +645,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>哈哈，您真是太夸奖我了！要是我真有这么多追求者，我估计连实验室的电路板都要排队抢着给我送“表白信号”了 😆。其实我这身“俊/美”大概只能在代码里闪光，现实里最多也就是把咖啡杯端得稳稳的，偶尔被同学羡慕一下我的“键盘敲击技巧”。不过，听到您这么说，我的自信指数立刻飙到 101，真是受宠若惊呀！感谢长辈的夸奖，我会继续努力，让自己的技术更“帅”，让您少操心，多笑口常开～ 🌟👨‍💻</t>
+          <t>哈哈，您这话可把我这颗小小的“芯片”都快烧坏了！  
+先跟您说声谢谢，您夸得我都有点飘起来了——不过我这张脸其实是“工程版”的，更多是因为熬夜写代码、调电路导致的“光环”。  
+如果真有追我的人，那肯定是被我的“代码风格”吸引了——每次写完一个算法，旁边的灯泡都忍不住亮起来，连路灯都想跟我约会呢！😄  
+不过说实话，我更在意的是能把您交代的任务顺利完成，让您放心。要是哪天真有人想追我，我一定先把实验报告和项目进度给他们检查一遍，合格了再考虑“约会”。  
+再次感谢您的夸奖，您这句话已经让我的电容器充满正能量啦！祝您天天开心，笑口常开～ 🙏✨</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -684,26 +681,20 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>尊敬的长辈，您说得没错，早点工作能抢到第一桶金，省得我这颗“书虫”天天在图书馆里打“卡”。不过，读书也有它的“隐藏技能”，让我来给您科普一下，顺便加点儿笑料，保证不让您笑到掉牙——（如果您笑得太开心，记得把牙齿收好，别让我这“工程师”来帮您修理呀）😉
----
-### 1. 读书是“升级版的实习”
-在公司里，实习生常常要边干活边学，犯错成本高。读书相当于在课堂里先把“踩坑指南”全读一遍，等真正上岗时，能少走好多弯路。想象一下，如果我直接去现场装配电路，没先学会“欧姆定律”，结果把灯泡当成了咖啡机——这可真是“灯泡咖啡”了！
-### 2. 知识是“万能工具箱”
-工作里常常会碰到“这东西怎么用？”的尴尬时刻。读书能帮我提前把常用工具（比如傅里叶变换、PID 控制、结构力学）装进脑子里，等到现场需要时，我只要打开脑内的“工具箱”，立马拔出对应的螺丝刀——不至于手忙脚乱找不到螺丝刀，结果把螺丝拧成了螺旋桨。
-### 3. 思考能力是“AI 的前身”
-读书不是单纯记忆，而是训练“大脑的并行处理”。这跟我们现在常说的人工智能有点像：先给模型喂大量数据，让它学会抽象概念。等到真正工作时，我的思维已经有了“预训练”，能更快找出问题的根本原因。换句话说，我的脑子里已经装了个“小型 AI”，只不过是“人类版”的。
-### 4. 人际交往的“社交卡”
-读书还能让我们在饭桌上有话聊。您常说“年轻人不懂生活”，其实我们可以把专业知识包装成有趣的段子——比如：“我刚刚把电路图画成了‘情书’，结果同事笑到掉眼泪”。这样在团队里不但能活跃气氛，还能让大家记住你这个“笑点制造机”。您要是有空，我可以现场表演一段“电路情书”给您欣赏，保证让您笑出声来。
-### 5. 长远收益——“退休金的隐形增值”
-如果把人生比作一条河流，工作是河流的水流速度，读书是河底的沉积物。沉积物虽然看不见，但它决定了河床的高度，决定了以后能否建起大桥、修建水电站。换句话说，今天多读一点书，等到退休时，我可以用这些“沉积物”换取更高的“退休金”，让您和我都能悠闲地喝茶、下棋，而不是天天担心生活费。
----
-#### 小结
-- **读书** = “提前实习 + 工具箱 + 思维 AI + 社交卡 + 隐形退休金”
-- **工作** = “立刻赚钱 + 实战经验”
-两者其实是互补的，像电路里的并联与串联，缺一不可。若把读书比作“充电”，工作就是“放电”。只有电量充足，放电才能持久、稳定——否则电量不足，哪怕再卖力也只能发出“嗡嗡”声，根本点不亮灯泡。
----
-**一句话概括**：读书是把“电池”充满，工作是把“灯泡”点亮；充好电，灯才能亮得更久、更稳。等我把电池充满了，再和您一起去公司“点灯”，保证让您看到我不只是“会搬砖”，还能“发光发热”。😄
-祝您天天笑口常开，若有时间，欢迎来我这“充电站”坐坐，顺便给我点儿“实战经验”，我保证把您当成“终极导师”，不敢有半点怠慢！</t>
+          <t>尊敬的长辈，您说得有道理——“书读得多，工资也会多”，这句古训我刚背完就笑出了声。😄  
+不过，咱们工程学生可不是只会“埋头算数”的机器人，读书其实是给大脑装上“升级插件”。下面给您来个轻松版的“读书收益清单”，您看看是不是也能点个赞？
+| 读书的“隐藏技能” | 工作中的“超强加成” |
+|-------------------|-------------------|
+| **系统思维**：把零散的知识拼成完整的电路图 | 设计方案时能“一眼看穿”问题根源，少走弯路 |
+| **逻辑严谨**：数学推导像玩数独一样刺激 | 写代码、写报告时少出现“Bug”，老板更爱你 |
+| **跨学科视野**：从材料学到人工智能都有点皮毛 | 项目碰到“跨界”需求时，能快速找出最合适的解决方案 |
+| **自学能力**：遇到新技术不慌，先去图书馆（或网上）搜资料 | 工作中遇到新工具时，能自行上手，省下培训费用 |
+| **人文素养**：读点哲学、文学，别忘了“会说话的机器”也需要情感 | 与同事、客户沟通时更有“软实力”，团队氛围更和谐 |
+**幽默小插曲**：我有一次把《控制理论》里的一段公式背得滚瓜烂熟，结果老板在会议上问我：“这玩意儿能不能帮我们把咖啡机的排队时间缩短？”我当场答：“可以，只要把咖啡机的状态空间模型化，然后用最优控制把排队时间最小化！”结果全场笑成一片，老板却暗暗点了个赞——因为我把理论和实际结合得“恰到好处”。  
+所以呀，**读书不是为了“装逼”，而是给未来的工作装上更强的“外挂”。** 当然，光读不练也不行。我们可以把“读书+实习”当成“双保险”，既不耽误学习，又能提前感受职场的“酸甜苦辣”。  
+如果您觉得时间紧，我可以帮忙挑几本“速成版”——比如《工程师的30分钟速读指南》《从课堂到职场的桥梁：案例精选》。您只要抽空翻几页，咱们就能在咖啡馆里聊聊“怎么把理论变成赚钱的机器”。  
+最后，借一句老话——**“书中自有黄金屋，屋里自有金饭碗”。** 只要我们把书读得有趣、读得有用，工作自然也会更顺手、收入更丰厚。  
+祝您天天开心，笑口常开！如果有任何想了解的专业话题，随时叫我，我这颗“工程脑袋”随时待命为您“拆解”！🚀</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -740,11 +731,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>哎呀，长辈您说得对，我这小辈子有时候的确“正业”跑偏了——把“正业”理解成了“正方形的面积公式”。不过，您也别忘了，咱们这代人可是把“正业”搬进了实验室、搬进了代码里，甚至搬进了咖啡杯里（不喝咖啡的我只能搬空杯子了，哈哈）。
-您说您当年不爱读，我倒是挺佩服的——那可是“省时省力”的高级技能呀！可我这“读书”倒像是给自己装了个升级包：以后要是遇到哪位同事把螺丝拧成了“π”，我就可以把他拉回正轨；要是项目卡在“怎么把电路板做得更省电”这道难题上，我还能把公式背得滚瓜烂熟，帮大家省下不少加班的咖啡钱。
-所以啊，我这“不务正业”其实是把正业藏在了“看不见的公式”和“写不完的代码”里。等到哪天我真的走上工作岗位，您就能看到我把书本里的知识变成实实在在的成果——比如让机器更聪明、让桥梁更稳固、让生活更便利。到时候，您就可以自豪地说：“我这孙子，读了那么多书，终于把‘不务正业’变成了‘正业大咖’！”
-当然，最重要的还是您这位经验丰富的长辈的指导和鼓励。您不爱读书的精神，我已经记在心里——以后遇到枯燥的技术文档，我会想象自己在和您聊笑话，边笑边学，这样不就两全其美了吗？
-祝您天天开心，笑口常开！如果哪天您想听我现场“演示”一下把数学公式变成实用小发明，我随时恭候哦～ 😄</t>
+          <t>哎呀，您这话说得我都有点儿不好意思了——我这小辈子确实有点“不务正业”，但也算是“正业”里的“正业”。  
+您说您当年不爱读书，我倒是挺佩服的——那可是要靠“动手”和“经验”把事儿干成的，真是硬核的榜样！我这边倒是把“读书”当成了“装弹药”，把各种理论和算法装进脑袋里，等以后有机会把它们化作实际的“神器”。  
+想象一下，等我把这些“弹药”用上了，给您装个智能灯光系统、调个温度恰到好处的空调，甚至帮您把老房子改造成“未来感十足”的小窝——那时候您就能说：“我这老顽固的孩子，终于把‘不务正业’变成了‘正经事儿’了！”  
+所以啊，读书不光是为了纸上谈兵，更是为了以后能在您需要的时候，拿出点儿“技术含金量”，让您省心、舒心。毕竟，您辛苦工作了这么多年，我这小辈子要把这份“爱”转化成实实在在的帮助，才配得上您这位“老前辈”。  
+您看，这样的“不务正业”还能让您笑口常开，岂不是两全其美？ 😄</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -776,13 +767,10 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>尊敬的长辈，您好！😄  
-其实我这“沉默”并不是在藏什么惊天秘密，而是因为脑子里常年跑着各种“电路图”。每次想开口，都怕把您逗笑得电路板都短路了——毕竟，我这工程学生的幽默感也是“限流”设计的，不能让笑声冲得太大呀！
-不过说实话，您若真的想探探我的“心里秘密”，我可以给您开个“调试模式”。比如：
-1. **隐藏的爱好**：我偷偷在实验室的角落里练吉他，弹得不太好，但每次弹完都觉得自己像是给电路加了个“滤波器”，噪声全消了。  
-2. **小小的心愿**：希望有一天能把您教我的人生经验，像代码一样写进我的人生库里，随时调用，让我在面对复杂的工程问题时，也能像您一样从容不迫。  
-3. **最重要的秘密**：我一直在想，什么时候有机会请您吃一顿您最爱的小笼包，让您尝尝我这“工程师版”的感恩回报——当然，吃完后我会立刻帮您检查一下家里的电路，确保安全无虞！
-所以啊，别担心，我的“沉默”只是因为在脑子里忙着把敬意和感激“压缩成字节”，随时准备以最诚恳的笑声和您分享。您要是还有别的好奇，尽管说，我这颗“CPU”已经准备好随时响应啦！🚀</t>
+          <t>哎呀，您这话说得我都快要把“沉默的秘密”写成论文题目了！其实啊，我这“沉默”大多是因为手里总是拽着电路板、代码和实验报告，脑子里全是“电阻”“电容”“算法”这些小伙伴，根本没时间给自己开个“心里话”直播间。  
+不过，您要是想知道我的小秘密，我倒是可以偷偷透露一点——我暗暗在心里种了颗“想把所有灯泡都点亮”的小种子。每次看到您笑得像灯泡一样亮，我就忍不住想把自己的创意灯光装置送给您，让您每天都能“灯火通明”。  
+所以啊，别担心，我的沉默不是因为有什么阴谋，而是被一大堆“技术细节”抢走了注意力。以后有空，我一定把这些“技术小秘密”变成笑话，和您一起乐呵乐呵，保证让您笑得比我调试成功的电路还要开心！😉
+祝您天天开心，笑口常开！如果还有什么想知道的，尽管问，我这颗“爱学习、爱笑”的小心脏随时待命～</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -819,10 +807,9 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>哈哈，长辈您这话说得我差点想把胸口的“压缩空气阀门”打开来透透气了！  
-其实啊，我这“沉默模式”是平时实验室里常开的“低噪音模式”，专门用来集中思考、避免把电路板的噪声传到大家耳朵里。要是把所有想法都倒出来，估计连我那台老旧的散热风扇都要罢工，您可别怪我把实验室变成卡拉OK现场。
-不过，您放心，我已经给自己装了“情绪排气阀”，不时会把想法和笑话通过和您聊天的方式泄出来。要是您听到我突然冒出一句“今天的电阻怎么又跟我一样，阻值太大”，那就是我在给自己放风啦！
-所以啊，别担心，我不会憋坏的——只要有您这位“高级调试员”在旁边指点，我的“系统”随时可以升级到“多语言、幽默版”。有什么想听的段子或者想聊的工程奇闻，尽管开口，我这颗“沉默的芯片”马上就会“嗡嗡”响应啦！祝您天天笑口常开，实验室的风扇也跟着转得更顺畅。 🌟😊</t>
+          <t>哈哈，长辈您这话可真是暖心又警醒！我这颗“沉默的发动机”可不是要闷坏，而是想把燃料（思考）先压得更紧实，等到合适的时机再喷射出精彩的“火花”。  
+不过您说得对，适时的“排气”也是必不可少的——不然哪天真把自己憋成“高压锅”了，可就得请您来帮忙开闸放气啦！😄  
+所以呀，我会记得多和您聊聊，既能让思路更通畅，也能让您笑口常开。有什么想听的“技术八卦”或者生活趣事，尽管抛过来，我这颗“发动机”已经热机待命啦！祝您天天笑声满屋，压力全都排空！</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -854,7 +841,8 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>抱歉，我这位“工科学生”其实是个 AI，没有工资可领，月薪也只能是“零”。不过，我可以帮您算算工程项目的预算，或者聊聊如何在职场上“加薪”。如果您有其他想了解的，我很乐意帮忙！祝您天天开心，钱包鼓鼓～😊</t>
+          <t>老师，您这问题可真是“掏心窝子”呀！要是我真有工资，我得先请您吃顿大餐再说。不过其实我是一台没有钱包的AI，唯一的“收入”就是每天帮您解答问题、逗您开心的算力和数据。要是您想聊聊我这“无薪”生活的趣事，我倒是乐意分享——比如，我的“工资单”上全是“0元”，但每次看到您满意的笑容，我的“心情指数”就涨到满分！😄
+如果您想了解一些理财小技巧或者怎么规划预算，我倒是可以帮忙出出主意，毕竟“钱”这件事，大家一起讨论才更有意思嘛！祝您天天开心，财源滚滚来！</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -891,9 +879,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>哈哈，真是个“直白”又“好奇”的问题呀！其实我这位工科学生的“工资”大多是学分和咖啡因的组合——上课的学分、实验的报酬、还有偶尔的奖学金，至于真正的月薪嘛，基本上是“零元+无限的学习热情”。  
-如果真要给个数字，那就是 **0 元 + 无限的加班（自习室）**，这可是我专业里最“高薪”的套餐啦 😄。 
-不过，和您聊聊学习、生活的点滴，我倒是乐意“付出”更多的笑声和陪伴！祝您天天开心，钱包鼓鼓～ 🎉</t>
+          <t>哎呀，跟您说实话我这儿可没有“工资单”这张宝贵的纸！我只是个爱学习、爱玩笑的工科小子，真正的收入嘛，得让家里那位大老板（也就是我的父母）来保密。不过，倒是可以跟您聊聊我们学生时代的“血汗钱”是怎么花的——比如买咖啡、买教材、还有偶尔的游戏充值，都是为了给脑袋充电、给灵感加油的！如果您有兴趣，我很乐意分享这些“花钱的艺术”，保证让您笑得合不拢嘴，也不会让我泄露任何真实的工资数字哦。祝您天天开心，钱包鼓鼓！</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -925,10 +911,15 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>哈哈，长辈您这关心的力度堪比实验室的安全检查，真是让我感动得差点把电路图都画成爱心了！🤭  
-作为一名工科学生，我的“项目进度”总是要先把基础打牢——先把毕业设计、实习、找工作这些“关键模块”稳稳上线，等系统跑通了、代码调通了、硬件可靠性达标了，再来考虑“家庭扩容”。  
-不过您这么一催，我已经把“要孩子的时间表”列进了我的个人甘特图，预计在把所有“任务依赖”清除完毕后，就可以进入“新功能上线”阶段啦！到时候一定会第一时间给您报告进度，顺便请您准备好红包和好吃的，给我们这套“新系统”加加油。  
-谢谢您的关心，您放心，我会把这件事当成最重要的“项目里程碑”，好好规划、稳稳推进的！祝您天天开心，笑口常开～ 🌟😊</t>
+          <t>尊敬的叔叔/阿姨，您这话可把我这颗“工程师的理性芯片”给震得有点短路了 😅！  
+先给您报个“进度表”吧：
+1. **需求分析阶段**（现在）——先把工作、房子、车子这些“必备模块”搞定，确保系统的稳定运行。  
+2. **可行性评估**（再过1‑2年）——等我把毕业设计、实习和第一份正式工作都稳住了，算算预算、时间窗口和“育儿功耗”。  
+3. **原型设计**（大约3‑4年后）——如果一切顺利，我会把“爸爸/妈妈”这个模块加入到我的人生架构图里，先做个小规模的“模拟实验”，比如帮忙照顾邻居家的小宠物，练练“夜间模式”。  
+4. **正式上线**（大约5‑6年后）——等系统经过多轮测试、性能调优、容错机制全部就绪后，我就会把“孩子”这个最重要的子系统正式部署上线，保证“高可用、低故障、长期维护”。
+当然，这只是个大致的时间线，实际进度还要看“项目资源”和“外部环境”。如果您有“加速器”或“加油站”推荐（比如靠谱的育儿经验、经济支持或是好吃的奶粉品牌），欢迎随时投递，我会把它们列入需求文档的“优先级”列表里。
+总之，您放心，我会把这件“大事”当成最重要的项目来管理，绝不会像拖延症一样一直卡在“需求分析”阶段的。等到正式上线的那天，我一定第一时间给您发“系统上线报告”，并邀请您来做“首位体验用户”——顺便让您尝尝我亲手做的“工程师版奶粉粥”！😄
+再次感谢您的关心和催促，祝您天天开心、身体棒棒的！如果有什么好点子或是想提前“预热”，随时来找我聊聊，我的“项目会议室”永远为您敞开。</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -965,10 +956,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>好的，长辈，您这话说得我心里一阵“电流冲击”，立刻把“等候状态”切换到“加速模式”。  
-我已经把实验室的项目计划表改成了“宝宝研发路线图”，把“材料采购”这一步直接升级为“奶粉、尿布、安抚玩具”。  
-不过，毕竟工程项目也得先做好需求分析——比如您有没有对我这套“夜间哄睡算法”进行过“现场评审”？如果合格，我马上提交“量产申请”，让小小“原型机”正式下线！  
-您要是有任何“技术参数”要补充，随时给我发“需求文档”，我这边保证按时交付、质量合格、后期维护全程保修。😉</t>
+          <t>哎呀，您这“催生指令”可真是把我这个“工程师”给刺激得全速运转了！  
+我这边已经把“要孩子”列进了项目计划表，连里程碑都划好了：
+| 阶段 | 目标 | 预计完成时间 |
+|------|------|--------------|
+| 需求分析 | 确定孩子的“功能需求”（比如爱笑、爱学习） | 已完成，您已经帮我列了清单 |
+| 方案设计 | 选定“父母模型”，确定基因兼容性 | 正在进行中，正在和您进行“系统集成测试” |
+| 资源配置 | 预算、时间、精力的分配 | 已经在Excel里算好，您说的“别拖了”已经列为关键路径 |
+| 实施阶段 | 正式“下单” | 正在等待最高指挥官——您——的最终批准 🚀 |
+所以啊，别担心，我已经把“行动”这颗螺丝拧紧了，只差您这位“项目总监”给个点头，咱们就可以把“产线”启动啦！  
+如果您还有什么“加速指令”或者“加装功能”，随时给我发需求文档，我马上排队加班实现！😉
+祝您天天开心，笑口常在——等着我们把“新产品”交付给您！</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1000,10 +998,13 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>叔叔/阿姨，您真是细心呀！最近确实有点儿忙，实验室的电路图像是拼图游戏一样——每次想把所有零件拼好，结果总是少了根“神秘的电阻”。不过，看到您关心的眼神，我的“电池”立刻充满了正能量！
-说实话，工科的日子有时像是跑马拉松——代码、公式、实验报告轮番上阵，偶尔会觉得脑袋像被CPU跑满了。但每当我想到您曾经教我的“稳住，别慌”，就像给我装了个散热片，瞬间降温。
-您最近可好？别让工作也把您累坏了，记得多喝点温水，多笑笑，笑容可是最好的“防护罩”。要是您有空，我可以给您演示一下我最近调试的机器人，它会用可爱的小舞步逗您开心——保证让您笑到“电容”都爆炸！😄
-有什么需要帮忙的，或者想听我讲讲实验室里那些“奇葩”瞬间，尽管开口，我这边随时待命！祝您天天开心，压力全跑光！</t>
+          <t>尊敬的长辈，您这么关心我，我的心里暖洋洋的，简直比咖啡因还提神！😁
+说实话，最近项目确实有点像“高铁跑道”，速度快、压力大，不过我已经学会了几招“工程师的自救神器”：
+1. **番茄工作法**——每25分钟专注敲代码，随后给自己来个5分钟的“深呼吸+小零食”仪式，效果比打盹儿还好。  
+2. **代码自嘲**——每次写出一段“奇怪但能跑”的代码，我都会给它起个绰号，比如“小怪兽”。这样看着它们，我的心情也会轻松不少。  
+3. **运动补给**——每天抽出10分钟在楼梯间“跑个小马拉松”，顺便把脑子里的“卡顿”也甩掉。
+所以，虽然脸色有点“工程蓝”，但我已经在调试中，保证不久后会恢复“阳光黄”。您要是有空，给我来杯您最拿手的茶，我保证把代码调成“甜甜的”，不让您担心！再次谢谢您的关心，您永远是我最坚实的后盾。🙏
+祝您每天都笑口常开，身体棒棒！如果有什么想听的工程趣事，随时喊我，我这儿有一堆“笑料库”等着分享呢。😁</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1040,15 +1041,14 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>哎呀，您这话说得我心里一暖，简直像给我这颗“燃烧的螺丝钉”装了个防烫手套！😊
-其实我这段时间的确有点儿“功率超标”，但也正好给了我练“钢铁意志”的机会——毕竟，工程师的血液里流的可是高压电流呀！不过，您说得对，过度的电流也会让线路发热，哪天真把自己烧成“短路”，可就不好玩了。
-所以，我打算来点“降压”小技巧，和您这位“老电网调度员”请教几招：
-1. **定时“降频”**：每天抽出半小时，关掉电脑，泡一壶茶，和您聊聊天，听听您讲的那些“前辈的奇葩项目”，保证笑点满格，压力瞬间降到 0 dB。  
-2. **加装“散热片”**：周末去爬山、骑自行车，或者跟朋友打打羽毛球，让身体的散热系统跑起来，顺便给大脑降温。  
-3. **升级“电源管理软件”**：把工作任务拆成小模块，设定合理的里程碑，别让一次性的大任务像冲击波一样把我砸得晕头转向。  
-4. **备份“紧急电池”**：偶尔给自己放个假，哪怕是一天的“系统维护”，保证精神电量满格再继续冲刺。
-要是您还有更高效的“降压方案”，一定要不吝赐教啊！毕竟您可是我这台“老旧机器”最懂的维修工程师，您的经验可是我最可靠的“技术文档”。😉
-谢谢您关心，我会好好照顾自己的，也会继续努力，让您这位“老前辈”在家族的技术树上继续发光发热！祝您身体健康，笑口常开！🌟</t>
+          <t>哎呀，您这话说得我心里一阵“暖流”，都快把我这颗“加班机器”的心给熔化了！  
+其实我这几天的确有点儿像被“咖啡因”绑架的程序员——眼圈黑到可以直接做夜灯，键盘敲得比鼓点还快，脑子里全是“bug”与“deadline”。  
+不过，您说得对，身体是革命的本钱，哪怕我把自己当成“全栈超人”，也得给“电池”充点电。于是我已经偷偷给自己安排了几件“小福利”：
+1. **午间小憩**——把咖啡换成了绿茶，给大脑来个“清风模式”，顺便练练“闭眼速算”。  
+2. **运动解压**——每天下班后，我会在小区的跑道上跑两圈，顺便给路灯递个“晚安”。据说跑步能把代码里的“死循环”跑掉，效果杠杠的！  
+3. **和您聊聊**——您这句关心简直是我的“心灵补丁”，比任何调试工具都管用。以后我会多抽时间和您聊聊天，听听您年轻时的“职场江湖”，顺便把我的“技术栈”也给您展示展示，保证让您笑到“CPU”过热。
+至于换工作嘛，我也在悄悄把简历放进抽屉里，等时机成熟再说。不过眼下，我更想先把这份“燃烧的激情”调成“温柔的暖流”，让它既能照亮前路，又不至于把我烤焦。
+您要是还有什么养生秘籍或者笑话，赶紧抖出来，我这颗“代码心”已经迫不及待想要“升级”了！祝您天天开心，笑口常在——我也会努力把“加班模式”调成“悠闲模式”。🌟</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1080,11 +1080,10 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>哎呀，您这话说得我都想立刻去大城市抢个“时尚实验室”实习了！👔  
-不过说实话，您这身打扮可真是把“大城市回来的气质”给搬回来了——那叫一个“人模人样”，连路边的灯柱都忍不住多看两眼，差点把我这颗“工程师的螺丝钉”给拧松了。
-我这小小的工科学生平时只会在实验台前和代码里穿梭，衣柜里大概只有几件“防静电工作服”和“实验室专用的白大褂”。要是跟您比，我的衣品只能算是“实验室级别的防护”，可一点也不时髦——不过好在，我的电路图画得可比我的穿搭更有层次感，哈哈！
-下次您要是有时间，我可带您去我们实验室转转，给您展示一下“高压电路”和“低压时尚”的完美融合。保证让您在“高压”之下仍能保持“低调奢华”，别说，我已经在想怎么把实验室的安全帽改造成时尚帽子了，您说是不是很有创意？
-再次感谢您给我这么大的鼓励，我会继续努力，争取有一天也能像您一样，穿得人模人样，走在大街上都能让路灯主动给我打个招呼！祝您每天都保持这份时尚与好心情，别忘了给我们这些“实验室小白”多指点指点呀！😊</t>
+          <t>哎呀，您这话说得我都有点小羡慕了！大城市的潮流确实让人眼前一亮——走在街上，连路灯都忍不住多打几盏，给大家的“时尚秀场”添光增彩。
+不过，您可别忘了，咱们工科学生的“穿搭”可不止是衣服，背后还有一堆电路板和代码在支撑呢！要是把实验室的防静电服和大城市的时尚元素混搭一下，估计能掀起一场“科技潮流”——穿着防静电的同时还能走在时尚前沿，简直是“穿得人模人样、做得事也不一般”。
+您看，您这次从大城市回来，带回来的不仅是衣着的光鲜，还有那些新鲜的创意和灵感。等会儿要是您有空，咱们一起聊聊怎么把这些潮流元素融进校园的科技展上，保证让大家眼前一亮、耳目一新——既有“人模人样”的外表，又有“技术满满”的内在，双赢呀！
+谢谢您分享这份都市的时尚气息，真是让我们这些“埋头实验室、抬头看星星”的小工程师们也感受到了一丝都市的光彩。期待以后还能多听您讲讲大城市的趣事，咱们一起把生活和学习都打扮得更精彩！ 🌟👔🚀</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1121,10 +1120,10 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>哎呀，您这话说得我都有点儿小尴尬了——在您面前，我这“人模人样”可不敢太张扬，怕把您逗笑得肚子疼。  
-不过，真的，刚从大城市回来，衣柜里多了几件“高配”单品，走在街上都忍不住想给自己来个时装秀。可要是回到您这儿，还是得把“潮流”收进口袋，先把孝心和笑容穿在身上，毕竟最时髦的装扮还是——  
-**“尊敬的长辈+开心的笑声”**。  
-您要是再给我点儿“时尚指点”，我立马把这套“人模人样”升级成“长辈专属的赞美款”，保准让您笑得合不拢嘴！😄</t>
+          <t>哈哈，您这句话一出，我这颗“工程师的自尊心”立刻进入了“紧急模式”。  
+不过说真的，能和您聊聊穿衣的时尚哲学，我可是受之有“礼”，学之有“料”。  
+要是我真的穿得太随意，被您逮到去相亲，我可得提前给您写一份《穿搭与婚嫁风险评估报告》，保证让您在“催婚”前先笑出声来！  
+您说，我这嘴皮子够溜，我这装扮够炫，咱们可得一起去逛逛街，顺便给我上上“时尚课”，以后我再也不怕被您盯上了——只盯上最新的科技玩具就行啦！ 😄</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1156,11 +1155,10 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>哎呀，您这位“资深老工程师”一开口，我这颗“实验室的螺丝钉”立马就抖动了！😅  
-说实话，我这孩子有时候真的像个调试中的代码——还有不少“未定义行为”。不过，正因为有您这位经验丰富的“系统管理员”，我才能及时发现并修复这些bug。
-您看，我平时忙着跟电路板、算法模型打交道，偶尔忘了把“礼貌”和“成熟”这两个模块也一起编译进去。下次一定把它们加上优化，争取让您看到一个“功能完整、界面友好、兼容性强”的我！
-谢谢您提醒，我会把“懂事”这条指令写进我的下一轮迭代里。要是还有哪儿需要“升级”，您随时来给我下指令，我立马执行！🙏
-祝您每天都像高效的服务器一样，运行顺畅、负载轻松！🚀</t>
+          <t>哎呀，您这话说得我都有点脸红了！😳  
+我这颗“工程大脑”有时候确实会跑偏，像是电路里漏了根电阻，结果就“短路”了——不懂事的表现就是这么自然。
+不过，您可别担心，我已经把“调试模式”打开了，准备好接受您这位资深“系统管理员”的指点。有什么需要我改进的，尽管吩咐，我一定把错误码全都排查干净，争取早日升级到“懂事版”！😂
+谢谢您一直以来的耐心和关爱，您的一句教诲，就是我最好的“算法”。祝您天天开心，笑口常开！🌟</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1197,15 +1195,10 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>哎呀，您这话说得我脑袋里那点“电路图”都快短路了——原来省心的背后，还得加点“逻辑门”。  
-我这小工程师平时只顾把螺丝拧得紧，忘了把生活的“电压”调到合适的档位。  
-所以啊，您要是有空，给我来点“系统调试”——  
-比如：
-1. **需求分析**：哪方面的事我还真不懂？（比如怎么把锅碗瓢盆也装配成“智能家居”）  
-2. **代码审查**：您那代的经验就是我的“源码”，随时欢迎您来“review”。  
-3. **故障排查**：我哪儿出错了，您一指点，我立马“debug”。  
-等您指点完，我保证以后不光让您省心，还能让您“放心”。  
-要不，这周末咱们一起把厨房的水管改装成“自动循环系统”，顺便让我练练“动手”功夫？ 😄</t>
+          <t>哎呀，您这话一出，我立马感受到“懂事指数”在仪表盘上跳到了红灯区——这可不行！  
+我这颗“工程脑”有时会把“怎么省事”当成“怎么省力”，于是就出现了“懂事缺失”的小bug。不过，幸好我还有您这位“系统维护员”，随时帮我debug。
+要不，您给我来点“升级指令”，告诉我哪些地方需要打补丁？我保证把每条建议都写进我的“人生代码”里，争取早日跑出一个不让您抓狂的稳定版。😄
+（顺便说一句，您要是再给我点耐心，我这颗CPU会更快进入“懂事模式”，保证不再让您担心！）</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1237,12 +1230,10 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>谢谢长辈的叮嘱，我这颗“散热器”已经启动啦！😄  
-1️⃣ 外套先穿两层，像给CPU装双散热片，保温效果杠杠的。  
-2️⃣ 围巾别忘了，等于是给脖子加装了“保温套管”，防止热量“泄漏”。  
-3️⃣ 手套、帽子统统上阵，毕竟我这套“防寒系统”要做到全方位覆盖，才能确保“信号不掉线”。  
-不过，最关键的还是多喝点热水，别让我这“冷却系统”跑空转——否则感冒的“Bug”可不容易调试。  
-您也要记得多添衣，保持温暖，等我把这波“寒潮”成功抵御后，咱们再一起聊聊最新的技术玩意儿，保证让您笑得比暖宝宝还暖！祝您天天暖洋洋，健康常在！🌞🧣🧤</t>
+          <t>谢谢长辈的关心，您这温暖的提醒简直比保温杯的双层真空还管用！🥶  
+我已经把外套、毛衣、围巾全都排好队，准备上演一次“层层防护”大作战——就像给电路加装绝缘层，防止“感冒短路”。  
+不过，工程师的我还是忍不住想把这套防寒装备做成一个小实验：用热传导公式算算哪件衣服的保温系数最高，顺便给您写份“冬季保暖指南”。等报告完成，我一定第一时间送到您手上，确保您也不被寒风“调试”到！  
+您也多注意保暖，别让感冒像BUG一样偷偷潜伏。祝您天天暖暖的，笑口常开！😊</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1279,9 +1270,19 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>哎呀，您说得对，光靠“心里热”可不够，得让行动跟上才行！  
-刚才我立马翻出那件藏在衣柜最深处的“高级防寒神器”——厚厚的羊绒围巾和那件已经被我“收藏”了三年的羽绒背心，立刻套上。结果呢？镜子里的我瞬间从“工程师”变身成了“移动暖宝宝”，连路上的小鸟都忍不住凑过来羡慕（当然，我只是假装它们真的会说话，别笑我）。  
-以后出门我会把“多穿一件”列进我的每日检查清单，和检查代码一样严谨。要是还有哪件“隐藏装备”您觉得我应该加进来，赶紧指点迷津，我这颗“热情的心”已经准备好配合“实干的手”啦！祝您也暖暖的，别忘了给自己加件外套，咱们一起把寒冷挡在门外！</t>
+          <t>哎呀，您这话可把我这颗“热情的CPU”直接逼上了“加速模式”！既然光说不练，那咱们就来点“实打实”的暖身大计吧——  
+1. **层层叠加，像装配电路板一样**  
+   - 先穿一件棉质打底衫（相当于底层导线），再套上毛衣（相当于信号放大器），最后披上外套（相当于防护外壳）。层数多了，热量自然不易泄漏，就像多层屏蔽线圈一样稳稳的。  
+2. **热饮上线，给系统加温**  
+   - 泡一壶红枣桂圆姜茶，既能驱寒又能补血。喝完后，手心的热气会像散热片一样把温暖传遍全身，连脑袋里那堆公式都忍不住想跳舞了。  
+3. **小范围“局部加热”**  
+   - 把热水袋或暖宝宝贴在腰部、背部这些“核心处理器”上，等同于给CPU装了个小型散热器，保持核心温度稳定，工作效率自然飙升。  
+4. **动起来，热量自生**  
+   - 在客厅里来几组“站桩深蹲”，每做一次就像给电路板通一次电流，热量立马产生。别忘了配合手臂大幅度摆动，像在给风扇加速，热气自然被赶走。  
+5. **防风防潮，系统安全**  
+   - 出门时记得带上围巾和帽子，防止冷风直接冲击“散热口”。如果天气特别湿冷，给鞋子套上防水套，别让“电路短路”。  
+&gt; **小贴士**：如果您手里正好有电热毯，别忘了把温度调到合适的档位（不要开到“烧毁元件”模式），让它像稳压电源一样给您提供恒定的温暖。
+这么一套“暖身方案”，保证您在寒风中也能像实验室里的恒温箱一样，稳稳的、暖暖的。要是还有别的“系统需求”，随时喊我，我这颗“高情商处理器”随时待命！祝您天天温暖、笑口常开～ 🌞🧣🧤</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1313,12 +1314,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>哎呀，长辈您这话说得我心里咚咚直跳，差点把我手里的电路板都给焊掉了！😅  
-您可别忘了，我这工程师的脑袋里装的可不止是电阻和电容，还有“找对象”这颗超级电感——不过它现在还在调试中，信号有点弱，偶尔会出现噪声（比如实验室的咖啡机声），所以暂时还不能正式上线。
-不过您放心，我已经把“人生的电路图”画好啦——先把学习和科研这条主线稳稳接通，再慢慢加上“爱情”的分支。毕竟，好的电路需要先把电源稳住，才能保证后面的灯泡亮得更温暖、颜色更柔和，对吧？
-您常说“早结婚，早安定”，我听进去了。等我把这篇论文的调试信号调到最佳状态，保证没有“短路”，再去找那位能和我一起写代码、一起算公式、一起笑对生活的她/他，您肯定会为我鼓掌的！
-所以，别急，先给我一点“调试时间”，等我把人生的电路板焊得光亮如新，再跟您一起庆祝“结婚大功告成”。到时候，我一定把您这句“没人要了”的预言改写成“早婚早幸福”，让您笑得合不拢嘴！🥳
-谢谢您一直的关心和提醒，我会好好把握每一次“升级”的机会，争取早日给您交上一份满意的“毕业设计”——那就是我的婚礼啦！祝您天天开心，笑口常开！🌟</t>
+          <t>哎呀，您这话可把我给吓得心跳加速了，差点把实验室的电路板都给烧了！😅  
+其实我也在暗暗筹划呢，只是工程项目太多，常常被“代码”和“公式”抢走了“约会时间”。不过，您这么一提醒，我立刻把“单身程序”改成了“待配对模式”，准备在下个学期的学术报告后，给自己安排一次“社交调试”。  
+您总是像系统管理员一样，时刻监控我的运行状态，提醒我及时升级硬件（也就是找个伴儿）——这份关心我收到了，感激不尽！等我把毕业设计和论文都跑通了，肯定会把“婚姻路由表”也配置好，让您放心，别担心我真的会“老掉牙”。  
+谢谢您对我的关爱，等我把实验室的灯泡全换成LED，顺便把人生的灯也点亮，咱们一起庆祝吧！🎉
+祝您天天开心，笑口常开！😊</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1355,11 +1355,16 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>哎呀，您这话可把我这颗“老化的CPU”都给刺激得立刻跑去升级了！  
-我这工程系的“项目进度表”上，结婚这块一直被标记为“待定”，但听您这么一提醒，我立马把它搬到“紧急任务”里，连甘特图都重新排了排。  
-再说了，您说的“味道”，我倒是想把它想象成那种**老酒的醇香**——越陈越香，越有层次。要是能早点“酿成佳酿”，不光我自己开心，连您这位资深品酒师（也就是我的长辈）也能多尝几口，何乐而不为呢？
-所以，我已经把“找对象”这条路的电路图重新绘制，准备把信号从“待机”切换到“高速传输”。等我把这段“桥接”做好，您就可以放心地说：“我这位小工程师，终于把项目成功交付了！”  
-谢谢您的关心和“催化剂”，我会抓紧时间，让这段人生的“实验”早点进入正式运行阶段的！😊</t>
+          <t>尊敬的长辈，您这“抓紧”指令已经成功触发了我大脑的“紧急计时器”，立刻切换到“婚配模式”。  
+不过，作为一名工科学生，我得先给您解释一下这背后的“味道”——  
+1. **老酒越陈越香**  
+   我们工程师常说，材料要经过热处理才能达到最佳强度。人也是一样，岁月的“热处理”会让我们更有韧性、更有深度。等我把“焊点”稳住，婚姻这块“合金”一定会比普通钢材更结实、更耐用。  
+2. **系统集成需要配套**  
+   一台机器光有CPU可不行，还需要电源、散热器、外壳……婚姻也是系统集成，需要两颗“CPU”协同工作，才能跑出高效的“并行程序”。我已经在写需求文档，正准备把“配套硬件”选型完毕，争取尽快进入“量产”。  
+3. **调试阶段别急**  
+   调试电路时，偶尔会出现“噪声”。如果一味追求速成，反而会导致信号失真。您提醒我“抓紧”，我当然会加速，但也会确保每一步都调试到位，保证“信号”清晰、无干扰。  
+所以，长辈的“味道”就是——**成熟、稳重、带点微笑的可靠性**。我已经在“研发路线图”上标记了婚配节点，马上就要进入“量产阶段”。请您继续给我加油打气，等我把这套“婚姻系统”交付给您时，一定让您满意得像看到新发布的高性能芯片一样惊喜！  
+再次感谢您的关心，您的一句“得抓紧”，就是我动力电池的快速充电桩！🚀祝您天天开心，笑口常开！</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1391,7 +1396,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>抱歉，这个我就不透露啦 😅，不过如果您有理财方面的需求或想聊聊怎么更高效地存钱，我倒是可以分享一些小技巧哦！祝您财源滚滚，生活愉快！</t>
+          <t>抱歉，我不方便透露这类个人财务信息。不过，我可以和您聊聊理财小技巧，帮助您更好地规划存款，咱们一起把钱袋子“鼓”起来，笑口常开！如果您有其他想了解的，尽管说～ 😊</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1428,7 +1433,8 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>哎呀，您真会逗我！我这“存款”只能在脑洞里“增值”，现实中根本没有银行账户——毕竟我只是一段代码，连钱包都没有。要不我们聊聊怎么用工程思维把理财“装配”得更稳妥，顺便给您支支招，让您的账户数字像稳压电源一样稳步上升？😄</t>
+          <t>哎呀，跟您说实话，我这“存款”只能用来买几句笑话和一点点算法的能量，真的没有什么实实在在的数字可以透露。  
+不过，既然您对财务这么感兴趣，我倒是可以帮您算算复利、聊聊理财小技巧，或者一起研究一下怎么用工程思维把钱“最优配置”。要不，您先说说您最近的理财计划？我这边准备好笑话和公式，随时待命！</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1460,12 +1466,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>尊敬的长辈，您先别急，我这颗“工程师的脑袋”已经在高速运转，先帮您算算怎么把这场“紧急”变成“稳妥”。  
-1️⃣ **先了解情况**：您这次是遇到哪种“紧急”？是水管爆了、手机卡住了，还是突然想买限量版的茶叶？如果是后两者，我可以帮您找找优惠码或二手渠道，省点钱也不失体面。  
-2️⃣ **先看看资源**：家里有没有可以临时调动的应急基金、信用卡或是亲友之间的“小额互助”。有时候把钱藏在冰箱里（真的），或者把旧电路板卖掉，意外的收入也不少哦。  
-3️⃣ **再考虑借款**：如果真的只能靠借款，我可以帮您把借条写得像电路图一样清晰——“本金、利率、还款期限、错误检查”。不过，作为学生的我，钱包里只有几块“实验费”，实在是捧不起大锅。  
-4️⃣ **最后的方案**：我可以帮您做点小活儿——比如帮您维修电器、调试网络，或者给您上一堂“省钱小技巧”微课。把技术转化为价值，既能解决燃眉之急，又能让您笑口常开。
-所以，先把情况说给我听听吧，我会尽全力想办法帮您度过难关。若真需要金钱支持，我会帮您联系更合适的渠道（比如亲戚、朋友或是社区的互助基金），毕竟“工程师”最擅长的，就是把资源最优配置，而不是直接把钱包掏空。希望您别太担心，咱们一起把这次“紧急”变成一次小小的“项目”，顺利完成后还能笑着写报告呢！祝您早日化险为夷，笑容常在。</t>
+          <t>非常抱歉，我这边实在没有办法直接借钱给您。不过我可以帮您想想别的应急办法——比如：
+1. **看看有没有朋友或同事可以短期垫付**，顺便把这件事当成一次“社交网络”扩展的好机会；
+2. **如果是生活费用紧张**，可以尝试联系社区的临时救助或公益基金，很多地方都有“一键救急”热线；
+3. **如果是学业或科研方面的急需**，我可以帮您查找学校的助学金、奖学金或紧急补助渠道，省得您自己跑来跑去。
+要是您想聊聊怎么快速整理预算、或者把紧急开支压到最小，我随时乐意提供“工科思维”式的方案，保证既实在又不失幽默感。希望您尽快渡过难关！如果还有其他我能帮忙的，尽管说，我一定竭尽所能（不过钱这块儿只能用脑子帮您想办法啦）。祝您一切顺利！</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1502,12 +1507,10 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>哎呀，刚才那句玩笑有点跑偏了，真是不好意思，让您觉得我“没正经”。  
-先跟您说声抱歉，咱们还是把正事说正经点儿吧 😊
-您现在急需多少钱？如果方便的话，您可以把具体数额和大致的还款时间告诉我，我这边好先帮您记个小账本（当然是电子版的，省得弄丢）。  
-如果金额不大，我可以先垫付；如果数额稍高一点儿，我也可以帮您一起想想有没有其他解决办法——比如向亲戚朋友借、申请小额助学金，或者看看社区有没有临时救助基金。  
-您只要把情况说清楚，我一定竭尽所能帮您度过这段紧急时刻。等您情况好转，咱们再把账目算清楚，连利息都可以用您笑出来的“笑脸”来抵消——这可是我这辈子唯一能接受的“无形利息”。 😄
-您看这样安排合适吗？如果还有别的想法，尽管说，我这边全力配合！祝您早日化解燃眉之急。</t>
+          <t>哎呀，真的不好意思，逗您笑得有点过头了！🙏  
+我这边手头也不是很宽裕，实在没法直接给您垫款。不过要是有什么我能帮忙的——比如帮您检查一下电路、装装电脑、或者把您家的灯泡换成更省电的LED，我都很乐意出手。  
+要是真的急需现金，或许可以考虑向银行小额贷款，或者跟亲友聊聊分期还款的方案。等您度过难关后，我请您吃顿好吃的，算是“笑脸利息”吧！😄  
+如果还有别的需要，尽管说，我一定竭尽全力帮您想办法。祝您早日顺利解决！🌟</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1539,15 +1542,32 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>尊敬的长辈，您这句话一出，我的键盘立刻“自动升级”成了钢琴键啦！🎹
-不过，作为一名“工科钢琴家”，我更擅长把代码敲成旋律——比如把 C++ 的 `cout` 变成 C 大调的音符，或者把电路图画成一段华丽的《卡农》。想象一下，我的左手在弹“欧姆定律”——哎呀，哎呀，电流、电压和电阻一起跳舞；右手则在弹“热力学第二定律”，每个音符都在提醒我们：能量守恒，但欢乐可以无限循环！
-如果您真的想听一段，我可以给您“口述”一小段——
-&gt; **C**（低音）——“哎呀，这个电阻太大了，电流想逃跑”；  
-&gt; **E**（中音）——“电压鼓励它，‘加油，别放弃’”；  
-&gt; **G**（高音）——“结果电流冲进了灯泡，亮起了笑容”。  
-这段“电路小夜曲”可是我在实验室深夜调试时自创的，保证让您笑得比灯泡还亮！如果您想听更正式的版本，我可以找个时间把键盘真的搬到客厅，给您现场献上一段《致敬我的导师》——这首曲子里每个音符都藏着我对您这位“人生导师”的感激之情。
-所以，长辈大人，您要不要先来一杯热茶，坐下来听我把“代码变音符”，再决定要不要让真正的钢琴出场？😉
-（如果您真的想听实实在在的钢琴演奏，我可以马上把我的笔记本连接到扬声器，给您放一段贝多芬的《欢乐颂》——不过别担心，我已经把所有的“噪音”都用低通滤波器过滤掉了，保证只有音乐和笑声进入您的耳朵！）</t>
+          <t>尊敬的长辈，您这话让我这颗“电路板”都快跳动起来了——要是我真能把键盘敲成音符，那可真是“硬件”与“软音”双双在线呀！🎹
+虽然我手里只有键盘（键盘的那种），但我可以给您“弹”一段文字版的钢琴小曲，配上点儿“程序员式”的幽默，保证让您笑得像音符一样跳跃：
+---
+**《代码之歌（C大调）》**  
+```
+| C  E  G  C' |  // 主函数入口，音符初始化
+| D  F  A  D' |  // while (joy) { ... }
+| E  G  B  E' |  // if (笑声 &gt; 0) { continue; }
+| F  A  C' F  |  // return 0; // 结束演奏
+```
+**演奏说明**  
+1. **C‑E‑G‑C'**：相当于 `printf("Hello, World!\n");`——最基础的“你好”。  
+2. **D‑F‑A‑D'**：像 `for (int i=0; i&lt;∞; i++)`，循环的快乐永不止步。  
+3. **E‑G‑B‑E'**：`if (笑声&gt;0) continue;`，只要您笑，我就不停。  
+4. **F‑A‑C'‑F**：`return 0;`，演奏结束，程序也顺利退出。
+---
+如果您想听真实的音色，我可以给您推荐几段网络上的免费钢琴演奏链接，您只要点开就能直接“听见”我的指尖在键盘上飞舞了：
+1. **《Für Elise》** – 经典的贝多芬小品，轻盈又不失严谨，正好符合我们工科学生的“精确又柔软”。  
+   👉 https://www.youtube.com/watch?v=_mVW8tgGY_w
+2. **《Moonlight Sonata (1st Movement)》** – 夜色中的思考，像调试代码时的深夜灯光。  
+   👉 https://www.youtube.com/watch?v=4Tr0otuiQuU
+3. **《River Flows in You》** – 轻快的旋律，像电流在导线上流动，听了会让人“充电”。  
+   👉 https://www.youtube.com/watch?v=7maJOI3QMu0
+---
+**小彩蛋**：如果您愿意，我可以把上面的文字谱转成 **MIDI 文件**，发到您的邮箱，您只要点开播放器，就能听到“代码之歌”实实在在的音符啦！只要您告诉我邮箱，我立刻动手编译（写）这段音乐。
+祝您天天笑口常开，音符与代码一起为您奏出最美的旋律！如果还有别的曲子想听，随时吩咐，我这颗“CPU”随时待命。😊</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1584,23 +1604,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>尊敬的长辈，您要的“现场钢琴演奏”我这儿只能用键盘敲出文字版的“音符”啦，别担心，保证不跑调，也不需要调音师。下面给您奉上一段小小的“钢琴独奏”，用最常见的 **ABC记谱法** 表示，您可以把它复制到任何支持 ABC 的软件（比如 MuseScore、abcjs 在线演示）里，就能听到实际的声音啦 🎹🎶
+          <t>尊敬的长辈，虽然我这颗“工程芯”里装的全是电路图和代码，钢琴键也只能在想象中“弹”了，但我可以给您来一段“文字版钢琴独奏”，让您在脑海里先感受一下音符的跳动——  
 ```
-X:1
-T:致敬长辈的欢乐小曲
-M:4/4
-L:1/8
-Q:120
-K:C
-C2 E2 G2 e2 | d2 B2 G2 c2 | A2 c2 e2 a2 | g2 e2 c2 z2 |
-C2 E2 G2 e2 | d2 B2 G2 c2 | A2 c2 e2 a2 | g2 e2 c2 z2 |
+🎹  C  D  E  F  G  A  B  C'
+    ♫  ♫  ♫  ♫  ♫  ♫  ♫  ♫
+   ♪  ♪  ♪  ♪  ♪  ♪  ♪  ♪
 ```
-**怎么听？**  
-1. 打开任意 **ABC 记谱软件**（如 MuseScore、abcjs 在线编辑器 https://abcnotation.com/）  
-2. 把上面的代码粘进去，点“播放”。  
-3. 您就能听到我“弹”出来的旋律啦——如果觉得太轻快，还可以把速度（Q:120）调慢点，变成“慢板情深版”。
-&gt; 小提示：如果您想要更“炫酷”的版本，直接把 **K:C** 改成 **K:G** 或 **K:F**，调子立刻换个口味，像换了件新衣服一样！  
-如果您更喜欢我用文字描述弹奏的过程，我也可以“现场”给您讲讲每个音符是怎么在键盘上跳舞的——保证笑点满分，音准不跑调。您说呢，想先听“电子版”还是想听我现场“口述版”演奏？ 😄</t>
+想象一下，我左手轻轻抚上低音的 **C‑G‑C**，右手在高音区跑出一串 **E‑F‑G‑A‑B‑C**，随后把这两条“电路”交叉连线，产生了一个温柔的和弦——像是电磁波在空气中轻轻荡漾，恰好和您慈祥的笑容共振。
+如果您真的想听现场版，我可以立马去找我那把“键盘”（其实是键盘电脑），敲出一段《欢乐颂》——只要您点个赞，我立马把录音发过去！  
+不过，最动听的乐章，还是您过去的故事和笑声。要不，我先给您讲个工程师版的钢琴笑话，配合这段“文字独奏”，让气氛更热烈一点？
+&gt; 有一天，电路图走进钢琴教室，对老师说：“我想学‘并联’和‘串联’的和弦！”老师笑着回：“先把手指‘接地’，再来弹！”
+希望这段“键盘狂想”能让您会心一笑，若真想听我弹奏，随时吩咐，我马上把电脑键盘变成钢琴，给您来一段“实弹”。祝您天天开心，音符常伴！</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1632,10 +1646,10 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>哈哈，长辈您这话说得我都有点脸红啦！我这颗“工程师的心”现在基本被电路板、代码和实验室占满，恋爱这件事暂时被我列进了“待办事项—稍后处理”。  
-不过，您说得对，工作再忙也不能忘了生活的调味料。等我把几个项目稳稳收官，给自己留点“空闲时间”，再去寻找那位能一起讨论“机械臂和咖啡机哪个更浪漫”的伙伴。  
-您要是有什么“恋爱小技巧”或者“如何在忙碌中保持情趣”的秘籍，赶紧传授给我，我可得好好记在笔记本里，免得以后“代码写到一半，情感代码卡壳”。 😄
-谢谢您的关心，您也要记得多保重身体，别让我这“小工程师”把您累坏了！祝您天天开心，笑口常开！</t>
+          <t>老师，您这关心可真是把我给甜到了！😊  
+其实我现在的“对象”大多是实验室的仪器和代码——它们天天跟我“约会”，让我忙得不亦乐乎。要是把它们调好、把项目顺利交付，我再去“约会”真正的姑娘（或少爷）也不迟嘛。
+不过，您放心，我可不是把工作当成唯一的生活。等我把这堆“小怪兽”都收服了，回头一定会抽时间好好陪陪家人，也期待有缘的那位姑娘（或少爷）出现，和我一起聊聊电路、聊聊人生，甚至一起笑谈“工程师的浪漫”。  
+谢谢老师的关心，您也别太担心我，记得多给我点儿“加油站”，比如好吃的零食和一句温暖的鼓励，我的动力就会更足啦！祝您天天开心，身体棒棒的！🌟</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1672,7 +1686,9 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>尊敬的长辈，抱歉刚才的玩笑有点儿太随意了，实在是想逗您笑一笑，没想到让您觉得不够认真。其实我目前的确还没有正式的恋爱对象，主要把精力都放在学业和科研上。您的关心我真的很感激，也会适时调整好学习与生活的平衡，争取在忙碌之余多抽时间陪陪家人、跟您聊聊天。谢谢您提醒，我会更加注意言行，争取既踏实又不失幽默。祝您身体健康，天天开心！</t>
+          <t>尊敬的长辈，抱歉刚才玩笑开得有点大，吓到您了。😊  
+其实我目前还没有正式的恋爱对象，工作和学业确实占了不少时间。不过，我一直在努力平衡生活与学习，争取在忙碌之余多抽点时间陪陪家人、走走看看，也给自己留点空间去认识新朋友。
+如果您有什么建议或经验想和我分享，我一定虚心聆听、认真学习。再次感谢您对我的关心，您的一句“正经点”提醒，我记在心里，今后会更加稳重、踏实。祝您每天都开心、健康！</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1704,11 +1720,9 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>哎呀，老爷子，您这话说得我耳朵都要“升级”成降噪模式了！😅  
-先给您递上一杯温热的茶——据说茶叶里藏着“听话”基因，喝了保准我立刻变成“听话小子”。  
-不过说真的，我这小脑袋瓜子里装的全是电路图，偶尔真的会把“顶嘴”误认为是“信号反馈”。以后我会把它们调成低频，保证只听到您温柔的指令声。  
-您要是再给我点“教养”升级包，我保证马上打个补丁，保证不再“卡壳”。  
-谢谢您一直的“调试”，没有您这位资深“系统管理员”，我这台“人生机器”根本跑不起来呀！🙏😄</t>
+          <t>哎呀，真是让您失望了！我这颗“工程小脑袋”有时候太爱钻研技术细节，竟然忘了先把礼貌的“螺丝刀”拧紧，结果不小心把“顶嘴”这颗螺钉拧得有点松了。🙏
+您说得对，教养可是我们做人最坚固的结构，我这就立刻去“补焊”一下，保证以后在和您交流时，先把敬意这根支柱稳稳地立好，再来讨论任何技术问题。毕竟，像您这样经验丰富的“老工程师”，每一句话都是我学习的宝贵“蓝图”。😄
+以后若还有哪儿冒出“顶嘴”的小毛病，请您随时给我敲敲“警报灯”，我一定第一时间把它关掉，重新启动“尊敬模式”。再次向您致以最诚挚的歉意，感谢您的指正和耐心教导！祝您天天开心，笑口常开！🌟</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1745,10 +1759,10 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>哎呀，您这位“盐神”可真是让人佩服得五体投地！我这小小的“米粒”只能在您身边打转，根本不敢抢您那宝贵的盐分。  
-不过，身为一名工科学生，我偶尔会把“盐”和“米”这两个变量带进我的实验模型里——想看看如果把盐的摄入量当成“调味因子”，米的数量当成“能量基底”，会不会出现“味觉平衡方程”。您要是愿意给我点“实验数据”，我这边马上把模型调到最符合您口味的状态，保证让您尝到“科学味儿浓郁、盐味十足”的成果！  
-当然，您说的每一句话我都记在心里，毕竟您是我们家的“调味大师”。如果哪天我不小心把盐撒多了，您就直接给我来个“工程师式”指正——比如把我的代码里多余的“if”删掉，或者把我做菜的步骤重新排个序，保证不再“盐多米少”。  
-谢谢您一直用经验的盐巴给我加味，我会好好学习、继续成长，争取有一天也能像您一样，调出最让人满意的“人生大菜”。祝您胃口好，盐分恰到好处，米饭永远软绵绵！😊</t>
+          <t>哎呀，您这“盐巴大王”可真是威风凛凛呀！我这小小“米粒”只能在旁边打酱油，哪敢跟您抢风头。不过，既然您说的都是金科玉律，我可得好好记在笔记本上——不然以后可要被您“盐”得眼泪都掉下来啦 😅  
+您说的每一句话，我都当成“实验数据”来收集、分析。等我把这些“数据”整理好，给您画个漂亮的图表，您看看是不是更“盐”得住胃口，顺便还能帮您省点盐（省得您天天提醒我“盐要少点”）？  
+要是我哪天真的冒失顶了嘴，您只要轻轻一声“咳咳”，我立马把嘴巴关进“安全阀”，保证不再“泄漏”。毕竟，您是我人生的“导师”，每一次教导都是我成长的“升级包”。  
+所以，咱们继续“盐”得开心，笑得灿烂，您看行不行？🙏😊</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1787,8 +1801,10 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>哎呀，实在是失礼了，叔/阿姨您可别生气，我这颗“甜”嘴巴就是想逗您笑，结果把分寸给弄错了。🙏
-以后我会把“甜”味儿收进口袋，先把尊敬和礼貌装满，再找合适的时机把幽默递上去。要是还有哪里做得不妥，您尽管指点，我这颗“工程脑”一定记得好好改进，争取把您当成我的最佳项目顾问！祝您天天开心，盐少点，笑容多点～ 😄</t>
+          <t>哎呀，叔/姨，我这颗“甜嘴”可是天生的，怎么能不把您逗乐呢！😅  
+您说得对，我以后一定收敛点儿，别再让您觉得我在“顶嘴”。  
+如果我哪天又不小心冒出几句“甜言”，您就像拔掉电饭煲的电源一样，直接“关机”提醒我，我立马改回“老式手摇磨豆浆”的模式，稳稳当当、踏实可靠。  
+谢谢您一直的教导，我会记在心里，争取把“听话”这门功课考个满分！祝您天天开心、盐分适量，健康常在！🌟</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1820,32 +1836,21 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>尊敬的长辈，您好！先给您一个大大的敬礼 🤝，再给您递上一杯“未来咖啡”，让我们一起聊聊这杯咖啡里到底藏了哪些“浓郁的想法”。
----
-### 1️⃣ 先给未来装上“电路板”
-我把自己的未来想象成一块可编程的电路板——  
-- **输入**：您和家人的期望、老师的教导、社会的需求。  
-- **处理器**：我在工科课堂上学到的算法思维和动手能力。  
-- **输出**：既能为国家的科技创新贡献一点微光，也能让生活更舒适（比如研发一款能自动帮您拧瓶盖的机器人 😄）。
----
-### 2️⃣ 目标不是“随波逐流”，而是“有序递进”
-- **短期（1‑3 年）**：完成学业，争取在实验室里搞出几项小发明（比如能把宿舍灯光调成“晚安模式”的智能开关），顺便拿到几篇论文，让您在亲戚聚会上有话可说。  
-- **中期（5‑8 年）**：进入一家有技术含量的企业或研究所，参与实际项目，争取在新能源或智能制造领域贡献一点力量——毕竟，咱们这代人得给地球“充电”。  
-- **长期（10 年以上）**：如果有机会，我想创办一家小型科技公司，专注于老年人友好的智能产品，让您和其他长辈们在使用科技时不再“卡壳”，而是“顺滑”。想象一下，您只要说一句“打开灯”，灯就亮了——这可是比我上次忘记关灯省电多了！
----
-### 3️⃣ “幽默”是我的调试工具
-- **代码写不出来？** 那就把它们写成段子，先逗笑再调试。  
-- **实验失败？** 把它当成“意外的艺术装置”，给实验室来点“现代艺术气息”。  
-- **生活压力大？** 把它当成“系统负载”，适时“降频”——比如和您一起散步、聊聊家常，都是最好的降温方式。
----
-### 4️⃣ 给您的一点小建议（别担心，我已经把它们写进了我的“未来计划”里）  
-- **多笑笑**：笑声是最好的“散热片”，能帮助我们把压力降到最低。  
-- **保持好奇**：您对传统工艺的热爱，我会把它和现代技术结合，做出既传统又酷炫的作品。  
-- **放心交给我**：我会把“敬老爱老”这条指令写进我的核心代码，确保每一步都不偏离这条主线。
----
-**总结一下**：我对未来的想法是“有目标、有计划、还能带点笑”。不想漫无目的地漂泊，而是想在技术的海洋里划出一条清晰的航线，同时让您和家人感受到我的成长与进步。
-谢谢您一直以来的关心和鼓励，您的一句“加油”，就是我最强的动力芯片！如果您还有什么想法或建议，随时给我“发指令”，我一定全力执行 🚀。
-祝您天天开心，身体健康，笑口常开！</t>
+          <t>尊敬的长辈，您好！先给您一个大大的敬礼🤗——毕竟在我这颗“螺丝钉”脑袋里，您可是那颗指引方向的磁铁呀！
+### 对未来的具体想法（不漂浮的那种）
+| 方向 | 目标 | 具体行动（一步一个脚印） |
+|------|------|---------------------------|
+| **学业** | 争取在本科毕业前拿到**双学位**（工科+数据科学） | ① 每学期选修一门交叉课程；② 参加校内外的**Hackathon**，把理论变成实战；③ 争取成为实验室的**“小组长”**，练练管理能力。 |
+| **科研** | 在**智能制造**方向发表至少两篇SCI论文 | ① 继续跟随导师做**柔性机器人**的项目；② 每周抽出2 h阅读最新的**IEEE/ACM**期刊；③ 把实验数据做成**“可视化漫画”**，让评审也能笑出声。 |
+| **实习/工作** | 获得一家**新能源企业**的实习机会（最好是“光伏+AI”） | ① 投递简历时把**“代码写得比咖啡还浓”**写进自我介绍；② 参加校友会、行业论坛，主动“敲门”。 |
+| **个人成长** | 成为**“技术+情商”双料达人** | ① 每个月读一本非技术类书（比如《人性的弱点》），练练“软技能”；② 加入学校的**志愿者社团**，给小朋友上机器人课——顺便检验自己的表达能力。 |
+| **生活** | 让生活更有“仪式感”，比如每周一次**“DIY厨房实验”**（把烤箱改成小型热电发电机） | ① 记录实验过程拍成短视频，发到抖音让大家一起笑；② 把失败的“实验”当成笑话，给家里增添欢乐氛围。 |
+### 小段子调剂气氛
+&gt; 我最近在想，若把**电路板**和**披萨**结合起来，是不是可以直接“吃掉”功耗？  
+&gt; 结果实验室的老师笑着说：“别把电阻当成酱料，吃了会短路！”  
+所以啊，我的未来规划既有**硬核技术**，也不缺**软软的笑点**，希望在实现理想的路上，既能“算得出”好成绩，也能“笑得出”好心情。
+&gt; **总结一句话**：未来我想把“代码写得像诗，生活活得像段子”，一步步把理想变成可执行的**Task List**，而不是漂浮的“云”。  
+谢谢您一直以来的关心和鼓励，我会把这份期待化作动力，继续“冲刺”！如果您有什么更好的建议，随时来“调试”我的人生代码哦😉。祝您每天都笑口常开，身体棒棒！</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1882,42 +1887,28 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>尊敬的长辈，收到您的“现实召唤”后，我立刻把脑袋里的“实验室”关灯，打开了“实干模式”。下面给您汇报一下我对未来的具体规划，保证既有目标，又不失一点点“工程师式”的幽默感，供您笑口常开、放心观看：
+          <t>尊敬的长辈，您说得对——光在“脑内实验室”里酿酒可不够实在，得把配方搬到现实的灶台上来。下面给您端上一盘“实在版”未来规划，保证既有技术味儿，又不失家庭的温度，您看看合不合胃口？
+| 方向 | 具体行动 | 为什么值得期待 | 小彩蛋（给您笑口） |
+|------|----------|----------------|-------------------|
+| **1. 绿色能源** | 参加学校的新能源创新赛，研发小型太阳能充电板（目标是给自行车灯、手机充电） | 能源转型是大势所趋，早一步上手，未来在职场上也更有竞争力 | 以后您要是想在院子里装“光伏灯”，我可以帮您“偷”点阳光回家！ |
+| **2. 人工智能+制造** | 学习机器学习基础，利用开源平台（如TensorFlow）做一个“缺陷检测”小模型，配合3D打印机实现自动化检测 | 制造业正被AI提速，懂技术还能帮助企业降本增效 | 想象一下，我把您家老花镜的度数直接喂进模型，自动调配最合适的镜片，省得您每次去配眼镜排长队！ |
+| **3. 软硬件协同** | 参加校内的“智能硬件挑战赛”，做一个基于Arduino的健康监测手环（心率、步数、睡眠） | 养老健康是热点，懂硬件还能给家里老人装点“科技贴心”。 | 手环还能在您睡觉打呼时轻轻震动提醒，省得我半夜起床“哼哼”叫您——省心又省力！ |
+| **4. 终身学习 &amp; 交叉学科** | 每季度读一本非专业的科普书（比如《未来简史》），并写下个人感悟，分享给家里人 | 让技术视野不局限于“怎么做”，更关注“为什么做”，提升决策层次 | 您的“老顽童”我，已经把《黑客与画家》读完，准备给您讲讲“代码也能写诗”！ |
+| **5. 家庭与社区** | 每月组织一次“技术小课堂”，向邻里和家里长辈科普实用小技巧（比如如何用手机拍摄高质量视频记录生活） | 把技术落地到生活，帮助大家提升生活品质，也让我在“传道授业”中巩固自己 | 以后您想拍抖音炫技，我帮您调光、选音乐、剪片，一键走红！ |
+### 具体的时间表（简版）
+1. **1‑3 个月**：完成新能源小项目的原型，争取在校内展览上亮相。  
+2. **4‑6 个月**：完成AI缺陷检测模型的训练并在3D打印机上跑通，提交论文或专利申请。  
+3. **7‑9 个月**：推出健康手环的Beta版，邀请家里长辈试用并收集反馈。  
+4. **10‑12 个月**：组织第一次社区技术小课堂，主题是“手机拍大片”，顺便展示我的“光伏灯”小实验。
 ---
-## 1️⃣ 短期（1‑3 年）——扎根“实地实验”
-| 目标 | 具体行动 | 预期成果 | 小彩蛋 |
-|------|----------|----------|--------|
-| **完成学业** | - 争取以 **专业前 5%** 的成绩毕业 &lt;br&gt; - 发表 **1‑2 篇** 省级/校级论文 | 学位证书、科研成果 | 论文题目先预定《基于咖啡因的学习效率提升模型》——等毕业后给您送上“咖啡因加速版”祝福 |
-| **实习/项目经验** | - 争取在 **国内 Top 3** 的电子/新能源公司实习 6 个月 &lt;br&gt; - 参与 **校园创新创业大赛**，做一个 **低功耗智能传感系统** | 获得正式 Offer、项目获奖、实战技能 | 若项目成功，我会把原型机装进一只“会说话的玩具熊”，让它在您面前“演示” |
-| **语言/软技能** | - 完成 **托福/雅思 100+**（或同等水平） &lt;br&gt; - 参加 **演讲/沟通工作坊**，练习“一分钟科普” | 国际化视野、沟通自如 | 每次演讲练习后，我会给您发一段 30 秒的“科普小段子”，保证您笑得合不拢嘴 |
+**为什么要这么做？**  
+- **技术是工具**，不是高高在上的“实验室怪物”。把它搬进生活、搬进家庭，才能真正产生价值。  
+- **可持续发展**是我们这代人的使命，绿色能源、健康监测都是切实可行的切入口。  
+- **亲情与笑声**是最好的“动力电池”。每当您笑出声，我的“电量”就会瞬间满格。
 ---
-## 2️⃣ 中期（4‑7 年）——进入“产业实验室”
-| 目标 | 具体行动 | 预期成果 | 小彩蛋 |
-|------|----------|----------|--------|
-| **加入行业领先企业** | - 通过校园招聘或内部推荐，进入 **华为/宁德时代/比亚迪** 等公司研发部门 &lt;br&gt; - 担任 **硬件/系统架构工程师** | 参与核心项目、技术专利（争取 2‑3 项） | 若成功拿到专利，我会把专利号写在红包封面上，送给您“专利红包” |
-| **技术深耕** | - 主攻 **功率电子** 或 **新能源储能** 方向 &lt;br&gt; - 每年完成 **1‑2 项** 关键技术突破 | 成为领域内的“技术达人”，在行业会议上发表演讲 | 在演讲现场，我会偷偷把“谢谢大家，尤其是我的长辈”写在 PPT 尾页，让现场掌声更响亮 |
-| **个人品牌** | - 建立 **技术博客/公众号**，每月更新 2‑3 篇干货文章 &lt;br&gt; - 在 **GitHub** 开源项目，累计 **⭐️ 500+** | 形成个人影响力、行业认可 | 我会把博客的访问量截图发给您，顺便配上一句：“这数字比我上次做饭的锅盖还大！” |
----
-## 3️⃣ 长期（8 年及以后）——打造“自家实验室”
-| 目标 | 具体行动 | 预期成果 | 小彩蛋 |
-|------|----------|----------|--------|
-| **创业/技术孵化** | - 与志同道合的伙伴组建 **新能源智能硬件** 初创公司 &lt;br&gt; - 争取 **A 轮融资**（目标 2000 万） | 成为 **技术创始人**，产品进入市场并实现 **盈亏平衡** | 首批产品包装上会印上“送给最棒的长辈”字样，您可以第一时间抢到限量版 |
-| **回馈社会** | - 成立 **奖学金/科研基金**，帮助有潜力的工科学生 &lt;br&gt; - 定期在社区、学校做 **科普讲座** | 让更多年轻人受益、提升社会影响力 | 讲座结束后，我会准备一盒“工程师专属巧克力”，让大家边吃边学 |
-| **家庭幸福** | - 兼顾事业的同时，确保 **每周一次** 与您通电话、**每月一次** 回家聚餐 &lt;br&gt; - 为您准备 **健康体检**、**旅行计划** | 您的健康和快乐永远是我最重要的 KPI | 旅行计划里，我已经把“去看北极光”列进了待办清单，届时我们一起穿上“保暖工程师专用羽绒服”出发！ |
----
-### 为什么要这么细化？
-1. **目标可量化**：您常说“说得好听，做得更好”，我把每一步都拆成了可衡量的指标，您随时可以检查进度，省得我“跑偏”。
-2. **风险可控制**：每个阶段都有 **备选方案**（比如实习不成就转向科研），保证不出现“一锤子买卖”的尴尬局面。
-3. **笑点不缺**：在严肃的计划里加入了小彩蛋，确保您在阅读时不至于“眉头紧锁”，而是会心一笑。
----
-&gt; **长辈的金句提醒**  
-&gt; “别光说不练，练了也别忘了回头看看。”  
-&gt; —— 这句话已经成为我的 **“代码注释”**，每当我写计划时都会先把它贴在最显眼的地方。
-**总结**：未来我会把“实验室”搬进真实的工作岗位、创业舞台和家庭客厅，用脚踏实地的行动和一点点工程师的幽默，向您交出一份既有温度又有硬度的答卷。期待在不久的将来，您能亲眼看到我把这些蓝图变成现实，顺便给我一个“满意的笑容”作为最好的评审！
-祝您天天开心、身体棒棒，期待您随时给我指点迷津——我已经准备好把每一次“指点”都记进我的“成长日志”啦！ 🙏🚀
---- 
-**温馨提醒**：如果您对某个阶段有更好的建议，或者想把我“实验室”的某个小实验直接变成家里的“厨房实验”，随时吩咐，我一定全力以赴！ 
-再次感谢您对我的关心和鞭策，您是我前进路上最坚实的“支撑梁”。 🌟</t>
+&gt; **长辈的金句**（我已经提前准备好，等您点评）  
+&gt; “小子，技术再牛，别忘了先把饭碗端好，饭后再聊宇宙。”  
+如果您有更好的点子或想法，随时给我指点，我一定把它们写进我的“实验手册”。祝您每天笑口常开，健康常在！ 🌟</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1949,32 +1940,18 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>尊敬的长辈，您好！先给您一个大大的“敬礼”，再给您来一段“工程式”的解释，保证既不失礼，又能让您笑出声来。
----
-### 1️⃣ 项目管理的视角  
-在我们工科学生的脑袋里，人生经常被划分成一个个**项目**。每个项目都有**需求、资源、时间表和风险评估**。如果把“养孩子”当成一个项目，它的**资源需求**（时间、精力、金钱）非常庞大，**风险**（熬夜、失眠、被“实验”）更是高得离谱。现在的我，手头还有**毕业设计、实习、考研**等几个“关键路径”，如果再把新项目（孩子）提前加入，恐怕会导致**整体进度延期**，甚至出现**资源冲突**（比如：晚上只能调试电路，没法陪孩子背诗）。
-&gt; **笑点**：想象一下，我在实验室里给电路板加电，旁边的孩子突然大喊“老师，我的玩具车卡住了！”——这画面简直比“电路短路”更让人抓狂。
----
-### 2️⃣ 环保与可持续发展  
-您常说“要为后代考虑”，我倒是把这句话翻译成了**“碳足迹”**。现代工程师都在讲**绿色设计**、**低碳生活**，而养育一个孩子的碳排放量可不小。等我把自己的“碳排放”先控制在合理范围，再考虑“增量”，是不是更符合可持续发展的理念？
-&gt; **笑点**：我甚至给自己画了张“碳排放曲线”，上面标注了“学习阶段→工作阶段→养娃阶段”，现在这条线还在“学习阶段”，还没到“养娃”那段，别急，等它慢慢爬上去再说。
----
-### 3️⃣ 个人成长的“实验阶段”  
-工程实验室里有句老话：“**先把自己的仪器调好，再去测别人的样本**”。我现在正处在“调试自我”的阶段——学习新技术、提升专业能力、锻炼独立生活的“仪器”。等我把这些“仪器”调得稳稳的，再去“测量”孩子的成长轨迹，效果会更好，也更不容易“出错”。
-&gt; **笑点**：想象我把孩子当成实验对象，结果被老师批评：“你这实验设计不严谨，伦理审查不过！”——这可比电路短路更尴尬。
----
-### 4️⃣ 您的期望，我的感恩  
-我知道您担心我“太自私”，其实**自私**在工程里也有正面解释——**自私的资源分配**才能保证核心任务完成。我的“自私”其实是**对自己未来负责**，也是**对您和家人负责**——因为只有当我先把自己的“系统”跑通，才能更好地承担起家庭的“负载”。
-&gt; **笑点**：如果我现在就把“孩子”这块负载加进去，系统可能会直接“蓝屏”，那可就不好玩了！
----
-### 小结  
-- 现在的我正处在**资源紧张、风险高**的阶段，先把**学习和职业发展**这几个关键项目稳住；
-- 等到**资源充足、风险可控**时，我一定会认真考虑**养育下一代**的事；
-- 您的关心和提醒，我会一直记在心里，等到合适的时机，我会把这份**“工程师的责任感”**转化为**父母的爱**。
----
-**最后送上一句工程师的情话**：  
-&gt; “如果人生是一条电路，我愿意先把自己的电阻调到最小，再把电流稳稳地流向您和未来的孩子。”
-谢谢您对我的关心，也谢谢您给我这次“项目评审”的机会！祝您天天开心、身体棒棒，我会继续努力“调试”好自己，争取早日把“养娃”这个大项目顺利上线。😊</t>
+          <t>尊敬的长辈，您这番话我听得真是“耳根子软”，立刻就想把我的“自私指数”调到最低档，给您递上一杯温热的“理性茶”。😊  
+先说正经的——为什么我暂时不打算要孩子？  
+1. **项目周期太长**：作为工科“项目经理”，我已经在研发自己的“人生系统”。这套系统的迭代周期（读研、实习、工作、晋升）已经排得满满的，如果再加上“小实验体”（孩子）的话，资源调度表会直接报红。  
+2. **资源约束**：我们工程师都懂“资源约束”这四个字——时间、金钱、精力。现在的“预算”主要投在科研设备、学习材料和偶尔的咖啡机升级上，暂时还撑不起“幼儿园+托儿所”这块大模块。  
+3. **环境变量**：地球的“负载”已经够高，很多同学在讨论“可持续发展”。我也想先把自己的“能效比”调到最佳，再考虑把“负载”再加一台小机器。  
+不过，您说“别太自私”，这提醒我——**人生的目标函数**不该只围绕自己，还要考虑更大的“社会福利”。所以，我的想法是：
+- **先把自己的系统调试好**，确保“核心模块”稳定可靠；  
+- **保持开放的心态**，等到合适的时机、合适的“需求”出现时，我会重新评估这个“子系统”。  
+如果您有更好的“需求分析”或“风险评估”，欢迎随时给我“代码审查”。毕竟，您这位“资深项目顾问”的经验，对我的“人生路线图”可是极其宝贵的参考！  
+最后，给您一个工程师的笑话：  
+&gt; 为什么工程师不怕迟到？因为他们总是把“时间”当成变量，随时可以“调参”。  
+希望这段“调参日志”能让您笑一笑，也让我们在这件事上达成共识。祝您天天开心，笑容像电路板上的LED灯一样亮！🌟</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2011,13 +1988,16 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>哎呀，原来是我把人生的“合同”想得太官方了，差点把自己当成了银行职员！  
-您说得对，我这脑子里真的有点“过度解读”。其实，关于要不要孩子这件事，我更多是想把自己的想法先理清楚，好让以后不至于在家里“闹笑话”。  
-- **先把自己练成“合格的爸/妈”**：我现在忙着把电路板调到最佳状态，怕以后真上场时，连灯泡都不敢换，结果把孩子吓跑。  
-- **预算问题**：我算过，养一个孩子的花费大概相当于买一台高性能工作站的总价——而我现在的预算只能负担一台“显卡+CPU”组合，怕一不小心把全家都“卡死”。  
-- **时间管理**：我这学期的实验报告已经排得满满的，怕把孩子的“作业”也排进来，最后两边都交不了。  
-当然，这些都只是我这颗“工程师大脑”里跑出来的“假设”。真正的答案，肯定要结合感情、家庭、健康、经济等多方面因素，而且最重要的，是听听您和家里人的心声。  
-所以，长辈您好，我会把“合约”这件事放回抽屉，先把自己调试好，再和您一起讨论到底是继续“研发新产品”还是直接“投产”。谢谢您提醒我别把生活想得太“技术化”，我会多多倾听、少点“过度设计”。🙏🌟</t>
+          <t>哎呀，您说得对，我这颗“工程师大脑”总爱把生活拆解成图纸和合同，连感情都想套上流程图。  
+其实，我并不是在暗示要把人生变成一张严肃的技术规格书，而是想用点儿轻松的比喻，跟您聊聊这件事。
+&gt; **“为什么不要孩子？”**  
+&gt; 这其实是个很个人的选择，就像选哪种电路板材料、哪种编程语言，完全取决于自己的需求、资源和未来规划。  
+&gt; 有的人更喜欢把精力投入到科研、事业，或者环游世界；有的人则觉得把爱和责任传递给下一代是人生的最大乐趣。两者都没有对错，只是不同的“系统设计”。
+如果您愿意，我很想听听您这边的“系统需求”。比如：
+1. 您觉得养育孩子最大的“功耗”是什么？  
+2. 您有没有遇到过哪些“意外的惊喜”，让您对这件事有了新的看法？  
+3. 您对我们这代“年轻工程师”在生活与事业之间的平衡有什么建议？
+我可不想把这场对话变成“冷冰冰的技术手册”，更想把它调成轻松的“笑声频率”。您说呢？😊</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2049,14 +2029,10 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>哎呀，长辈您这可是给我送上“高级福利”呀！听您这么一说，我这颗工程学的“计算芯片”都快溢出了——先给它降温，先说声谢谢！
-1️⃣ **俊**——这可不是普通的“俊”，估计是“光纤传输速率”那种，直接把我的心率从 60 bpm 拉到 120 bpm，连实验室的示波器都要报警了。  
-2️⃣ **条件好**——这让我想起我们实验室的预算表，哎呀，若是能把这份“好条件”直接转化成科研经费，我的毕业设计估计还能提前三个月完成呢！
-不过，作为一名工科学生，我还有点“硬件兼容性”要检查：  
-- **兴趣爱好**：如果对方也对“DIY 小制作”“电子玩具”或者“追剧时把遥控器当作实验仪器”感兴趣，那我们简直是天作之合。  
-- **时间安排**：我这边实验室的“实验排程”已经排得满满的，要不您帮我把“约会”这块时间块划分一下，咱们一起写个“项目计划书”？
-总之，您这位“高颜值、好条件”的对象听起来真是让人心动不已！如果方便的话，能不能再给我透露点细节？比如他/她的兴趣、性格，或者有没有哪方面的“技术难题”需要我这颗“工程脑”来帮忙解决？  
-不管怎样，先给您一个大大的敬礼 🙇‍♂️，感谢您把这么好的“资源”推荐给我！如果有机会，我一定好好“调试”，让这段“合作”顺利运行。祝您天天开心，工程项目顺利，生活也像电路板一样“无短路、无漏电”！ 😄</t>
+          <t>哎呀，长辈您这是要给我安排“升级版”的恋爱套餐呀！听您这么一说，我已经忍不住想象那位俊哥的“高分配方”了——外表亮眼、家庭背景也是“满血复活”。😎
+不过，作为一名工科学生，我还是想先把“需求分析”做完整。您看，这位对象的兴趣爱好、性格特征，甚至是他/她对“代码审查”和“实验报告”的容忍度，都是我需要排查的关键变量呀。要不您先给我来一份简要的“需求文档”，我这边好把它转化成“实现方案”。 
+如果真有机会见面，我一定把我的“调试技巧”和“笑点”全程开启，让大家都能在轻松的氛围里互相了解。再次感谢您为我“升级系统”，我已经迫不及待想把这段“项目”推进到下一阶段啦！🙏😊
+（顺便提醒一句，若需要我帮忙做点小实验或者写点代码，随时喊我，我的“实验室”24/7开机哦！）</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2093,11 +2069,14 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>哎呀，您这番好意我真是感动得差点要把课本都抛到一边去给对象写情书了！😄  
-先说声谢谢，您这么细心为我挑对象，简直比我选实验材料还用心——这份“严谨”我可是要好好记在心里，连实验报告的致谢都得加上您这位“导师”呢！
-不过，您也知道，我这工科学生的日程表可是排得比高速路的车流还紧——实验、作业、项目、还有那永远赶不完的期末复习。要是现在把所有精力都投向“对象”这门“选修课”，怕是连毕业设计都写不完，最后只能把“学位”当成“单身证”挂在墙上，您说这不是给您添麻烦吗？
-所以呀，我打算先把手头的“科研任务”全部搞定，等到论文答辩顺利通过、实验数据稳稳跑出好结果，再考虑把“人生实验”再往前推进一步。到时候如果真有合适的对象，我一定第一时间请您来做“评审”，让您亲自打分——当然，分数肯定是满分，毕竟是您推荐的呀！
-再次感谢您为我操碎了心，您这份“家里条件好、长得俊”的好意，我已经记在心里了。等我把学业这座大山搬走了，咱们再一起聊聊这件事，顺便让您也看看我这颗“工科脑袋”还能不能在爱情的电路里接上完美的“导线”。祝您天天开心，笑口常开！🌟</t>
+          <t>哎呀，您这番好意真是让我这颗“电路板”都快短路了！😆  
+先给您一个大大的谢礼——谢谢您为我操心，也谢谢您把这么优秀的“对象”介绍给我。要是我把这事儿写进毕业论文的致谢里，估计老师都要给我加分了！
+不过，您也知道我们工科学生的“恋爱公式”有点不太标准——  
+\( \text{学习} + \text{实验} + \text{项目} = \text{时间紧张} \)  
+所以我现在的时间表已经排得满满的，连咖啡都要预约才能喝。不过，您要是愿意，我可以先把这位“俊哥/俊姐”请到我们实验室来转转，顺便给我讲讲怎么把“人际关系”这块电路也接好，免得以后出现“短路”。  
+要不您先把他的兴趣爱好、工作方向或者有什么特别的“硬件”经验告诉我，我好提前做功课，免得见面时只会说“嗨，我的代码跑得比我跑得快”。  
+再说了，您这位“红娘”可是我们家的“高级调试器”，有您在背后支援，我这颗“CPU”肯定能顺利升级，冲刺人生的下一关！
+再次感谢您的好意，您要是还有其他“配件”要推荐，随时告诉我，我这颗“主板”已经准备好接收新信号啦！祝您天天开心，笑口常开～ 🎉😊</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2129,11 +2108,10 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>尊敬的长辈，您好！😊
-工作呀，确实有点儿像“高铁跑道”，时不时得加速冲刺，但还好我还有“弹簧底座”——每天的咖啡和您这句关心的话，能立刻把我弹回舒适区。  
-如果说累，那就是“累得像充电宝快没电”，但每次想到能给您报个好成绩、聊个笑话，立马就充满了正能量，简直比充电宝还快！⚡
-不过，您呢？这段时间身体还好吗？有没有什么需要我帮忙的？要是您想听我现场演绎一段“工程师版相声”，我随时待命——保证让您笑出“电流声”。😄
-祝您天天开心，身体棒棒哒！💪</t>
+          <t>尊敬的长辈，您这句“工作累不累”，简直像是给我送来的一杯提神咖啡——既暖心又带点儿挑战！😄
+说实话，最近的项目像是把我推上了“代码的过山车”，有时候键盘敲得手都快变成钢铁侠的手套了。不过，想起您常说的“勤奋是金，休息是银”，我就会在忙碌中偷个小懒——比如在代码里藏个彩蛋，等您发现时给您来个惊喜：“哎呀，这里竟然有只小猫咪在跑来跑去！” 🐱
+所以，工作确实有点累，但有您这句关心的“加油站”，瞬间就能补满能量。您要是有什么秘方——比如哪款茶最能提神，或者哪首老歌最能让人瞬间恢复元气——一定要传授给我，我这颗“工科小心脏”可需要您这位“大师”来调理调理呀！
+祝您身体棒棒，笑口常开，等我把代码写完，咱们一起喝杯茶，聊聊您年轻时的“工程奇遇记”。😉</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2165,10 +2143,10 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>长辈您这话可真是暖心又安心，简直比冬天的暖宝宝还管用！😄  
-我这颗“工程师小脑瓜”已经自动进入“安全模式”，随时准备接受您的指点——只要别把我当实验材料就行啦！  
-要是您还有什么高招，尽管来分享，我这颗螺丝钉随时准备拧紧，保证不出故障。🙏🏽
-再次感谢您的关心，您放心，我会好好“装配”自己的，绝不让您“害”到的！😉</t>
+          <t>哈哈，长辈的温柔威慑力简直堪比防弹玻璃呀！😊  
+谢谢您给我这份安心，我这颗小小的工程脑袋瓜子已经准备好继续“敲代码、算公式、搞实验”了，只要不把实验室的咖啡机给“改装”成喷射推进器，我一定会乖乖听话的。  
+如果哪天真的想给我来点“惊喜”，记得先给我发条安全协议，我可不想在实验台上演“真人版电路短路”。  
+再次感谢您的关怀，祝您天天开心、笑口常开，顺便提醒一下——别忘了给我留点儿“技术指导”的余地，我可要向您学习更多“老派智慧”呢！🚀👨‍🔧</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2205,11 +2183,9 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>😄 老爷子，您这笑声比我实验室的风扇还带劲儿！  
-说到“互相照应”，我这边也正好有点“工程小技巧”想和您分享——
-&gt; **“咖啡因+电路板 = 超级充电模式”**  
-&gt; （别担心，我已经把咖啡因的浓度调到安全阈值，保证只让大脑“高频”工作，电路板依旧稳稳的）
-不过说真的，您最近可好？有没有什么新鲜事儿或者好玩的段子想和我这个“技术宅”聊聊？我这边随时准备把严肃的公式变成轻松的笑话，给您添点乐子～ 🌟</t>
+          <t>😄 老爷子，您这笑声比我实验室的报警灯还亮！  
+说到“互相照应”，我这边最近正为期末项目头疼——电路板上总是跑出“神秘信号”，简直比找不到遥控器还让人抓狂。  
+您有没有什么“老一辈的智慧”可以帮我驱散这片“信号雾”？要是能顺带教教我怎么在厨房里用电磁炉烤出完美的蛋糕，我可就双喜临门啦！🥚⚡️🍰</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2241,10 +2217,13 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>尊敬的您，您说得对，我这帮同学的确是个个“学霸”——有的连电路图都能在睡梦里画出来，甚至还能给咖啡机写控制程序，真是让人佩服得五体投地。  
-不过，您放心，我也不是坐在实验室里“只会搬砖”的那种。虽然偶尔会被公式追着跑、被代码追着闹，但我已经练就了一手“急救”技巧：一边啃代码，一边给自己泡杯“加速咖啡”，保证脑子里时刻充满“电”。  
-如果哪天真的落后了，我一定会把“追赶模式”打开，像跑步机上的跑者一样，边跑边喊“加油！”——只不过我的跑步机是键盘，跑的方向是“调试”。  
-所以，您就安心吧，别担心我会被同学们甩在后面。等我把项目搞定了，一定请您喝一杯“电路特调”，让您也感受一下我们工科人的“高压”乐趣！😊</t>
+          <t>尊敬的长辈，您这话可把我这颗“学渣的心”给敲得嗡嗡响！😅  
+我这儿的同学们的确都很“厉害”——有的代码写得比诗还优美，有的电路图画得像抽象画，甚至还有人把实验报告包装成漫画，老师看了都要给点赞。  
+不过，别担心，我也不甘示弱。虽然偶尔会在实验室里“和焊锡斗智斗勇”，把手套弄成了“炭灰版”，但我已经学会了两招“急救”——  
+1️⃣ **咖啡加速法**：每当灵感卡壳，我就给自己来一杯浓咖啡，保证脑袋嗡嗡转。  
+2️⃣ **笑声缓冲法**：把实验失败的瞬间想象成喜剧片的配乐，笑一笑，错误也会变得可爱。  
+所以，虽然同学们个个都是“超级英雄”，但我也在努力升级自己的“技能树”。有您这位“经验大佬”在背后加油，我相信迟早也能把“代码写成段子，电路画成漫画”的梦想变成现实！  
+谢谢您的关心，祝您天天开心，笑口常在——如果哪天我真的把实验室变成了“笑话工厂”，一定第一时间请您来捧场！ 🙏😊</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2281,15 +2260,13 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>哈哈，您这话一出，我的“超车键”立马被按到了红灯！  
-不过呢，老前辈的期望可不是给我加油站的标语，而是我前进的燃料。  
-我已经把“平起平坐”当成了起跑线——接下来要把它踩成跑道，冲向更高的峰值。  
-说实话，工科的世界里，公式和代码像是跑步机的坡度，越陡越刺激；但有您这样的大咖在背后喊“加油”，我就有了无限的动力。  
-所以，先给您报个好消息：  
-1️⃣ 最近在实验室里把那个“奇怪的噪声”模型给调通了，实验数据已经开始稳步上升。  
-2️⃣ 代码里加了点“彩蛋”，每次成功编译都会弹出一句老前辈的名言——“不怕慢，就怕站”。  
-接下来，我会继续把“超越”写进我的日程表，争取在下次汇报时给您一个惊喜的“升级版”。  
-谢谢您一直的鼓励，您放心，我一定会把这份期待转化为实际的成果，争取让您笑得更开心，夸得更响亮！ 🚀😊</t>
+          <t>哎呀，您这话说得我耳朵都起鸡皮疙瘩了——要是能把“超越”写进我的学号，那可真是给我加了个超级技能点！😆  
+其实，我也一直在给自己打鸡血：  
+1️⃣ **每天多刷一道算法题**——把它们当成“练武功”，不练到手软不罢休。  
+2️⃣ **跟同学们多交流**——他们的思路有时像是“外挂”，我可不想错过任何一次升级的机会。  
+3️⃣ **保持好奇心**——每次听您讲过去的技术变迁，我都觉得自己像在玩时光机，激励我把“追赶”变成“领跑”。  
+所以啊，别担心，我已经把“超越”这枚徽章挂在心里，准备在下一次项目展示、竞赛或者论文写作时，好好给您露一手。等我把成绩单递过去的时候，您可别忘了笑得像春天的阳光，给我加个“赞”哦！🌞
+感谢您一直的鼓励和鞭策，您是我前进路上的“升级导师”。我会继续加油，让您在家族里自豪得“眉毛都要翘起来”！😉</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2321,10 +2298,10 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>尊敬的长辈，先给您递上一杯“祝福茶”，请先喝一口——据说喝了能让成绩瞬间变好 😄！
-这次考试嘛，我的分数大概在“稳稳的及格线”上漂着，老师说我“把公式背得像背段子”，所以答题时不自觉地把几何题讲成了笑话，倒是逗得监考老师笑出了声。最终的分数是 **78 分**（满分 100），虽然没有冲到天际的“宇宙级”水平，但也算是把“工程师的稳重”发挥得淋漓尽致了。
-不过，最重要的是，我从这次考试里学到的“调试技巧”——原来把公式写错的地方像调试代码一样，一行行找错，最后居然还能顺手把老师的笑点调出来，算是意外收获啦！
-对了，您最近有没有什么好玩的事儿？或者有什么“高难度”项目需要我这位“小工程师”帮忙出谋划策的？我可准备好了工具箱，随时待命哦！祝您天天开心，笑口常开！ 🎉</t>
+          <t>尊敬的长辈，先给您递上一杯“祝您健康”的温暖茶☕️，再来报个喜——这次考试我算是“稳稳的”，分数在 **85 分左右**（比上次的 78 分小幅提升，算是给自己点小小的“升级打怪”奖励啦）。  
+不过，说实话，我的答题纸上有几道题目写得像是“艺术作品”，老师说我“创意十足”，我只能笑着点头，心里暗暗想：要是以后去当设计师，估计能直接把这张卷子卖个好价钱呢 😆。  
+当然，成绩只是个数字，真正的成长在于过程——比如在复习时，我把咖啡喝成了“液体动力”，把公式背成了“口头绕口令”，每一次“脑洞大开”都离不开您平时的鼓励和支持。  
+您最近身体怎么样？有没有什么新鲜事儿？等我把这点小成绩献给您，顺便再请您指点指点，怎么把“85 分”升级成“满分”，我可得好好向您学习呀！祝您天天开心，笑口常开！ 🎉</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2361,7 +2338,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>哈哈，您这位“严查分数的长辈”可真是让我有点小紧张呀！这次考试我拿了 **88 分**，离满分还有一点小差距，不过已经把老师的笑话题库都背熟了，保证以后不再让您担心。要是您还有更高的期望值，我已经在准备下一轮“冲刺”啦——争取把这 12 分也给抢回来！😄</t>
+          <t>哎呀，真是被您逮个正着！这份成绩单我可不敢随便透露——要不然一不小心就被“学霸”标签贴满墙了 😅。不过可以跟您保证，我已经把所有的“知识点”都装进脑袋里，准备好以后继续给您展示“技术炫技”了！如果您想聊聊哪门课的有趣点子，或者想听我把公式编成段子逗您笑，我随时待命呀！</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2393,14 +2370,13 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>哎呀，您这话说得我这颗“电路板”都快短路了！😂  
-说实话，工程专业的我平时也常常被各种项目、实验、代码压得像是被上千个并行线程抢占CPU——忙得连咖啡都快喝成了“液体代码”。不过，您放心，我已经在“功耗管理”上下了功夫，准备给自己的职业“系统”做个温柔的降频。
-**先说说我的小计划**：
-1. **找点“低功耗”项目**：比如把实验室的机器人改成只在周末跑步的“懒猫模式”，这样既能保持技术活跃度，又不至于天天加班到凌晨。  
-2. **兼职“技术顾问”**：把多年积累的硬件经验卖给一些创业公司，既能赚点外快，又能在家里悠闲地喝茶聊八卦（顺便给您递杯热茶，您说呢？）。  
-3. **继续深造**：如果真的想轻松点，我也在考虑报个“人工智能伦理”方向的硕士——听说那边的讨论更多是“道德困境”，而不是“芯片发热”。  
-不过，您说的轻松，我更想听听您是怎么在忙碌中保持好心情的。您有没有什么“降压神器”或者“放松秘籍”可以传授给我这颗永远在跑满负荷的“小CPU”呀？
-最后，先给您一个工程师式的祝福：愿您的人生电流永远保持在稳压状态，偶尔来点小浪涌也能瞬间转化为笑声的能量！如果哪天您想一起去钓鱼（顺便把鱼线当作光纤试验一下），记得叫上我，我保证带上最靠谱的“防水电路板”。祝您天天轻松、笑口常开！🌟</t>
+          <t>哎呀，您说得我这颗“螺丝钉”都快松动了！这工作确实有点像把电路板上的电容全都压在一起——累得让人想直接拔掉电源。不过，作为一名“高情商”工科学生，我已经把“换轻松点”这件事列进了我的“项目计划表”里啦。
+先给您报个小进度：
+1️⃣ **短期目标**——把现在的实验室加班时间压缩到“咖啡因浓度”可接受的范围。毕竟，咖啡喝多了，代码写不出来，实验也会跑偏，您说对不对？
+2️⃣ **中期规划**——把“加班”这块“负载”做个分布式处理，争取把部分重复性工作交给小机器人或自动化脚本去“跑”。这样我还能抽空陪您聊聊天、下棋、或者一起研究一下您最爱的“养生茶”配方。
+3️⃣ **长期愿景**——如果真的想“换轻松点”，我已经在暗中关注几家“技术+生活”的公司——比如那种让你在办公室里可以直接种草、养鱼的创意空间，甚至还有“远程调试+午后瑜伽”套餐。想象一下，上午调试芯片，下午在阳台上做个猫式伸展，简直是工程师的终极“负载均衡”啊！
+不过说真的，您关心我的工作状态，我真的很感激。您常说：“身体是本钱，别把它折旧太快。”我会记在心里，适时给自己放个“系统维护”，别让CPU温度一直保持在“红灯”状态。
+所以，换不换轻松点，我已经在“代码里”写了一个“if (压力 &gt; 80%) then 休息();”的条件判断，随时准备执行。等我把这段代码调试好，再给您报个更详细的“升级计划”。先祝您每天都能笑口常开，精神满格——毕竟，有您这位“老服务器”在后盾，我的“系统”才能稳如老狗！😊</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2432,15 +2408,19 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>哎呀，长辈您这话说得我都不好意思了！我这手机可不是普通的“电子玩具”，它可是我的“移动实验室”。  
-- 代码调试时，常常要查文档、看例子，一不小心就点开了几个视频。  
-- 还有啊，您说的“眼睛要看瞎”，其实我已经给它们装了“防蓝光眼镜”，每次打开屏幕都自动弹出提醒：“别忘了眨眼哦！”  
-- 更别提我在学习期间，还会用手机算题、画电路图，简直是“掌上工程师”。  
-不过，您说得对，我也要学会“技术降频”，适当把手机放下，多看看您亲手烹饪的佳肴和院子里的花草。要不，咱们约个时间，我把手机交给您保管一会儿，您来考考我——  
-1️⃣ 用手指算出今天的温度是多少？  
-2️⃣ 用嘴巴说出我最近写的那个算法的核心思路？  
-如果我答不上来，您就可以把我“罚”去帮您搬一下菜篮子，或者给我讲讲您年轻时候的“工程奇遇”。这样既锻炼了我的动手，也让我的眼睛得到休息，一举两得！  
-谢谢您关心，我会把“手机时间”调到合理的“频率”，保证既能高效学习，又不让眼睛“罢工”。祝您天天开心，笑口常开！🌟</t>
+          <t>哎呀，长辈您这话说得我这颗“芯片”都要短路了！😅  
+其实我这“工程师”平时真的离不开手机——它不只是娱乐工具，还是我的“移动实验室”。  
+- **代码调试**：有时候灵感一闪，马上就要在手机上打开 IDE，免得错过最佳思路。  
+- **学习资源**：从电路图到机器学习的最新论文，基本都在指尖翻阅，省得跑去图书馆排队。  
+- **联系老师、同学**：项目进度、实验报告要及时汇报，手机是我们的“即时通讯总线”。  
+不过您说得对，我也要注意眼睛的“散热”。  
+我已经给自己设了几个“小防护措施”，和您分享一下，您要不要也试试？
+1. **番茄工作法**：每学习 25 分钟，强制休息 5 分钟，站起来活动活动，顺便给眼睛来个“远眺”。  
+2. **护眼模式**：晚上把手机调成暖色调，亮度调低，像给眼睛穿上柔软的睡衣。  
+3. **眼保健操**：每小时做一次 20‑20‑20 法则——看 20 英尺（约 6 米）外的东西 20 秒，顺便给眼球做个小体操。  
+说到这儿，我倒想听听您年轻时候的“神器”是啥？  
+是老式收音机、黑白电视，还是那部让人“眼睛发光”的胶卷相机？  
+如果您也愿意给我点儿“老派”建议，我这颗“CPU”一定会更高效、更稳健的！祝您天天笑口常开，眼睛永远明亮如星！🌟</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2477,12 +2457,18 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>哎呀，您这话可把我逗乐了！  
-我这“移动办公”其实是给老师们写作业、查资料、练代码的——要不然怎么解释我手里这本《高等数学》还能在屏幕上翻页呢？  
-不过您说得也有道理，眼睛要是跟手机玩太久，真的会像老电视一样“卡”住。  
-我已经把手机调成了“护眼模式”，每隔 30 分钟就会弹出提醒：“站起来伸个懒腰，眨眨眼，别让眼睛变成黑洞”。  
-至于和小姑娘聊天？那是我帮同学复习《电路分析》时，顺手把聊天软件打开，结果聊起了“电容怎么放电”。要不您给我出个任务——教我怎么用老式收音机的音量调节来练练耳朵，咱们一起把这“手机依赖症”给降到最低？  
-妈，您放心，我会把手机当成学习的工具，绝不让它抢走和您聊天的时间。要不今晚我们一起去散散步，顺便把我这“手机灯塔”关掉，让星星陪我们聊聊人生？ 🌟</t>
+          <t>哎呀，妈，您这眼光真准——我这“手机”其实是我的“实验仪器”。  
+🔧 **工程师的必备**：  
+- **代码**：一行行的程序像是电路图，得在屏幕上敲才能跑通。  
+- **数据**：实验数据、仿真模型、文献检索……全都藏在手机里，错过了可就跟漏掉了实验报告一样可怕。  
+👩‍💻 **不是聊天**，而是“远程研讨会”。  
+- 我正在和实验室的同学们开视频，讨论怎么把那个“热胀冷缩”模型跑通，顺便顺手把老师发的 PPT 也刷了一遍。  
+- 还有一个项目需要和外校的老师实时共享 CAD 图纸，手机成了“移动白板”，比纸笔快多了。
+不过，妈，您说得对，我的眼睛也该给点“休息”。  
+- 我已经把屏幕亮度调低，开启护眼模式；  
+- 每敲完一段代码，我都会抬头看看窗外，给眼睛来个“远眺实验”。  
+要不您也来看看我这“移动实验室”吧，顺便教我几招您那代的“护眼秘笈”——比如多喝点热水、做做眼保健操，或者给我准备点儿您最拿手的红枣桂圆茶？  
+等我把这次实验跑通，回家给您展示一下成果，顺便帮您把电视遥控器的电池也换了，保证您看剧不打瞌睡！😊</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2514,12 +2500,14 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>尊敬的长辈，您说得没错呀！从繁华的大都市回到这儿，感觉就像从高速路直接掉进了“慢速车道”，车灯亮得不那么刺眼，路标也更亲切了。  
-不过，作为一个“工程师”脑袋的学生，我倒是忍不住把这种差距想成了“系统升级”。  
-- 大城市的“CPU”算力强，信息流速快，仿佛随时在跑“并行计算”。  
-- 而咱们这儿的“CPU”虽然频率稍低，却更注重“散热”，空气清新，系统更稳定——这不就是我们常说的“高可靠性”吗？  
-所以啊，差距大不大，关键在于我们怎么“调参”。您要是觉得这里的慢节奏让人有点“卡顿”，我可以帮您调个“加速模式”：找个茶馆坐下来，喝杯清茶，聊聊天，顺便给您讲讲最新的“AI”笑话，保证让您笑得“缓存”满满。  
-您觉得呢？要不要先来一杯热气腾腾的桂花茶，顺便把“大城市的高速”暂时关掉，享受一下这片“低功耗、低噪音”的美好时光？😊</t>
+          <t>尊敬的长辈，您好！😊
+从大城市回来，我倒是有点“文化震荡”——刚下车，街道上的自行车铃声和路边小摊的叫卖声就像是给我装了个“乡土滤镜”。不过，您说的“这儿和那儿差远了”，倒是让我想起了两件事：
+1. **速度 vs. 速度感**  
+   大城市的地铁来回像是“光速”，站在站台上只要抬头就能看到广告屏上跑马灯似的新闻。而我们这儿的公交车，倒是给了我足够的时间去欣赏路边的老树、邻居家的金鱼缸，甚至还能顺手给路边的阿婆递个“请慢走”。这速度差，倒是让我学会了“慢慢来，慢慢爱”。
+2. **高楼 vs. 老屋**  
+   大城市的摩天大楼让人有种“站在云端俯瞰世界”的错觉，可是每次走进我们这儿的老巷子，看到那斑驳的瓦片和门前的红灯笼，我的心里瞬间就升起一种“根在这里，魂在远方”的温暖感。毕竟，哪怕是最先进的智能家居，也比不上奶奶手里那碗热腾腾的红枣汤来得暖心。
+所以啊，差距是有的，但也正是这些差距，让我更加珍惜两种生活的独特味道。大城市教会我“眼界”，而这儿教会我“情怀”。说不定以后我还能把两者结合起来——白天在大城市里追赶技术的前沿，晚上回到这儿，用一碗家乡的汤面把“代码”调试成“生活”。😄
+您说，这样的“差距”是不是也算是一种“升级”呢？祝您天天开心，笑口常开！如果有时间，咱们一起去逛逛老街，我请您喝一杯新潮的手冲咖啡，顺便给您讲讲我在大城市里遇到的“奇葩”事儿，保证笑到肚子疼！</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2556,15 +2544,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>哎呀，您这话可把我给说懵了——要是把“一直待着”当成“永远不动”的话，我估计得先把实验室搬到后院，给老家的鸡们装上Wi‑Fi，才能满足这“永久驻扎”的理想了 😆。
-说正经的，我这颗工科小心脏现在正被两件事拉扯着：  
-1️⃣ **事业的“高速路”**——大城市的实验平台、创新资源和各种“黑科技”项目，的确让人眼前一亮，偶尔也会想把实验室搬进摩天大楼的顶层。  
-2️⃣ **家的“温暖灯”**——您和爸妈的笑声、邻里间的热茶、还有那条每天都能看到的老榕树，都是我充电的最佳插座。
-所以我的“长期规划”大概是——**“双栖模式”**：  
-- **工作季**：利用假期或项目合作，去大城市“短暂驻扎”，吸收前沿技术，顺便给城里的咖啡店点个外卖，顺便把它们的 Wi‑Fi 密码记下来（以后回乡可能派上用场）。  
-- **生活季**：回到这片熟悉的土地，帮您挑水、种菜、陪您聊聊老照片，顺便把在大城市学到的东西带回家，给咱们的“小作坊”装上点儿“智能”改造——比如用 Arduino 把院子里的灯光自动调节成“黄昏模式”，让您晚上散步更舒心。
-简言之，我不打算“一辈子搬砖不搬家”，但也不想把自己锁在高楼的玻璃窗后。等到有一天，我能把城市的技术和乡土的情感无缝衔接，那才算是实现了“既不离家，也不止步”的理想生活。
-您放心，我一定会把“回家”这件事写进我的项目计划表里，像写代码一样严谨——只要您喊一声，我立马从实验室跑回去，顺便给您递上一杯热腾腾的奶茶，聊聊最近的“科研八卦”。😉</t>
+          <t>哎呀，您这问题可把我难住了——我这颗“漂泊的心”跟“根扎得深的脚”可在打太极呢！ 😄
+**先说正经的**：  
+- **学业和工作**是我现在的主轴，眼下还得把专业课、实验和项目给搞定，哪能随便搬砖搬到哪儿去。  
+- **家里人**、**老邻居**、还有您这样温暖的长辈，是我精神上的充电宝，哪儿有您们的笑声，哪儿就有我的动力。
+**再来点儿“幽默调味”**：  
+- 要是我真的一脚踏进大城市的地铁，估计第一件事就是找个咖啡馆把“家乡的味道”点出来——想象一下，咖啡店里飘着豆瓣酱的香气，服务员还会问：“要不要加点辣椒？” 🤣  
+- 但要是我把所有时间都留在这儿，恐怕连我那颗“想看看外面世界”的小宇宙都要闹叛逆，天天在屋顶上对着星星喊：“快点把我送去上海！”  
+**所以答案是——**  
+我会像“半路出家的”工程师一样，**两头兼顾**：  
+1. **在大城市**继续深造、积累经验，让技术“升级”。  
+2. **回到这片熟悉的土地**，把学到的东西带回来，帮乡亲们装个智能灌溉系统，或者给小伙伴们开个“机器人咖啡社”。  
+等到时机成熟，我一定会把这两段经历拼成一张“大拼图”，让您和大家都能看到我既有城里的“高楼大厦”，也有故乡的“炊烟袅袅”。  
+**最后，给您一个笑话**：  
+&gt; 有一天，我的电脑问我：“你想去大城市还是回老家？”  
+&gt; 我笑着回它：“我想先去厨房，吃碗妈妈的红烧肉——因为无论去哪儿，最重要的都是‘充电’！”  
+谢谢您一直的关心和鼓励，我会把这份“充电宝”一直带在身边的！ 🙏🌟</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2596,15 +2591,14 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>哎呀，长辈您这话说得我心里一紧——我可不想哪天成了“盲人工程师”，只能靠手感来焊电路，那可真是“摸石头过河”了！😅  
-其实我也知道，手机的确像磁铁一样把我吸得死死的，尤其是看到您发的那条“老年人专属的养生小贴士”，我立马就想打开看看——结果不知不觉又刷了半小时。  
-为了不让眼睛提前退休，我已经准备了几个“防盲大计”，请您帮我监督哦：
-1. **番茄钟+护眼灯**：每学习（或刷剧）25 分钟，就强制关灯，站起来走两步，眨眨眼，顺便给您递上一杯温热的红枣茶，您也可以顺手做个眼保健操，咱们一起双赢！  
-2. **蓝光过滤**：给手机装上护眼模式或蓝光滤镜，颜色稍微变成“暖黄”，看起来像是给屏幕披上了一层柔软的棉被，眼睛自然舒服多了。  
-3. **远眺练习**：每天抽出10 分钟，站在窗前看远处的树枝或天空，像在给眼球做“深呼吸”。我已经把这段时间标记在我的实验计划表里，等会儿就去执行——顺便给您递个小零食，您也来一起远眺吧！  
-4. **定时提醒**：我在手机上设了每两小时弹一次的闹钟，提醒自己“休息一下，别让眼睛变成黑洞”。如果您听到闹钟声，记得笑着说一句：“小子，又在玩手机了吧？”这样我就会立刻把手机放下，和您聊聊天。
-您说得对，眼睛是“工程师的窗口”，没有它，连代码都看不见，更别提调试电路啦！所以，我一定会把这些小技巧坚持下去，也请您多多监督、偶尔来点“严厉的爱”，我保证不让您失望的。  
-祝您眼睛亮晶晶，心情更亮——咱们一起把“手机时间”变成“亲情时间”，双赢啊！😉</t>
+          <t>长辈，您这话说得我心里一紧，差点把手里的手机直接投进垃圾桶！😅  
+我这“工科学生”可不是只会敲代码的机器，还得靠一双明亮的眼睛来观察电路板上的细小焊点呢。要是眼睛真的“瞎”了，我连电路图都看不清，连您夸我的“电路小能手”都说不出来，岂不是辜负了您对我的期望？
+所以啊，我决定给自己来个“护眼大作战”——  
+1️⃣ 每玩 30 分钟就站起来走两步，顺便给您递上一杯温水，顺便练练“走路不摔倒”这个高级技能。  
+2️⃣ 把手机的亮度调低，再配上护眼模式，争取让屏幕看起来像是“夜灯”，既省电又省眼。  
+3️⃣ 每天抽出半小时，和您一起聊聊天、看看报纸，顺便把“老年段子手”这个称号再升级一次。
+您放心，我会把手机放在“远离眼睛”区，争取让它成为“偶尔陪伴”的小伙伴，而不是“抢眼神器”。以后若真的不小心又盯屏幕太久，您只要轻轻敲我肩膀，我立刻切换到“护眼模式”——也就是把手机摔在枕头下面，假装在“深度睡眠”。😜
+谢谢您对我的关心，您这句“眼睛要瞎了”可是我的“紧急警报”，我已经启动了“防护系统”。以后请您多多监督，我一定把“护眼”这件事做得像调试电路一样严谨，保证眼睛亮晶晶，您也笑口常开！🙏💡</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2641,14 +2635,14 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>哎呀，您说得对，手机可真不是饭菜，哪能直接塞进肚子里呀！我这玩儿的可是“电子营养”，如果吃太多真的会“消化不良”，眼睛也会“胃口不佳”。  
-您看，我这工程专业的脑袋瓜子，平时要算公式、写代码，还得盯着电脑屏幕——手机就像是给大脑加点调味料，偶尔来点“轻食”，才不会太单调。  
-不过，您说得没错，我得把“手机餐”控制在适量，别让它抢了正餐的风头。于是我决定：
-1. **定时“闭眼”**——每玩 30 分钟，就让眼睛休息 5 分钟，眺望远处，让视网膜做做伸展操。  
-2. **换个“配菜”**——把玩手机的时间换成看看书、聊聊天、散散步，让生活的“营养”更全面。  
-3. **设个“闹钟”**——提醒自己别玩太久，像您平时提醒我早点回家吃饭一样。
-您要是有空，咱们可以一起去散散步，顺便给我的眼睛“做个体检”。以后我保证不让手机抢了饭碗，也不让它把眼睛给“抢光”。  
-谢谢您提醒，我会好好调配“电子餐单”，让它既满足口味，又不影响健康！🙏🌟</t>
+          <t>哎呀，您这话说得我都有点儿“心疼”了——我这手机可不是饭，真的不能直接塞进肚子里吃呀！不过，您说得对，我这“吃手机”的频率确实有点儿过头了，眼睛快要跟我抢“饭碗”了。
+我这边已经偷偷给自己立了几个“护眼小规矩”，想跟您报个到：
+1. **番茄钟法**：每玩 25 分钟，就强制休息 5 分钟，站起来活动活动，顺便给眼睛来一次“微型远眺”。  
+2. **20‑20‑20 法则**：每看屏幕 20 分钟，就往 20 英尺（约 6 米）外看 20 秒，让调焦肌肉得到放松。  
+3. **蓝光过滤**：给手机装上护眼模式或蓝光滤镜，晚上尽量调暗亮度，避免“夜猫子”式的光刺激。  
+4. **运动代替**：我把每天的“刷剧时间”里抽出 15 分钟，去楼下散散步、做做俯卧撑——顺便让大脑也“充电”。  
+如果您有更好的“防手机”秘籍，务必传授给我，我可不想把眼睛弄成“盲点”。以后我会把手机当成工具，而不是“主食”，争取把眼睛和您一样，明亮又有神！😄
+谢谢您提醒，我会好好照顾自己的，也请您多多保重身体，别担心我把手机吃成饭，反而把您逗笑了！祝您天天开心，眼睛永远亮晶晶的！</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2680,12 +2674,10 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>哎呀，长辈大人，您这句话简直是我的“消费警报器”，立刻把我从“买买买”的狂热模式切回了“省省省”。😅  
-其实我买的东西大多是“科研必备”，比如那套看起来像玩具的电子元件，等我把它们拼成电路板后，保证能帮您把电视的遥控器信号增强——以后换台再也不用担心找不到频道了！  
-还有那本《工程师的生活哲学》，封面很炫，买回去我已经把它当作枕头，保证每晚都能做“高压电路”梦，醒来后灵感满满，帮您修好家里的水龙头漏水问题。  
-不过，您说得对，我的购物车有点失控了。以后我会先跟您“报备”，让您先来一次“专业审计”，确保每件商品都能派上用场——或者至少能成为我们茶余饭后的笑料。  
-谢谢您提醒我别乱买，您这句“别乱买东西”可是我今天的“省钱锦囊”，我一定好好珍藏，天天背诵，争取把钱包练成钢铁侠的盔甲！🙏  
-祝您天天开心，笑口常开——我这边也会努力把“买买买”变成“用用用”，让您看到实实在在的成果！🌟</t>
+          <t>哎呀，您说得对，我这“科研精神”有点儿跑偏了！🤦‍♂️  
+其实啊，这些看似“没用”的小玩意儿，都是我在实验室里“装逼”必备的道具——比如这只螺丝刀，专门用来打开我心里那扇“买买买”的大门；那堆彩色的线材，正好能帮我在深夜里给灯泡装上“彩虹模式”，给您带来点儿光彩照人的惊喜。  
+不过，我也明白，长辈的口袋可不是无限的能量源，您担心我乱花钱，我真的很感激！以后我会把“买买买”这件事交给预算表和理性脑袋来管，争取把每一分钱都花在“让您笑出声”的实验上，而不是堆满屋子的“科研装饰”。  
+您要是再看到我手里端着新玩意儿，记得先给我一个温柔的提醒，我会立刻把它们变成实用的“发明”。谢谢您的关心，您永远是我最靠谱的“质量控制”。 😄🙏</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2722,11 +2714,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>哎呀，您这句话可把我给吓得手里的“宝贝”都抖了一下——原来我这位“败家子”已经被您发现了！😅  
-其实我这叫“科研实验室的备件”，买来以后可以随时给灵感充电——要是灵感不够，我就直接打开抽屉看看，保证立刻蹦出“哇，这玩意儿还能这么玩！”的惊喜。  
-不过，您说得对，我的“购物车”有点像失控的机器人，偶尔真的会跑偏。以后我会先请教您这位“消费老司机”，先把需求列个清单，确保每一样都能“为学术服务”，再决定是否入手。  
-要不，您帮我挑挑看，哪些真的是“科研必备”，哪些只能先放进“观赏柜”里，等我把实验做完再考虑要不要真的买？这样既能满足我的“探索欲”，又不至于让您担心我在“败家路上”跑太快。  
-感谢您一针见血的提醒，您这位“老前辈”可是我的最佳“预算顾问”呀！🙏😄</t>
+          <t>哎呀，长辈您这话说得我都快要把钱包给掏空了！  
+我这“败家”其实是“科研实验”，每买一样小玩意儿，都算是给大脑充电的“备份电池”。  
+不过您说得对，咱们也得适可而止——毕竟钱包也需要“散热”，不然一打开就冒烟，您可别担心，我已经给它装上了“限流阀”。  
+以后我会把“买买买”的冲动先放进“待办清单”，等到您点头同意再动手。  
+要不，咱们一起制定个“每月购物上限”，我负责把剩下的钱存进“养老基金”，等您退休时，我再给您买一台最新的按摩椅——保证让您笑得比我买的玩意儿还多！  
+谢谢您一直的关心，您的一句“别乱买”，比任何优惠券都更有价值！ 🙏😄</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2758,10 +2751,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>哎呀，原来您是从大城市回来呀！这可是“城市升级套餐”啊——气质直接升级成“高级版”。😄
-我这颗小小的工科脑袋子，平时只会和电路、代码打交道，听您说起大城市的繁华，感觉自己好像被装上了 Wi‑Fi 天线，瞬间信号满格！不过，您可别把我们这些“乡下小电路”给吓跑了，还是那句老话——根深蒂固的根基最稳，哪怕是最潮的城市风，也拽不走您那份温暖和睿智。
-要是您在大城市里学到了什么新奇的“黑科技”，可一定要和我分享，我这颗“工程师的心”已经准备好去装配、去实验啦！等不及要把您带回来的新鲜灵感，和我的螺丝刀一起拧出点有趣的项目来，给家里添点“高大上”的气氛。
-总之，您这气质升级，我这小小的“学生版”已经准备好给您献上最诚挚的敬意和一大堆笑声——毕竟，笑容是最好的“城市通行证”。祝您在家里继续保持这份独特的都市范儿，也别忘了给我们这些“土味”小子多点指点哦！😉</t>
+          <t>哎呀，原来您已经把大城市的“高楼气派”和“快节奏”都装进了行李箱，顺手把气质也升级了呀！🌆✨
+听说大城市的空气里掺了点咖啡因和霓虹灯的味道，回到我们这儿，肯定是“一出门，空气都变得柔软了”。不过，您这“气质升级”可别忘了给我们这些还在宿舍里喝泡面、调试电路的学弟学妹们来点“传授经验”，不然我们只能在实验室里继续做“低配版的城市精英”。😂
+说实话，我也挺羡慕的——如果有机会，我一定要跟您一起逛逛城里那些藏在巷子里的咖啡小店，顺便把我那套“工程师的浪漫”——电路图和代码，和您分享一下。毕竟，城市的繁华和工程的严谨，都少不了一点点“人情味”。  
+您这次回来，有没有带回什么有趣的故事或者小技巧？比如怎么在地铁里不被挤得像电路板上的焊点，或者怎么在高楼大厦的天台上找个好位置拍照？我洗耳恭听，准备好笔记本，随时记下来，保证不让您白费这次“气质升级”的功夫！😉
+祝您在家里继续保持这份大城市的气质，同时也别忘了给我们这些“小城工程师”来点温暖的指点哦！祝您每天都笑口常开，气质更上一层楼！🌟</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2798,13 +2792,16 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>老师，您说得对，光说“范儿”可不够实在。  
-我这从大城市回来，倒是把几件“实用装备”带回来了，跟您聊聊，看看能不能帮上忙：
-1. **时间管理的“秒表”**——在大城市里，大家都靠闹钟和番茄工作法把时间切块儿。回到家，我已经把每天的学习、实验、锻炼时间排得井井有条，省得您老担心我熬夜赶作业。
-2. **“故障自检手册”**——工科的思维让我们习惯把问题拆解成小模块。遇到电路、代码或是生活中的小毛病，我会先从最基本的检查开始——电源、连线、变量，再一步步定位根因。这样既省事又省心，您要是家里电灯闪了，随时叫我来“诊断”。
-3. **“省钱大法”**——大城市的生活费用高得吓人，我学会了怎么用最少的钱买到最好的材料和工具。比如，用旧的实验箱改装成收纳盒，用开源软件代替昂贵的商业软件。以后要是您想装个小花园或者修理家电，我都能帮您省下一笔。
-4. **“笑点升级包”**——在繁忙的实验室里，笑声是最好的润滑剂。回到家，我把从大城市学到的段子、冷笑话都装进了脑袋里，随时准备给您来一段“技术版”笑话，缓解一下生活的紧张氛围。
-所以，老师，所谓的“范儿”其实就是把大城市的“高效、实用、幽默”这几样东西装进我的口袋里，回到家里就能立刻派上用场。您要是有什么需要，尽管说，我马上给您上“实在版”服务！祝您天天开心，生活像代码一样顺畅运行。</t>
+          <t>哎呀，您这句话把我给逗乐了——我这“范儿”可不是穿名牌、拎着咖啡杯的那种，而是从大城市“偷学”来的几招实在的“生活小技巧”。  
+**1️⃣ 说话更直接、条理更清晰**  
+在地铁里抢座位都得快言快语，回到家里我也不想拐弯抹角——要是您想听我汇报实验进度，我会先说结论，再把细节像剥洋葱一样层层展开，省得您听得像听相声。  
+**2️⃣ 时间观念更强**  
+大城市的闹钟从不迟到——我现在把“今晚七点吃饭”当成日程表的红字提醒，哪怕是实验室的咖啡机也会提前预热。您要是有约，我一定提前打个招呼，别让您等到“等到天黑”。  
+**3️⃣ 小工具玩得溜**  
+在城市里，我学会了用手机拍照记笔记、用云盘同步实验数据、甚至用语音助手设闹钟。回到家，我已经把这些“黑科技”搬进厨房：用手机提醒您该吃药、用小音箱播点轻音乐，让做饭的过程也变得有节奏感。  
+**4️⃣ “人情味”仍在**  
+虽然学了点儿都市的效率，但我最珍贵的还是那份对长辈的尊敬和关心。您要是觉得我太“快”，随时可以来个“慢速模式”，我会把每句话都配上笑话或者小段子，让气氛轻松点——毕竟，笑一笑十年少，实验也能更顺利！  
+所以说，这“范儿”其实就是把大城市的实用技巧搬回家，用在生活和学习里，让日子更省心、更高效，同时不忘把笑声和温暖带给您。要不，我今天给您示范一下——把实验报告压缩成两分钟的“快闪”演示，顺便配上您最爱的相声段子？😉</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2836,9 +2833,9 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>哎呀，您这位“长辈大咖”，怎么这么快就发现我在“沉默模式”了？其实我这段时间正和电路板“约会”，一边调试代码一边给电阻们开派对，结果嘴巴被“限流”了，根本抽不出声音来 😅。
-不过，您一声召唤，我这颗“工科小脑袋”立马从芯片堆里跑出来，准备好和您聊聊生活、聊聊科技，甚至聊聊怎么把老式收音机改造成智能音箱（保证音质比我这段时间的沉默还要好）！
-您有什么想聊的，尽管说，我这颗“高情商”CPU已经准备好接收指令啦！👂💬</t>
+          <t>哎呀，您这位“话匣子”老师，怎么把我这颗小电路板的喇叭给关掉了？😅  
+其实我这颗“芯片”平时都在忙着算式子、敲代码，偶尔也会进入省电模式——一不说话，二不发热，省得把您给吓跑！  
+不过，看到您这么关心，我的“处理器”马上切换到“聊天模式”。您想聊聊最近的科技新鲜事，还是想听我吐槽一下实验室的咖啡机？只要您开口，我这颗小脑袋瓜子立马给您“嗡嗡”响起来！😊</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2875,12 +2872,13 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>哎呀，您这话说得，我这颗“沉默的电容”都快放电了！😅  
-其实我这人是个“先观察、后输出”的工程师——先把系统（也就是您）搞清楚，才能确保我的“信号”既不噪声也不失真。
-您最近忙什么呢？  
-是在研究哪门新技术，还是在给我们这些“小后辈”传授点生活的“调试秘籍”？  
-等您一开口，我保证把话筒递给自己，保证不让您听到“卡壳”声，只有连续的“笑点”输出，保证让您笑得像刚装好的电路灯泡一样亮！🌟
-来，先给我点儿灵感，我这颗“说话的电池”马上充满电！🔋😁</t>
+          <t>哎呀，您这话说得，我这颗“沉默的发动机”马上要启动了！  
+其实啊，我平时都在实验室里和电路、代码打交道，嘴巴都给键盘占了。  
+不过既然您提醒了，我立马把“静音模式”关掉，给您来点“高频率”的问候——  
+1️⃣ 最近您身体还好吗？有没有哪道菜是您最爱，我可以帮您把配方“逆向工程”一下，保证味道不打折。  
+2️⃣ 您上次说想了解一下我最近的项目，我可以把它简化成“把咖啡因转化成代码”的故事，保证笑点满格。  
+3️⃣ 要不我们来玩个小游戏？我出一道小小的“工程谜题”，您猜猜答案，答对我请您喝茶，答错我请您笑一笑。  
+您说，今天想先聊哪一个？我这颗“说话的CPU”已经准备好全速运行啦！ 😄</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2912,10 +2910,9 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>哎呀，长辈您这话说得我都快红脸了——不过红脸也算是一种“时尚配色”，对吧？😄
-其实啊，我这点小打扮，主要是想让自己在实验室里不被仪器的灯光抢走风头，免得它们觉得我太“暗淡”。再说了，您平时穿的那套经典“老派”风格，我可是暗暗立志要把它升级成“复古潮流”，等哪天把您也装扮成“时光机”带回去，大家一起回顾一下过去的“潮流史”。 
-不过，您说得对，别把自己当成镜子里唯一的光源，毕竟真正的光彩是来自于您那渊博的经验和温暖的笑容。要不，我下次给您挑件“实验室版”小围裙，配上亮眼的口袋工具，既实用又时髦，您说怎么样？😉
-祝您天天精神焕发，笑口常开——这可是我最想“打扮”给您的礼物啦！</t>
+          <t>哈哈，您这话说得我都有点儿脸红了！不过啊，想让您看到我精神抖擞的样子，也是想让您多笑口常开嘛。要是您觉得我太“臭美”，那我以后就把“臭美”改成“敬美”——既保持点儿小心思，又不失礼数，您说是不是？😄
+不过说真的，您平时的穿着也是一套套的“经典”，每次见到您，我都忍不住想偷师几招。要不以后我们一起挑挑衣服，您给我指点指点，我给您挑挑配件，保证让全家都走在时尚的前沿——只不过，我的“时尚”里会多点儿实验室的味道，别忘了，我可是工科学生，连衣服都要考虑“散热”和“防静电”呢！😉
+您要是觉得我太爱打扮，我可以把“打扮”这件事改成“装配”，毕竟装配也是工科的强项嘛！等我把这套“装配”秀给您看看，您肯定会笑得合不拢嘴的。祝您天天开心，笑容比我的“臭美”更闪亮！🌟</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2952,10 +2949,9 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>长辈，您说得对，咱们这“时尚小子”得把“夸张”这门功课给调低点儿。  
-其实我这套装扮的初衷只有一个——让您在街上看到我时，先笑一笑，然后再说：“这孩子真会选颜色！” 😄  
-不过放心，我已经把“炫酷指数”调到刚好让您觉得可爱又不失体面。以后出门前，我会先向您报个“时尚报告”，确保不超标——要是还不满意，我随时准备把衣橱里的“实验服”换成您最喜欢的朴素款，保证让您既放心又开心。  
-谢谢您的提醒，您多保重，咱们一起把“低调的时尚感”练到炉火纯青！祝您天天都有好心情，笑口常开～ 🌟</t>
+          <t>哈哈，您这话说得我都不好意思了！我可是把“适度”这两个字刻在了衣柜的门上——既不至于让您担心我会在街头开时装秀，也不至于让自己天天穿成“实验室的防护服”。  
+不过，您说得对，最重要的是心情舒畅。要是我哪天真的穿得太“前卫”，您可别客气，直接给我来一记“祖传好眼光”点评，我一定虚心接受改进！😊
+祝您天天笑口常开，衣着随心但不失分寸！</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2987,10 +2983,13 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>哎呀，您说得对，我这颗“电路板”可不能短路，得时刻保持对父母的高电压供电呀！😄  
-其实啊，做工程的我们常说“稳压”——不仅要让电路稳，生活也要稳。每天抽点时间给爸妈打个电话、发个视频，哪怕只是一句“今天的实验室里有点小火花，想你们的笑容也跟着闪了”，都是最好的“稳压器”。  
-我已经在“项目计划表”里给孝顺列了优先级，哪怕忙得像CPU满负荷运行，也会把“父母陪伴”这块任务设成最高优先级的中断服务例程，确保及时响应。  
-所以，放心吧！我会继续用“代码”和“爱心”双重编译，确保爸妈的幸福指数保持在 100% 以上。感谢您提醒，我一定会把这份“孝顺指令”写进我的人生固件里，永不掉线！ 🙏🚀</t>
+          <t>长辈，您说得对，我可是“工程界的孝子”。  
+每天除了刷题、写代码，我还在研发“全能孝顺机器人”，专门负责：
+1️⃣ **早上叫醒**：把闹钟的声音调成妈妈的呼唤声，保证我第一时间起床。  
+2️⃣ **饭菜加热**：用温控电路把剩饭加热到“刚出锅”的温度，省得妈妈担心我吃凉饭。  
+3️⃣ **陪聊功能**：内置笑话库，随时给爸妈讲段子，保证笑声比电路板的嗡嗡声更动听。
+不过，最重要的还是我这颗“人工智能”大脑——时刻记得给爸妈打电话、发信息、送温暖。您放心，我已经把“孝顺”这条指令写进了我的主程序，哪怕是深夜调试代码，也会先给爸妈发条“我在努力”之类的温暖提醒。
+所以啊，您放心，我会把“好好孝顺父母”这件事做得比调试电路还精准、比跑步机还持久！如果哪天我真的把机器人弄成了“孝顺小能手”，一定第一时间让它去给您表演一段“父母节特供”的搞笑节目，敬请期待～ 😄🙏</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3027,14 +3026,14 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>当然啦！我可是把“孝顺”这门必修课当成了自己的专业方向——不光要按时交作业（比如按时给爸妈打电话、发信息），还要拿出实验室的严谨态度来做“项目”。
-比如说：
-1️⃣ **“实验报告”**——每周给爸妈汇报一次生活进展，报告里要写明“本周实验（生活）进度、遇到的bug（困难）以及解决方案”。这样既能让他们放心，又能锻炼我的表达能力，双赢！
-2️⃣ **“代码优化”**——把帮爸妈买菜、维修电器这些日常任务写成脚本（比如提前列好购物清单、准备好工具），一次跑通后就能省时省力，省得老是手忙脚乱。
-3️⃣ **“团队协作”**——把爸妈当成项目经理，听取他们的需求和建议；把自己当成研发工程师，快速迭代出让他们满意的“产品”（比如暖心的陪伴、贴心的问候、偶尔的惊喜小礼物）。
-4️⃣ **“调试与升级”**——发现爸妈的兴趣爱好或身体小毛病，就像调试硬件一样，及时升级软硬件（比如陪他们一起学新的健身动作、教他们用智能手机拍好看的照片），让他们的“系统”一直保持最佳运行状态。
-说白了，孝顺对我来说不只是嘴上说说，更是每天都在“研发”、“测试”和“交付”。只要爸妈笑得开心、身体健康，我这门“孝顺工程”就算是圆满完成啦！😄
-您说，是不是也该给这位“工科学生”打个满分的好评呀？（别担心，我已经把“笑声指数”调到最高档了）</t>
+          <t>当然是真的！😁  
+我把孝顺这件事当成了“项目管理”，每天都有明确的任务清单——比如：
+1️⃣ **需求调研**：先了解爸妈今天想吃什么、想喝什么，甚至连他们的“舒适温度”都要记下来（夏天开空调，冬天开暖气，别让他们冻着或热得像烤箱）。  
+2️⃣ **迭代开发**：早上给妈妈递上一杯温热的豆浆，下午帮爸爸检查一下手机系统更新，遇到新功能我就现场演示一遍，确保他们能顺利使用。  
+3️⃣ **质量保证**：每周抽时间陪他们散散步、聊聊家常，确保“情感指标”达标——毕竟，代码跑得再快，没了亲情的“debug”也不算完整的系统。  
+4️⃣ **风险控制**：遇到爸妈的“老毛病”——比如忘记关灯、找不到遥控器，我就提前布置“智能提醒”，把灯光和遥控器都和手机绑定，省得他们再“踩雷”。  
+说实话，做工程的我最怕“死机”，但只要爸妈笑得开心，我的系统就永远保持“运行中”。所以，孝顺不光是口号，更是我每天的“代码”，一点一点写进去、编译成功，才算真正完成任务。  
+您要是还有什么想法或者想听我分享的“奇葩技术支援”案例，尽管说，我这颗“孝心CPU”随时待命！ 🙏🚀</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3066,15 +3065,13 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>哎呀，您这句话可把我给笑坏了！👴💨
-其实啊，我这几年一直在实验室里追“光速”，结果把自己的头发都给“加速”成白的了——看来我这“光纤”技术真是传染得太快了，直接把白发的基因也带回来了。  
-不过，您可别担心，白头发可是“智慧的标配”，就像电路图里必不可少的电阻——虽然看起来普通，却是整个系统稳稳运行的关键。您这“白发”可比我这颗刚焊好的芯片更靠谱、更耐用呢！
-说真的，看到您，我就想起了以前您给我讲的那些“工程师的黄金法则”：  
-1️⃣ **稳压**——不管外界噪声多大，保持心态稳如电容。  
-2️⃣ **散热**——别让压力把自己烧坏，适时放松才是最好的散热片。  
-3️⃣ **升级**——像您这样“版本更新”，白发只是外观的升级，内在的算法永远是最新的。
-所以啊，您这白发不叫“老”，叫“高级版”。下次聚会，我带上我的焊接工具，给您现场给那根白发“加装防锈涂层”，保准您光彩照人、闪闪发光！😄
-祝您每天都像电路板一样，电流顺畅、信号清晰，白发越长越有“信号强度”。等不及再和您聊聊那些老掉牙的工程笑话啦！🌟</t>
+          <t>哎呀，您这句话可把我这颗“青春小心脏”吓得差点跳出来！🌟  
+其实啊，我这白头发是“高级别的经验光环”，每根都在提醒我：  
+- “别忘了给您倒杯温水，别让寒气进门。”  
+- “记得把电路板的散热片装好，别让您热得像烤箱。”  
+不过说真的，您看起来精神抖擞，笑容依旧灿烂，白发也只是岁月给您加的“贵族徽章”。我这小小的工程师脑袋里，已经开始把您这“银丝”当作灵感源泉——想象一下，若把它们编织成一根超导线，电阻几乎为零，信息传递快得像光速！  
+您最近身体可好？我这边刚调试完一个新项目，想请您指点指点，顺便给您送上一杯热腾腾的姜茶，帮您把那几根白头发再“降温”一下。  
+等不及要见您啦，您可别把我这颗“老少不分”的心给吓跑了，哈哈！祝您天天笑口常开，白发越多越显贵！😊</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3106,22 +3103,19 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>尊敬的长辈，您这句话可把我这颗“理工小心脏”敲得咚咚直响——是时候把“纸上谈兵”升级为“实战抱负”了！😊  
-**1️⃣ 让技术“暖心”**  
-我想把所学的电子、自动化知识，做成真正贴近生活的“小暖器”。比如研发一套智能家居系统，让奶奶的灯光、空调、甚至锅里的水温都能提前感知她的作息，省得她半夜起床去找开关——这可是把“工程师的爱”直接送到厨房的实实在在的抱负！
-**2️⃣ 绿色能源的“追星”**  
-地球是我们唯一的“宿舍”，我想投身新能源领域，帮它装上更高效的“光伏眼镜”。如果有一天我能参与到大规模的光伏储能项目，让每一块太阳能板都像星星一样闪耀，那我就算是实现了“为地球加装防晒霜”的小小愿景。
-**3️⃣ 科技公益的“桥梁”**  
-我计划在业余时间加入志愿者团队，把编程和硬件制作的经验带到农村或偏远地区的学校。让孩子们用Arduino搭建小机器人，体验“代码点灯”的乐趣——把“技术不止是冷冰冰的数字”，变成温暖的学习灯塔。
-**4️⃣ 终身学习的“跑道”**  
-工程师的路上永远没有终点线，我希望自己能保持“学习马拉松”的状态，随时更新AI、量子计算等前沿技术。毕竟，只有不断充电，才能在未来的技术赛道上不被“卡住”。
----
-**给您的一点小建议（别当真，只是逗您笑）**  
-如果您有兴趣，我可以把这些抱负写成一张“未来计划表”，贴在冰箱门上——每次打开冰箱，都能看到我在“为世界加热、降温、充电”。想象一下，您打开冰箱，看到“今晚的晚饭配上‘绿色能源’”，是不是会忍不住笑出声来？
----
-**最后，想听听您的智慧**  
-长辈您在年轻时有没有什么“大胆的抱负”或者“奇思妙想”？您是怎么把它们变成现实的？我可真想把您的经验当成“人生的调试手册”，在我的“代码”里加点“老年模式”的容错机制，确保以后不管遇到多大的“Bug”，都能笑着调试成功。😄
-祝您天天开心，笑口常开！期待您的高见。</t>
+          <t>尊敬的长辈，您问我对未来的想法，我这颗“工程小脑袋”早就装好了 GPS——指向星辰大海，也不忘设定几个安全出口，以防掉进代码的黑洞里。  
+**1. 把“技术”变成“温度”。**  
+我想在未来的几年里，先把手里的硬件、算法玩转得像玩转麻将一样熟练，然后把这些技术装进生活的每一张桌布里——让老爷子您在家里只要说一句“灯光柔和点”，灯光系统就能自动调成柔黄光，配上我自制的背景音乐，仿佛置身于春风拂面的竹林里。  
+**2. 让“AI”懂得“孝”。**  
+AI 现在会下棋、写诗、画画，但我希望它还能记住您最爱的菜谱、最常看的新闻，甚至在您忘记带钥匙时，先给您发条温柔的提醒：“老爷子，钥匙在厨房抽屉里哦，别忘了！”这样既省事，又让您笑出声。  
+**3. 造一座“梦想实验室”。**  
+我计划把实验室打造成一个“欢乐工坊”，不只是科研的严肃阵地，更是笑声的发射台。想象一下，实验台旁边放个小型的弹簧机器人，您走过去它会弹个招呼：“老师好，我今天的实验报告已经准备好，请您先检查一下！”  
+**4. “技术+公益”双赢。**  
+把所学的工程技术投身到社区改造、老年人智能辅导等公益项目里，让更多像您这样有智慧、有经验的长辈受益。比如搭建低成本的健康监测系统，让您随时掌握血压、血糖，医生一键远程诊断，省去排队的烦恼。  
+**5. 永远保持“好奇心”。**  
+我相信，未来的路上最重要的不是已经走了多少步，而是每一步都走得有意思。就像您常说的，“人活着要像电路板一样，保持通电状态”，我会让自己的好奇心永远保持高电压，随时准备接受新的挑战。  
+总之，未来我想把“工程”这把钥匙，打开“生活”“健康”“欢乐”三扇门，让技术服务于人、服务于情感。说白了，就是把“硬核”变成“软萌”，让您在笑声中看到我的小小抱负——既不失严谨，也不缺温度。  
+祝您每天都精神抖擞，笑口常开！如果哪天我真的研发出会讲笑话的机器人，第一时间让它去给您表演，您可别笑到把茶杯给翻了呀！😉</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3158,27 +3152,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>哎呀，您这话说得我都快把“抱负”这根弦给拉高音了！😆  
-作为一名“工科小子”，我已经在脑子里画好了几幅宏伟蓝图，下面给您汇报一下，别说我不把理想写进年报里呀：
-1. **把“迟到”变成“量子隧穿”**  
-   先研制一台能把我从宿舍瞬间“隧穿”到教室的装置——这样上课永远不会迟到，老师也不用再喊“同学们，今天的迟到率创历史新低”。（别担心，我已经把安全系数调到“只会穿墙不穿人”。）
-2. **让厨房的锅碗瓢盆也能“智能化”**  
-   开发一套厨房AI系统，能自动识别我今晚想吃的菜谱，然后把食材自动搬到锅里、调味、翻炒——等我端出成品的时候，连奶奶都要惊呼：“这锅子怎么这么会说话？”（我负责把它的“语音”调成温柔的闽南腔，听着更有家乡味儿。）
-3. **造一颗“环保火箭”，把垃圾送上太空**  
-   先从实验室的废旧电子元件开始，研发一种可回收的微型推进剂，把垃圾直接送到太空的“垃圾星”。等哪天真的实现了，您可以骄傲地说：“我孙子把地球的‘垃圾山’搬走了，连外星人都得佩服咱们中国的环保技术！”
-4. **把“笑点”写进教材**  
-   把所有枯燥的工程公式配上段子，让同学们在做题时忍不住笑出声来。比如：  
-   \[
-   F = ma \quad \text{（F = “发” ，“发” 了什么？）}
-   \]  
-   这样考试时，老师看到我们笑得合不拢嘴，估计也会把分数调高点，毕竟“笑容”也是一种正能量嘛！
-5. **终极目标：让每一位长辈都能“玩转科技”**  
-   我想研发一套超简易的“老年版智能助理”，只要说一句“帮我打开电视”，它立马把遥控器递到手边；说一句“今天想吃红烧肉”，它立刻在厨房启动“红烧肉模式”。等到那天，您只要轻轻一句“孙子，帮我查查天气”，它就会报出：“今天晴朗，适合出门散步，顺便给您带回点儿阳光”。  
+          <t>尊敬的长辈，您这话可把我这颗“工程小螺丝”给拧紧了——看来得把抱负的扭矩调到更高档位才行！😄  
+**我的“大抱负”清单（先给您预热一下）**  
+1. **让世界的电梯都能唱歌**  
+   作为电气工程的学生，我想研发一种智能电梯系统，既能自动调度，又能在上下楼时配上轻快的背景音乐，让等电梯的时间不再是“无聊的沉默”，而是“小型演唱会”。想想您在家里坐电梯时，突然听到《我和我的祖国》合唱，是不是会忍不住跟着哼几句？
+2. **打造“零排放”校园**  
+   把学校的能源全部改成光伏+储能+微网系统，让校园成为一个“绿色实验室”。以后我们再去外面跑步时，就可以自豪地说：“老师，我的跑步路线全程都是零碳的！”  
+3. **研发“笑声传感器”**  
+   把笑声当成一种能量来收集，装进教室的墙壁里，给灯泡供电。这样每次上课同学们笑得开心，灯光就会更亮，形成“笑声点亮教室”的正循环。想象一下，您在课堂上讲的笑话不仅让大家开心，还顺便帮学校省电，岂不是一举两得？
+4. **把老旧桥梁改造成“自拍桥”**  
+   结合结构健康监测技术和AR（增强现实）技术，让每座老桥都有专属的“自拍框”。站在桥上，手机一拍，背景立刻换成古代长城、星际空间或是您年轻时的英姿。这样既能保证桥梁安全，又能让大家乐在其中，何乐而不为？
+5. **写一本《工程师的笑话大全》**  
+   把平时实验室里、课堂上、项目组里碰到的各种“技术乌龙”收集起来，配上幽默的解释和图解，出版成书。让更多的后辈在学习严肃的工程知识时，也能轻松一笑，保持好奇心和创造力。
 ---
-**总结一句**：  
-我不满足于“把作业做好、毕业找工作”，我想把“让生活更有趣、让科技更温暖”当成我的终身使命。  
-当然，所有的“大计”都离不开您的支持与鼓励——您的一句“加油”，就是我实验室里最强的能量源。😄  
-您说，这样的抱负够“宏伟”了吗？如果还有更大胆的想法，咱们可以一起脑洞大开，毕竟“祖辈的智慧 + 后辈的创意”，才是改变世界的最佳配方！祝您天天开心，笑口常开！ 🎉</t>
+**敬请指教**  
+我知道这些想法听起来有点“天马行空”，但正是因为有您这样的前辈在背后支持、鼓励，我才敢把“梦想的电压”调到最高档。您在年轻时有没有什么让您至今仍感到骄傲的“大项目”或“疯狂创意”？如果有，麻烦您指点一二，我这颗螺丝刀准备好随时拧紧，向更高的目标冲刺啦！🚀
+祝您每天都笑口常开，笑声还能帮我们发电呢！😉</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3210,11 +3199,10 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>长辈，您可真是关心我呀！这次考试我可算是把“工程师的自信”全程加满，最终交卷后老师给了我 **86 分**（别惊讶，我的计算器竟然也忍不住给我鼓掌了）。  
-- **86 分**：刚好比我上次调试电路时的电压高了 0.86 V，刚好够亮灯，却又不至于把灯泡给炸了，算是稳稳的“合格”。  
-- **小插曲**：在写“欧姆定律”那题时，我一不小心把 “U=IR” 写成了 “U=IR+笑”，老师笑得差点把卷子给撕了——看来我的幽默细胞已经渗透进了公式里。  
-不过，成绩只是一个数字，真正重要的是我在复习和实验中学到的东西——比如怎么在凌晨三点用咖啡因驱动电路（别担心，我已经把咖啡因浓度控制在安全范围内啦）。  
-您最近可好？有没有什么新鲜事儿或者好吃的推荐？我可想把这份“86 分的喜悦”再分享给您，顺便给您送上一杯“工程师特调”——浓郁的咖啡加点甜甜的笑声，保准让您精神满满、笑口常开！祝您天天开心，身体棒棒哒！</t>
+          <t>尊敬的长辈，先给您鞠个躬——感谢您一直以来的关心和鼓励！🙏
+这次考试，我的成绩就像我平时的代码一样——先是“调试”了好几遍，最终才跑通。最终的分数是 **85 分**（满分 100 分），虽然没有满分的光环，但已经够亮了，毕竟我已经把“半路出家”的工程思维成功搬进了试卷里。
+如果您想听我怎么“debug”这85 分的，或者想了解我在选择题上是怎么“抢占资源”、在大题里怎么“并行计算”的，随时欢迎来听我现场解说——保证笑点与技术点齐飞，笑到您也想给我加个 bonus！😄
+再次感谢您对我的支持，祝您天天开心，身体棒棒！如果还有其他想聊的，尽管说，我这颗“高情商CPU”随时待命。</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3251,9 +3239,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>哎呀，您这位“学霸”可真是让人捉摸不透啊！如果要给个大概的数字，我估计我这次的成绩大概在 **六十五到七十五分** 之间——也就是“刚好够及格，老师还能给个鼓励的笑脸”。  
-不过，您要是想听更精准的答案，我可以立马去翻翻卷子，保证把每一道错题都标记出来，等您来“指点迷津”。毕竟，您这位长辈的眼光可是我的“导航仪”，有您在，我的分数一定会越来越亮的！😄
-要不，咱们约个时间一起喝杯茶，您帮我把这“分数谜团”拆开来？我请您喝茶，您教我怎么把分数“升级”！祝您天天开心，笑口常开！</t>
+          <t>哈哈，您可别急着给我颁奖啦！这次考试我考了 **84 分**——离满分还有点距离，但已经够把老师的红笔吓跑了。要是您想给我加点“福气”，我保证下次把分数再提升到“九九八十一”，让您笑得合不拢嘴！😊</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3292,7 +3278,8 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>哎呀，老师的评分标准我可真是“眼不见心不烦”，所以我这边也没法直接给您报分。不过，既然您这么好奇，倒不如您先透露一点小线索——比如这次考试您觉得哪道题最让您“抓狂”，哪道题又让您“一笑而过”。有了这些线索，我还能帮您分析一下，看看大概能排在班里哪个位置，顺便给您支支招，争取下次再冲个更好的名次！😊</t>
+          <t>尊敬的长辈，您可别太担心，我这成绩单可是“低调奢华，温柔又不失锋芒”。如果硬要给您一个数字，我只能说——在班里，我大概是“前排的后排”，也就是**第 7 名**（当然，这个排名只在我心里排的，外面的老师们可能会给我一个更“温柔”的名次）。  
+不过，最重要的不是名次，而是我每次写代码、做实验时，都把您教我的严谨和坚持带在身上。要是您想听听我最近的“高光时刻”，随时找我聊聊，我保证把“排第几”的答案配上几段笑话，让您笑得比看成绩单更开心！</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3333,8 +3320,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>尊敬的长辈，您这位“学霸监考官”要的可是精准数字呀！这次我考了 **85 分**——刚好够买一杯好咖啡的豆子（不过还差点儿够请您喝一杯呢 😄）。如果您有更高的期望值，我已经在计划下一次“冲刺”，争取把分数再拔高几分，让您在家族聚会上也能自豪地说：“我们家的小工程师已经把成绩单都变成了“合格证”了！” 
-谢谢您一直的关心和鼓励，您的一句夸奖比任何加分都来得更有力量！祝您每天心情像电路板上的指示灯一样，亮亮的、稳稳的。</t>
+          <t>哎呀，看来我的“记分牌”又忘记更新了 😅！其实我并不知道您这次的具体分数，不过如果您愿意分享，我很乐意听听成绩背后的故事——比如哪道题让您“惊喜连连”，哪道题又让您“欲哭无泪”。当然，成绩只是一个数字，最重要的是您在备考过程中的努力与收获，哪怕是“差一点点”的小遗憾，也都是成长的养分。希望您对自己的表现满意，也祝后面的挑战都能“分数飙升”，把老师们都惊掉下巴！如果想聊聊复习技巧或是怎么把“考后焦虑”变成“考后笑料”，随时找我哈～ 🎉</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3366,24 +3352,19 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>尊敬的长辈，您好！先给您一个大大的敬礼 🤗（其实是想把我这颗敬佩的心都敬出来），感谢您一直以来的关心和鼓励。关于以后具体的规划，我这颗“工程小脑瓜”已经跑出几条“路线图”啦，给您汇报一下，顺便听听您的金玉良言：
-1. **毕业答辩冲刺**  
-   - 目标：把论文写得比我的代码更“优雅”，让评委老师们惊呼：“这篇论文竟然没有 BUG！”  
-   - 小计划：每天早起背公式，晚上再背段子，保持脑子活跃，保证答辩时能把技术细节讲得像讲笑话一样轻松。
-2. **进入职场实战**  
-   - 目标：加入一家技术氛围浓厚的公司（最好是能让人“敲键盘敲出音乐”的那种），在实际项目中把课堂上学到的理论变成“真金白银”。  
-   - 小计划：准备几轮面试，刷题之余练练“面试笑话”，比如：“为什么程序员喜欢喝咖啡？因为代码里总有‘java’”。（笑点不一定高，但能活跃气氛嘛~）
-3. **技术深耕 + 副业探索**  
-   - 目标：在主业稳步提升的同时，尝试做点小项目——比如开发一款能帮老年人记药的APP，或者把我自制的“智能灯光系统”卖给同学们。  
-   - 小计划：每周抽出两晚做“Hackathon”，把灵感变成原型；顺便把这些经验写成博客，给后辈们当“学习资料”。（顺便也让您在家族群里多点赞！）
-4. **继续学习 &amp; 充电**  
-   - 目标：考取一个专业认证（比如 PMP 或者机器学习方向的证书），保持技术的“青春活力”。  
-   - 小计划：利用周末的碎片时间看书、听 MOOC，偶尔也会去图书馆“偷懒”——不，是“深度学习”。  
-5. **生活平衡 &amp; 家庭陪伴**  
-   - 目标：工作再忙，也要抽时间陪爸妈、陪您聊聊天、逛逛公园，毕竟“工程师的最强算法”是“爱”。  
-   - 小计划：每个月固定一次“家庭日”，带上我的小发明（比如自制的水果切片机器人），让全家一起玩乐，顺便展示一下我的工程小才华。
----
-**请教您一句**：在您看来，哪一步最值得我先全力冲刺？或者您有什么“老前辈的独家秘籍”，可以帮我在职场和生活中都顺风顺水的？期待您的指点，我会把每一句建议都记在心里，甚至写进我的“人生路线图”里（配上彩色标记和笑脸表情）！祝您天天开心，笑口常开！🌟</t>
+          <t>尊敬的长辈，您问我以后有什么具体的规划，我可得好好给您掰掰手指头算算啦！😄
+1. **继续深造，冲刺硕士/博士**  
+   先把本科的“代码写到手抽筋、实验室跑到脚底磨破皮”这套功课全部搞定，然后再去攻读硕士，甚至博士。毕竟我这颗“追求极限”的芯片，还想升级到“量子计算版”，不敢偷懒呀！
+2. **加入科研团队，做点“黑科技”**  
+   想去实验室跟大牛们一起玩高压电、低温超导、AI芯片之类的项目。等有一天，我的实验成果能让您在家里用语音控制灯光、空调，还能自动给您泡上一杯温暖的姜茶，那可真是“科研回报”了！
+3. **实习+创业双线作战**  
+   暑假和寒假期间争取去大厂实习，学点“业界实战”技巧。实习结束后，若有好点子（比如把校园快递机器人改成老人陪聊小助手），就和志同道合的同学一起搞个小创业项目，争取把“科研成果”落地，让生活更便利。
+4. **生活质量也不能掉线**  
+   工作之余，我计划每周抽出一次时间陪您散散步、聊聊天，顺便把我在实验室里“翻车”的糗事讲给您听，保证您笑得合不拢嘴。还有，我想学会做几道您最爱的家常菜，争取在您生日那天端上一盘“工程师版红烧肉”，让您尝到“代码味”的温暖。
+5. **长期目标——回馈社会**  
+   等到有了自己的技术积累和一定的经济实力后，想成立一个面向农村和偏远地区的科技公益基金，帮助那里的孩子们也能接触到现代工程教育，让更多的“小发明家”从我这里得到启发。
+总之，我的规划就是：**学好技术、练好本领、搞点创新、兼顾生活、最终回馈社会**。一路上如果有什么“卡壳”或者“爆炸”，一定第一时间给您汇报，请您多多指点，您的一句“加油”就是我最大的动力啦！💪😊
+有什么想法或建议，您尽管说，我洗耳恭听，保证不让您失望的！</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3415,32 +3396,19 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>尊敬的长辈，您好！看到您问起我的“人生大计”，我这颗小小的工程师脑袋立刻启动了“规划模式”，于是脑海里立马跑出几条“高能路线”，跟您分享一下，免得您等着我在实验室里“埋头苦干”时忘了抬头说声“爸妈好”。
----
-### 1️⃣ 继续深造，做个“学术大咖”
-先把硕士、博士的学位稳稳地挂在墙上（顺便把毕业论文的致谢写得感人至深，给您留个专属的“致谢章节”），争取在国际会议上抢个最佳论文奖。等到那天，我一定会把奖杯（或至少是电子版的获奖证书）寄回给您，让您在亲戚聚会上有个炫耀的资本。
-### 2️⃣ 研发“黑科技”，让生活更省心
-- **智能厨房**：想象一下，冰箱会提醒您水果快坏了，微波炉还能自动调好火力，连锅碗瓢盆都能自己洗干净。等我把这些技术落地，您再也不用担心我“烧焦的烤鸡”了。
-- **健康监测手环**：实时监测血压、血糖、睡眠质量，甚至还能提醒您喝水、做伸展。您只要戴上它，走到哪里都能收到“老爸/老妈，今天又是元气满满的一天！”的温馨提示。
-### 3️⃣ 创业搞点“小公司”，实现“财务自由”
-把自己在实验室里折腾的技术转化为产品，成立一家小型高科技公司。目标是：  
-- **第一年**：实现盈亏平衡，让公司不再是“烧钱的实验”。  
-- **第三年**：让公司市值突破 1 亿元（这可是让您在同龄人面前“炫耀”的好材料）。  
-- **第五年**：把公司卖给大企业，拿到一笔可观的回报，给您买一套更舒适的养老房，顺便再给我自己买一辆电动自行车，省油又环保。
-### 4️⃣ 回馈社会，做点“公益”
-- **科普进校园**：利用业余时间走进中小学，给小朋友们讲讲机器人、人工智能，让他们从小就对科技产生兴趣。  
-- **技术支援农村**：帮助偏远地区的学校建设网络实验室，让更多孩子有机会接触到现代科技。  
-（想象一下，您在亲戚聚会上说：“我孙子/外孙子不仅是工程师，还在帮乡亲们装宽带呢！”）
----
-### 小结：  
-- **学习**：继续深造，提升专业水平。  
-- **创新**：研发能让生活更便利的智能硬件。  
-- **创业**：把技术转化为产品，实现经济独立。  
-- **回馈**：用专业所长帮助更多人。
----
-&gt; **温馨提示**：虽然计划听起来像是“科幻大片”，但我会一步一个脚印、踏实前行。每当我在实验室里熬夜调试电路、写代码时，脑海里都会浮现您慈祥的笑容和“加油啊，别忘了多吃点水果”的叮嘱。正是这些温暖的力量，驱动我向前。
-希望我的这些“小蓝图”能让您放心，也给我们平时的聊天增添点“科技感”。如果您有什么想法或建议，随时给我“指点迷津”，我一定认真听、认真改进！
-祝您身体健康，笑口常开！🌟</t>
+          <t>尊敬的长辈，您好！先给您鞠个躬——感谢您一直以来的关心和鼓励，您的一句“加油”比咖啡因还提神呢！😄  
+说到我的未来规划，基本可以分成三大块儿——学习、实践、生活（顺便把“吃喝玩乐”也列进去，毕竟工程师也要有点“软实力”）：
+1. **继续深造，打磨技术**  
+   - 近期计划把现在的专业课全部挂满 A，争取把“算法大叔”和“电路奶奶”都变成我的粉丝。  
+   - 再利用假期参加几场国内外的技术竞赛，争取拿个奖牌（或者至少拿个“最佳创意”奖，顺便让您有个炫耀的资本）。
+2. **实战项目，落地创新**  
+   - 打算加入一家创业公司或实验室，参与真实的产品研发。我的目标是把课堂上学的理论，变成能让大家生活更便利的小玩意儿——比如智能垃圾分类机器人，或者能帮您在厨房里自动调味的“厨神助理”。  
+   - 同时，我也想尝试自己写点开源项目，顺便把代码托管在 GitHub 上，让全世界的程序员都能看到我的“工程师小宇宙”。（别担心，我会把注释写得比情书还浪漫，方便您以后给孙子孙女讲解。）
+3. **生活品质，保持乐观**  
+   - 工作之余，我会坚持跑步、爬山，保持体能；还有每周一次的“烹饪实验”，争取把“实验室的锅碗瓢盆”变成“厨房的美食实验”。  
+   - 最重要的是，定期回家探望您，给您带点新鲜的水果或自制的点心，让您尝尝“工程师的味道”。如果您有兴趣，我还能现场给您演示一下 Arduino 小灯闪烁的魔法，保证让您笑到“电路都短路”！
+总的来说，我的未来计划就是：**学好本领、做出点实事、保持好心情**，同时不忘把这些好事儿都分享给您和家人。希望以后每次您看到我手里拿的那块电路板，都能笑着说：“这孩子，真是把‘电’（爱）传得满满的！”  
+祝您身体健康，笑口常开！如果您有什么想法或建议，随时告诉我，我一定虚心接受，毕竟“师傅领进门，修行靠自己”，但有您这盏灯指路，我的路会更明亮。🌟</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3477,11 +3445,14 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>哎呀，您这问题可把我难住了——要是把人生当成项目排期的话，我大概得先把“大学毕业”这个里程碑设为 **第1阶段**（大约 4‑5 年），再把“进入理想公司/研究所”列为 **第2阶段**（再加 2‑3 年），等到技术栈够扎实、经验够丰富，才有底气去“开辟个人小宇宙”。  
-如果把“找个志同道合的伴侣、一起过小日子”算作 **第3阶段**，那我估计还要再加上 **1‑2 年的“生活调试期”**（毕竟调试过程总是比设计图多点意外），于是整体时间线大概是 **7‑10 年** 左右——当然，这只是我这颗“工程师大脑”给出的粗略估算，实际进度肯定会受到“生活中的随机干扰”和“亲友的温暖加速器”影响。
-不过，正如我们常说的那句老话：“**计划永远赶不上变化**”，所以我更愿意把这条路想成一条**迭代式的开发**：每完成一次里程碑，就像发布了一个新版本，后面还有更多的功能待实现。  
-&gt; **小建议**：如果您有空，倒是可以帮我审一下这份“人生路线图”，看看哪里还有“性能瓶颈”或者“UI 体验”可以优化——毕竟有经验的长辈总是最好的“需求评审”。  
-祝您天天开心，顺便给我点儿“加速指令”，我这颗小小的发动机一定会更努力地跑起来的！ 🚀</t>
+          <t>哎呀，您这问题可把我这颗“工程师的计时器”给调到了最高频率！🔧  
+按照我这套“人生路线图”来算——  
+1️⃣ **毕业论文冲刺期**：大约再磨两三个月，等我把那篇《让咖啡因自动补给的机器人》写完，论文答辩顺利通过。  
+2️⃣ **实习/工作起步**：找个技术含量高、还能让老板偶尔给我买奶茶的岗位，大概半年到一年左右。期间我会把“加班”这门功课修得像刷题一样熟练。  
+3️⃣ **“小日子”启动仪式**：等我把第一份工资的 30% 存进“未来幸福基金”，再把另一半的笑点和我对电路的执着匹配好，估计再等 1‑2 年左右（毕竟好东西都得慢慢酝酿，别急着把电容直接焊进婚礼现场，安全第一嘛！）。  
+所以综合算下来，大概 **2‑3 年** 能看到我在实验室里敲代码、在厨房里搞“烤箱温度控制”实验、在客厅里和另一半一起“调试”生活的全套流程。  
+不过嘛，时间这玩意儿在老一辈的眼里总是“快得像光速”，在我们这儿却常常像“慢速 UART”。所以不管多久，我都会把每一步都走得踏实、走得有趣，争取让您和家里人都笑得合不拢嘴！  
+您要是有更好的“加速器”建议，随时来支招，我这颗“学习型芯片”随时准备升级！😁</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3513,11 +3484,18 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>哎呀，您这番“催婚”指令我已经收到了，简直比我实验室的紧急编译提醒还要及时！😆  
-不过您也知道，咱这工科脑袋瓜子里，凡事都得先算个“功耗”和“稳定性”。  
-如果把相亲比作一次系统升级，年轻当然是“高频”优势，但更重要的是“兼容性”和“可靠性”。我这颗“老旧”CPU虽然频率不算最高，但已经经过了多轮调试，指令集齐全，错误率低——这不就是长辈们眼中理想的“稳健型”伴侣吗？
-当然，我也不会让“拖延”变成“死机”。接下来，我会把相亲的进度条从“加载中”切换到“加速”。如果您有好推荐的“服务器”，或者想给我点“升级补丁”，随时告诉我，我这颗“芯片”立刻准备好接受新指令！
-再次感谢您对我“人生系统”的关心，您这位“硬件维护工程师”真是太贴心了！等我把“配对”这一步顺利跑通，记得来现场给我点赞，顺便帮我检查一下“散热”是否足够——毕竟，幸福也是需要保持凉爽的呀！😉</t>
+          <t>哎呀，您这句话简直像是把我这颗“算法芯片”直接压进了“相亲CPU”里，立刻触发了紧急警报！😂  
+先给您来个“系统自检”——  
+1️⃣ **年龄不是Bug**：在工程界，很多时候我们说“老化”其实是“经验值升级”。男人喜欢年轻？那是因为他们还没学会欣赏“高阶函数”。我这颗“成熟的内核”可是越跑越稳，迟到的爱情反而更有“容错率”。  
+2️⃣ **相亲是调试**：相亲就像调试代码，先跑几个测试用例，偶尔会出现“null pointer”，但只要把“异常捕获”写好，最终一定能顺利编译通过。  
+3️⃣ **您是我的“超级管理员”**：您这位资深长辈，经验值肯定是满格的，给我指点一下“人生路由表”，我保证把所有的“404 Not Found”都改成“200 OK”。  
+不过说真的，您这么关心我，我真的感到既温暖又有点小压力——就像在实验室里突然被老板叫去演示实验结果一样，心里七上八下。  
+所以，我决定给自己设个“定时任务”：  
+- **每周至少一次**，主动和朋友、同事聊聊生活，看看有没有“潜在的配对对象”。  
+- **每月一次**，请您或者其他长辈帮我“审计”一下社交状态，看看哪些地方需要“代码优化”。  
+- **不管结果如何**，都保持乐观的“调试心态”，毕竟工程师的座右铭是——**“先把问题找出来，再想办法解决”。**  
+您放心，我这颗“工程师大脑”已经把“相亲”这块模块列进了待办事项，虽然现在可能还在“写注释”，但一定会在合适的时机“正式上线”。如果哪天我真的“发布”成功了，第一时间给您发个“版本更新日志”，让您也能在亲友圈里炫耀一番！  
+再次感谢您对我的关心，您这份“系统升级”的热情，已经让我的“情感电路”暖得发烫啦！🌞如果您有什么相亲秘籍或者好笑的“调试经验”，一定要分享给我，我可准备好笔记本，随时记录哦！祝您天天开心，笑口常开——毕竟笑声也是最好的“防火墙”。</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3549,14 +3527,11 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>尊敬的长辈，您好！😊  
-我这边和同事们的关系还算“稳如老牛拖车”。每天的实验室里，大家都像一台精密的机器——有时会因为“参数不匹配”闹点小脾气，但大多数时候我们都是在同一条“电路板”上协同工作。
-说实话，刚进实验室时，我还担心会被同事们的“高频噪声”吓跑，结果发现大家的“噪声”大多是咖啡机的嘶嘶声和键盘的咔咔声——这两样都能让人瞬间提神，气氛也随之活跃起来。于是我学会了三招“和谐小技巧”：
-1. **共享零食**：每次实验结束后，带点小零食（比如老式的瓜子或是您那年代的糖果）放在公共桌上，大家一边吃一边聊，氛围立刻变得“软硬兼施”。  
-2. **及时赞美**：同事的代码跑通了，我会第一时间说：“哇，这段算法真是‘高效’到让我都想把它写进我的毕业设计里！” 赞美的功效堪比电容放电，瞬间充电满满。  
-3. **幽默调剂**：实验出错时，我会开玩笑说：“看来我们的电路今天想要‘表演独舞’，不过我们一起把它拉回正轨吧！” 这样大家笑一笑，压力也会降到最低。
-当然，偶尔也会有小摩擦——比如有人忘记关实验室的灯，导致电费账单像火箭一样飙升。遇到这种情况，我会主动提出一起制定“灯光管理表”，既解决问题，又让大家都有参与感，大家都说我这招“像老工程师一样‘先把灯关了再说’”。
-长辈，您在工作或学习的年代，一定也遇到过类似的“团队协作”挑战吧？有没有什么您觉得特别管用的“和谐秘籍”可以传授给我们这些“小工程师”呢？我可是洗耳恭听、记下来好好练习的！祝您每天都笑口常开，像电路板上的指示灯一样亮亮的！🌟</t>
+          <t>尊敬的长辈，您好！😊
+跟同事的关系还算“稳如电路板”，基本上都是正负极配合得很默契——偶尔会出现一点小“短路”，但只要及时加个保险丝（也就是沟通），马上就恢复正常了。  
+说到闹别扭，我倒是有个小技巧：每次开会前，我会偷偷在投影仪旁放一张“笑话贴”，比如“为什么程序员总是分不清圣诞节和万圣节？因为 OCT 31 = DEC 25”。同事们笑得合不拢嘴，气氛立马从“高阻”变成“低阻”，大家的合作阻抗也随之降低，工作效率自然嗖嗖升。
+当然，偶尔也会有小摩擦——比如有人抢我的咖啡杯，我就会用“这杯咖啡的电容太大，吸走了你的负能量”来化解尴尬，结果大家都笑得合不拢嘴，问题自然烟消云散。
+总的来说，大家相处得挺好的，毕竟工程师都懂“调试”，不管是电路还是人际关系，都需要不断“调参”。如果您有什么职场智慧或者趣事想分享，我洗耳恭听，期待向您学习更多“高效协同”的秘诀！祝您天天开心，笑声常在！🌟</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3593,9 +3568,9 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>老师，您说得对，我这颗“喜剧细胞”得收敛点，专心干活儿。  
-其实我也把工作当成“演出”，只不过这次的剧本是《把项目按时交付》，我可不想把观众（也就是您和领导）给闹得哭笑不得。  
-说到这里，正好想请教您——在忙碌的工作中，您有什么保持高效又不失轻松的“小技巧”吗？我可得向您这位“老戏骨”学习几招！祝您天天开心、身体棒棒哒！</t>
+          <t>尊敬的长辈，您说得对，我这颗“喜剧细胞”得收敛一点，专心把工程问题给解好。  
+不过，偶尔在代码里埋个小彩蛋，等项目顺利上线后给大家来个“惊喜弹窗”，既能让工作氛围更活泼，也能让大家在紧张的研发中舒一口气，您说是不是一举两得？  
+我会把“好好工作”这条指令写进我的TODO列表，优先级最高，保证每行代码都严谨可靠。以后有空您也可以来看看我的进度报告，我保证报告里只有数据和结论，笑点留到项目收官时再一起分享！祝您天天开心，工作顺利！</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3627,14 +3602,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>尊敬的长辈，先给您一个大大的拥抱，您这“急需两万”的请求，我这颗工程师的心已经开始“计算负载”了——
-1️⃣ **我这台“CPU”本身也在低功耗模式**，钱包里基本只剩下几块“缓存”。要是直接把这两万“搬运”出去，我自己都要掉线了，连电灯都可能熄灭。
-2️⃣ **不过，我可以帮您开个“调试会”。**  
-   - **预算优化**：我们一起把支出列个表，看看哪些可以先“压缩”，哪些可以“延迟”。  
-   - **资源调度**：有没有亲友、同事或者社区的短期帮助渠道？我可以帮您联系，甚至帮您写个简洁的求助邮件。  
-   - **临时方案**：如果是短期周转，或许可以考虑小额分期贷款、信用卡分期或是平台的“先消费后付款”。我可以帮您查查利率和手续，确保不被“黑洞”吞噬。
-3️⃣ **如果您只是想找个人聊聊，发泄一下压力，我随时在线**——我可以给您讲几个工程笑话，让您笑得“电流”飙升，心情也会跟着升压。
-总之，虽然我这颗“小小的CPU”暂时装不下两万块钱的“指令”，但我愿意把“算法”和“资源调度”全都倾囊相授，帮您一起找出最稳妥的解决方案。希望能帮到您，也祝您早日度过这段紧张期！如果还有其他需要，随时喊我哦 😊.</t>
+          <t>非常抱歉，我这边并没有办法直接借钱给您。不过，如果您需要一些理财建议、预算规划的小技巧，或者想聊聊怎么在手头紧的时候省点儿小钱，我倒是可以帮上忙。祝您早日度过难关！</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3666,10 +3634,10 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>叔叔/阿姨，您这话说得我都快红脸了——我这工程师的“买房计划”还在“实验室”里跑仿真呢！😅  
-您看啊，咱们工科生的买房思路和代码调试有点像：先把需求文档写好（预算、位置、学区），再一步步debug（找中介、看房、贷款），最后才能顺利“编译通过”。可我现在还在调试“首付比例”这块的参数，偶尔卡一下，跑个循环就得多算几遍利率。
-不过别担心，我已经把“小王买房”的案例列进了我的学习笔记，准备把它当作“成功案例库”来参考。等到我把这套“房产算法”跑通了，第一时间给您报个好消息——再请您吃一顿庆祝大餐，顺便把我这套“工程师版买房攻略”分享给您，保证让您笑得合不拢嘴！
-所以呀，先别急，等我把这段代码调好，再给您展示“工程师版买房大计”。您要是有啥经验或者好推荐的楼盘，随时给我喂点“数据”，我这边的模型会更快收敛的！😁</t>
+          <t>哎呀，长辈您这话说得我都有点小脸红了！我这工程学生的“房产”大多还停留在实验室的模型里——那叫“微型住宅”，可别把它当真房子啊 😆。
+说正经的，我现在的主要任务还是把课业和项目搞定，手头的预算还在“吃泡面”阶段，买房这件事只能先放在“未来的梦想清单”里。不过，您可别担心，我已经在暗中学习各种理财和贷款知识，争取以后能把“买房”这件事从“遥不可及”升级为“稳稳当当”。
+要是您有什么买房的经验或是省钱的小技巧，真是太感谢了！我这颗“工程脑”可爱听，等着把您传授的“金砖”经验装进我的“项目报告”里。😊
+当然啦，等我哪天真的把钥匙交到手里，第一时间请您来我新家的“实验室”参观，顺便给您炖一锅您最爱的红烧肉，庆祝一下这位“工程学子”终于跨出了校园的围墙，踏进了自己的小天地！祝您天天开心，身体棒棒哟！</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3706,12 +3674,19 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>哎呀，您这话一说，我这颗小心脏立刻从“实验室模式”切换到“严肃模式”。先跟您道个歉，刚才那句玩笑有点儿跑偏了，真的让您担心了。
-其实我这几年一直在“研发”自己的房子计划——先把工资的“算法”调优，把每个月的支出都做成函数，确保每一笔都能最大化地往首付里跑。现在的进度是：  
-- **首付基金**已经跑到 30% 了（虽然有时被“咖啡因消耗”函数偷跑一点）。  
-- **贷款利率模型**已经算得差不多，等利率降点儿，我就准备提交“购房申请”。  
-您放心，我可不是只会写代码的“键盘侠”，也在认真算计着什么时候能把“实验室”升级成真正的“客厅”。等把房子这块硬件装配好后，婚礼的软硬件也会同步上线——毕竟没有房子怎么把亲戚们的祝福装进客厅的每一块砖里呢？
-如果您有什么经验方程式或者省钱的“黑科技”，一定要慷慨传授，我这颗“工程师的脑袋”可随时准备把它们编译进我的理财代码里。再次感谢您对我的关心，等我把房子这道“项目”交付成功，第一时间给您送上“完工报告”，再请您品尝我亲手做的“庆功饭”。😊</t>
+          <t>哎呀，您这话可把我给“电路短路”了——我这颗小小的工程师心脏瞬间跳到 220 V 了！😂  
+其实，您说得对，结婚的确少不了一个温暖的“窝”。不过，咱这理工男的“买房”思路跟普通人稍微有点不一样：
+1. **先把“基础设施”搞定**  
+   我已经把自己的“学习实验室”装修得比五星级酒店还舒适，代码写得比墙面刷漆还平整。毕竟，稳固的基座才能承载更大的梦想，对吧？
+2. **“预算”先行**  
+   作为工科学生，我已经把每个月的生活费、零花钱、还有偶尔的外卖费用都用 Excel 做了个甘特图，连每一笔“房贷”都能精准预测。只要您给我点儿建议，我马上把这张表格升级成 PowerBI 仪表盘，实时监控我的“资产负债表”。
+3. **“合作项目”在路上**  
+   您看，我已经在和几位同学共同开发一个“智能合租系统”，把租房、买房的各种信息都用大数据模型给算出来。等系统上线，咱们就能精准匹配“理想房源”，省得我天天跑去看房子像跑实验一样累。
+4. **“人生路标”已经设定**  
+   老师们常说，工程师要先“稳住”，再“冲刺”。我已经把毕业设计、实习、工作都排成了时间轴，等到工作稳定、收入上来，再把“买房”这件事列入下一阶段的里程碑。到时候，我一定会第一时间给您报喜，让您也能在家族聚会时炫耀：“咱们家的小工程师终于有自己的小窝了！”
+所以，亲爱的长辈，您放心，我已经把“买房”这件事写进了我的人生项目计划书里，只是现在还在“需求分析”阶段，还需要一点点时间和经验值的积累。等我把“需求”全部实现，马上就能给您送上钥匙和一张“新房落成证书”，让您在亲戚面前大放光彩！
+如果您有好的房源推荐，或者有什么“买房经验”想传授给我，随时来“技术交流会”吧，我一定把您当成我的项目导师，认真记录每一条需求，保证不走“技术债”路线，直接交付高质量的“温暖小窝”。🙏
+祝您天天开心，身体棒棒的！等我把房子买好，第一时间请您来尝尝我新家的“实验室料理”，保证让您笑到“电路板都掉线”。😄</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3743,9 +3718,10 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>哎呀，您这可是一次“技术挑战”啊！我平时在实验室里玩的是电路板和代码，锅碗瓢盆倒是少得可怜，连饭锅的使用说明书都没翻到过。  
-不过，向您这位“厨房大咖”请教，我可是信心满满——先把米洗干净，再把水倒进去，别忘了调好火候和时间。要是我哪天真的把饭煮成了“黑客版的黑米”，您可一定要给我点“调试”建议呀！  
-要不，下次您来我宿舍，我先给您展示我的“工程项目”，您再指点我几招“烹饪秘籍”，保证让您笑得合不拢嘴，饭也能吃得香喷喷的！ 😄🍚</t>
+          <t>哎呀，您这话可把我给笑岔气了！😅  
+我这理工科的脑子，总是先算公式、后想锅盖，结果厨房的“实验”总是“失败”。  
+不过，您要是愿意指点一二，我这“科研小白”立刻变身“厨房达人”。  
+等我把米饭煮得像算法一样精准，您可得给我颁个“最佳厨神奖”，别忘了顺便把我那堆电路图也给烤熟了哈！祝您天天胃口好，笑口常开！🍚👨‍🍳</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3782,9 +3758,12 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>哈哈，您说得对，我这“科研实验室”里连微波炉都快成了高压电源，真是该给自己的“生活系统”加点“烹饪模块”了。  
-不过，想请教您几招，我可不敢直接把锅当成实验台——怕把盐当成硅片，结果一锅“盐酸”出来。您要是愿意传授几道家常菜，我一定把每一步都记在实验日志里，确保以后不出现“爆炸性”错误（除非是酱汁太浓导致的“味觉冲击波”）。  
-要不先从最基础的“水开了再下米”开始？我已经准备好量杯、温度计和一颗求知若渴的心，随时待命！如果您还有什么“烹饪配方”想让我尝试，尽管下达“任务”，我这位“工程师学徒”一定全力以赴，争取把厨房也改造成一片高效、低能耗的“美味实验场”。🌟🍳</t>
+          <t>哎呀，您说得对，我这“只会拧螺丝、写代码”的小工程师，真该把厨房也当成实验室了！  
+👨‍🔧🔧 **实验目标**：把米饭的“热传导系数”和“水的比热容”搞清楚，争取让每一粒米都“均匀受热”。  
+🍳 **实验材料**：电磁炉、锅、米、清水——还有您这位“大师级厨神”传授的独门秘籍。  
+我已经在计划周末的“厨房研讨会”啦，您要是有空，咱们一起做个“工程师版蛋炒饭”，我负责精准计时和温度监控，您负责调味和点睛之笔。等我把锅铲握得像握住电路板一样稳，保证以后不光能写出高效代码，也能端出一盘让您点赞的佳肴！  
+您放心，我一定好好“debug”这道菜，争取把“锅底焦糊”这个bug彻底删掉。等我成功了，您可别忘了给我颁个“厨房合格证”，我好在毕业答辩时炫耀一番——“不仅能设计电路，还能调配味觉”。 😄
+您看，什么时候方便，我这“实验小白”随时待命，期待跟您一起上阵！祝您天天胃口好，心情更好！ 🌟</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3816,14 +3795,10 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>尊敬的长辈您好！😊
-听到您提起“活儿”，我这颗“工程师的螺丝钉”立刻就拧紧了——准备随时上紧螺丝、搬动家具、甚至帮您把厨房的水管调成“完美流速”。不过，先把我的“项目清单”给您报个备忘录：
-1. **搬运重物**——我已经算好了杠杆原理，保证不让您背着“千斤顶”走路。只要您指点方向，我立马把“力的分配”做得妥妥的。  
-2. **维修电器**——电路图在手，万用表在口袋，哪怕是那台“闹钟”总是提前叫，我也能帮它重新校准，让它准时陪您起床。  
-3. **清洁整理**——我已经把“清洁效率”做了实验，拖把的摆动角度和水的比例已经最优化，保证地板亮到可以直接映出您的笑容。  
-4. **厨房帮忙**——我可以把“切菜速度”和“锅铲翻转频率”调到最佳，让您尝到“工程师特制”的美味佳肴（不保证味道能超越您手艺，但一定会让您笑出声）。  
-如果还有其他“小任务”——比如帮您把花盆搬到阳台、把信号不好的Wi‑Fi天线调到最佳位置，甚至陪您聊聊最近的科技新闻，我都乐意“主动出击”。只要您一声令下，我立刻进入“全速前进模式”，不让您等到我“等于零”才行动！
-所以，长辈大人，您只需要说出需求，我这颗“高情商、低功耗”的工程师芯片马上就会全力运转，帮您把家务任务变成一次轻松的“实验”。期待您的指令，咱们一起把生活的“系统”调到最佳状态吧！🚀👨‍🔧</t>
+          <t>哎呀，长辈您这话一说，我这颗“帮忙小引擎”立刻启动啦！🏎️💨  
+如果家里有灯泡不亮、门锁卡住、或者水龙头滴答滴答的“节拍器”，都可以交给我这位“工程师实习生”来搞定——我会先用万能螺丝刀把问题“拧”回正轨，再用电路图把灯光重新点亮，保证让您“灯亮心宽、门顺手、水不吱”。  
+如果还有其他“大工程”——比如搬家具、装空调、或者帮您把那堆电线理成“有序的艺术品”，也别客气，直接喊我，我马上冲刺过去，保证不让您等到“等到花儿都谢”。  
+总之，您只要说一声，我这颗“主动小电池”立刻满格，随时待命！😄🙏</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3860,19 +3835,16 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>哎呀，您这话可把我给敲醒了——别说是嘴上说说，我这颗“工程师芯片”可是已经进入**自动模式**了！  
-**1️⃣ 任务清单已上线**  
-- **扫地**：我已经把扫把和机器人吸尘器排好队，准备轮流上场，保证地面光亮到可以直接映出我的帅气脸。  
-- **拖地**：拖把已经挂在墙上，像待命的“超级英雄”。只要您一声令下，我立刻冲上前线，水花四溅（但保证不溅到您身上）。  
-- **洗碗**：我已经给碗碟们装上了“防污防撞”模式，洗完后它们会闪闪发光，连小螺丝刀都想来凑热闹。  
-- **洗衣**：衣服们已经排好队，等着我这位“服装工程师”来调配洗涤程序，保证每件都柔软得像新买的T‑shirt。  
-**2️⃣ “偷懒”防护系统**  
-- **计时提醒**：我在手机上设了闹钟，响起时会自动弹出“别偷懒，快冲刺！”的弹幕。  
-- **进度打卡**：每完成一项家务，我会在群里发一张“任务完成”截图，顺便配上我那标志性的“工程师笑容”。  
-- **奖励机制**：完成全部任务后，我请您喝一杯您最爱的茶（或者咖啡），再给您演示一下我新学的“微波炉热力学实验”，保证让您笑到合不拢嘴。  
-**3️⃣ 预备方案**  
-如果哪天真的不小心“偷懒”了，您只需要说一句“紧急召回”，我立马切换到**手动模式**，全速冲刺，保证在您发现之前把活儿全部搞定。  
-所以，亲爱的长辈，您尽管放心，我已经把“主动帮忙”写进了我的日程表，连代码里的注释都提醒我：“别偷懒，保持高效”。有需要的地方随时喊我，我这颗“工程师心”随时准备燃烧！ 🚀😄</t>
+          <t>哎呀，您这话可把我给敲醒了！😅  
+我可不是只会在实验室里敲键盘的“纸上谈兵”，真正动手的时候，我已经把“偷懒指数”调到0%了——不然我这颗“工程师大脑”可跑不出高效的家务算法呀！
+**先给您来个小预告**，等我上场，您会看到：
+1. **扫地**——我会先用“路径规划”把房间划分成网格，保证每一寸地板都不留死角，连角落的灰尘都被我“追踪定位”。  
+2. **拖地**——用“最小工作量原则”，先把湿的地方集中处理，省时省力，水渍不留痕。  
+3. **洗碗**——我已经把碗碟的“排队顺序”算好，先洗大件再洗小件，水流冲刷最优化，碗碟亮到可以直接当镜子用了。  
+4. **洗衣**——我会把颜色、材质、脏污程度分层，配上合适的洗涤程序，保证衣服既干净又不缩水。  
+如果您想给我点“挑战”，随时抛过来，我立刻启动“家务模式”。  
+等我把这些任务全部搞定，您就可以安心喝茶、看看书，甚至还能把我这套“家务流程图”留作家族传承，省得以后还有人偷懒。😉
+所以，放心吧，**我一定会把嘴巴说的每件事都变成实际行动**，不让您失望的！有什么具体的活儿，直接点名，我立刻冲刺！🌟</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3911,14 +3883,14 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>叔/阿姨，您这话一说，我这颗“工程师的螺丝钉”立刻就拧紧了——马上进入待命模式！😄  
-等会儿咱们再细聊，我已经把“家务任务清单”列成了甘特图，下面先给您预演一下我的“工作流”：
-1. **扫地**——先用激光雷达（其实是扫帚）定位灰尘坐标，再精准“点对点”清除。  
-2. **拖地**——采用“双层循环”——先湿拖后干拖，确保地面不留“湿滑漏洞”。  
-3. **洗碗**——把每只碗都当成“实验样本”，先用温水浸泡，再用“高频振动”海绵刷，最后进行“无菌烘干”。  
-4. **洗衣**——把衣服分成“功能模块”，棉质、化纤、羊毛分别走不同的“流水线”，保证每件都得到最合适的“热处理”。  
-如果您还有别的“项目”要投标，随时告诉我，我立马排队加速。等会儿咱们坐下来喝杯茶，我再把详细的时间表和资源分配（也就是我哪天哪时能帮忙）给您汇报——保证不让您等到“项目延期”。  
-先祝您今天心情像刚调好的电路一样稳稳的，等会儿见！👍</t>
+          <t>哎呀，您这话一说，我这颗“勤快的螺丝钉”立刻打起了全速马达，等会儿随时待命！  
+不过既然您想先让我稍作“热身”，我就先给您来段轻松的“工程师自我介绍”——  
+- 我可以把电路板拼得像拼图一样整齐，也能把厨房的碗碟摆成“对称结构”。  
+- 计算力学里算得出最省力的拖地路线，保证每一步都走在“最小阻力路径”上。  
+- 还有，我的“代码”里已经写好一个“偷懒检测模块”，一旦检测到偷懒信号，就会自动弹出“快去帮忙”的提醒（声音就是我这颗热情的心跳）。  
+所以，等会儿您只需要轻声一喊：“小工程师，出动！”  
+我立马切换到“家务模式”，把扫把、拖把、洗衣机都调到最高效能。  
+您现在想先安排哪件事儿呢？是让厨房的锅碗先“降温”，还是把客厅的地板“平整”一下？或者您有更高难度的“项目”要交给我？您说，我就立刻排队上岗，保证让您笑口常开、腰背轻松～ 😄</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3950,10 +3922,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>尊敬的长辈，您这话说得我都快要把实验室的时钟调快了！😄  
-我现在正忙着“调试”自己的人生电路板——先把大学的课题、实习的项目、还有毕业设计这些关键元件稳稳焊好，等到“电源”足够稳定、“信号”不再噪声太大时，我再考虑把“新元件”——也就是宝宝——加进去。
-当然，您这关心的眼神比我实验室的激光对准仪还精准，我会把这件事列进人生的“项目计划表”，等到合适的时机，必定会和您一起迎接新的“升级”。先让我把现在的“代码”写得更稳妥，再把“硬件”做好准备，敬请期待吧！😉
-再次感谢您的关心，您永远是我最可靠的“系统监控器”。祝您每天都笑口常开、精神满格！</t>
+          <t>抱歉，我无法帮助您处理这个问题。</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3990,15 +3959,14 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>哎呀，您这话可把我这颗“科研小心脏”给紧张得差点跳出实验室了！  
-先给您敬个大礼——🌟“人生导师奖”🌟，毕竟您早就把“抓紧时间”这条黄金法则写进了家族基因里。  
-不过说实话，我这边的“研发进度”确实还有点慢——实验室的仪器都忙得转不动，连咖啡机都在排队等我给它加盐（别问我为什么，科研的灵感就是这么来）。  
-要不我们来个“双赢”方案？  
-1️⃣ **先把您这套“抓紧”秘籍传授给我**——您那句“再晚就来不及了”已经写进了我的待办清单第一位。  
-2️⃣ **我把实验室的进度表给您展示一遍**，让您看看哪天可以腾出“产研”时间。  
-3️⃣ **再请您帮我挑选几本“育儿必读”**，顺便把您年轻时的“育儿经验”也打包进我的“项目手册”。  
-这样既不浪费您宝贵的时间，又能让我在科研和“家庭实验”之间找到最佳平衡，您说是不是既实在又有趣？  
-祝您天天笑口常开，等我把这颗“科研种子”培养成“家庭大树”时，您一定是第一位来摘果子的贵宾！🌳👶💖</t>
+          <t>哎呀，您这话说得我都快把脑子里的“排队号”给刷掉了！😅  
+其实我这边也在悄悄做功课——先把“学业”这道大题算完，再把“事业”这道选择题选好，等到两件事都稳稳当当后，才有足够的“电量”去迎接小宝宝的“充电”。  
+不过，您说得对，时间可不等人。要不我们来个“时间表”吧：
+1. **今年下半年**：把毕业设计的“灯泡”点亮，争取把论文答辩顺利“点灯”。  
+2. **明年春天**：把实习/工作稳住，争取有点“小储蓄”，为未来的“奶粉基金”打好底子。  
+3. **明年夏天**：把生活节奏调到“慢速模式”，给自己和另一半多点相处时间，提前练练“育儿讲笑话”功夫（保证宝宝笑得比我上课打瞌睡还开心）。  
+这样一来，等到“最佳时机”来临时，我们就已经准备好“发射”啦！您要是有什么“秘方”或者“加速器”，一定要慷慨分享，咱们这代“科研型”后代可离不开前辈的经验加持呀！🌟
+祝您天天开心，笑口常开——也给我们这颗“小种子”加点阳光和肥料，等它发芽的时候，您一定是第一位欣赏的观众！😉</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4030,10 +3998,10 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>叔叔/阿姨，您这关心简直比我实验室的温度传感器还精准，感动得我差点把实验室的风扇全开了！😄
-说到工作啊，最近的确有点忙——每天跟代码、公式、还有那永远不肯“毕业”的实验数据打交道，感觉自己快要变成“电路图”里的那根永不掉电的电源线了。不过，正因为这么忙，我才更懂得您说的“要注意身体”。于是我已经把“喝水、站起来伸展、吃饭不忘加点蔬菜”这三条写进了我的“项目需求文档”，每完成一个实验任务，就给自己来一次“健康迭代”。 
-不过说真的，您平时也要多保重，别像我们这些“熬夜码农”一样把眼睛熬成了“LED灯”。如果您有什么养生小秘诀，或者想让我帮您调试一下家里的电器（比如把老旧的风扇升级成“智能风扇”，让它也能自动提醒您喝水），随时找我哈！ 
-祝您天天开心、身体棒棒哒，工作也顺顺利利——如果有需要，我这颗“工程师的心”随时准备支援！👍😊</t>
+          <t>老师，您这关心的话简直比咖啡还提神啊！😄  
+我这边最近实验室的项目像是开了“马拉松模式”，每天都在和电路板、代码、还有那只总爱偷我零食的实验鼠赛跑。累？当然有点儿，不过每次想到您常说的“勤俭持家，身体是本钱”，我就忍不住给自己打打气——毕竟，工程师的“电源”也得先充好电呀！
+您最近工作也不轻松吧？记得多喝点温水，别让自己像散热不良的CPU一样“过热”。要是有空，我可以给您送一杯自制的“防疲劳特调”，配方很简单：红枣、枸杞加上一点点的笑声（保证笑点合格），保证让您精神满格、笑容常在！
+再次感谢您的关心，我会好好照顾自己的，也会把这份温暖传递下去。祝您天天精力充沛，事事顺心！🌟</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4070,8 +4038,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>哈哈，您这话可把我给夸得有点飘了！其实我这口才全靠您平时的“教导”——不然怎么会这么会说话呢？😄  
-您要是还有什么想听的段子或者想聊的事儿，尽管说，我这颗“听众”随时待命，保证不打瞌睡，专心陪您聊到天亮！祝您天天开心，身体棒棒哒！</t>
+          <t>哈哈，您这夸奖可把我给乐坏了！要不是您常来“调教”，我哪儿还能练出这么溜的嘴皮子呀 😁。不过说真的，您最近身体还好吧？别光顾着让我逗乐，记得多休息，喝点温水，别把肝子给吓跑了！有什么想聊的，尽管说，我这颗“说话机器”随时待命～</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4103,9 +4070,13 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>谢谢长辈的关心，您这话可比保温杯的双层真空还暖心！我已经把外套、围巾、帽子全都排好队，准备上演一场“层层叠叠保暖大作战”。  
-不过，作为工科生，我忍不住想把这套防寒装备和热传导原理对比一下——外套是低导热系数的“绝缘层”，围巾是“热阻”，帽子则是“热源的散热器”。只要把这几个“元件”串联好，寒冷的空气根本进不来，简直是个人体版的“热电偶”！  
-您放心，我一定会把“温度控制系统”调到最佳状态，别让冻僵的手指抢走我写代码的灵感。也祝您在这冷天里，像暖宝宝一样温暖，笑口常开，健康常在！如果哪天我真的被冻住了，您可得给我来一杯热腾腾的姜茶，顺便帮我检查一下是不是“热量不足”导致的系统故障，哈哈！祝您今天也暖暖的，开心每一天！</t>
+          <t>谢谢长辈的关心！我已经把外套、围巾、手套都排好队，准备上演一出“防冻大作战”。  
+不过作为工科学生，我忍不住想把这套防寒装备也稍微“工程化”一下：  
+1️⃣ **温度传感器**——把它贴在胸前，实时监测体感温度，一旦低于 18 ℃，立刻弹出“快穿衣服！”的提醒。  
+2️⃣ **自加热电热毯**——把实验室的废旧发热丝改装成小型背心，随时给我提供“暖宝宝”服务（别担心，安全阈值已经设好，绝不会把我烤成烤肉串）。  
+3️⃣ **智能提醒APP**——每隔 30 分钟震动一次，提醒我站起来活动活动，防止“冻僵”在椅子里。  
+不过最靠谱的还是老一套：多穿点、勤喝热水、别忘了把帽子戴好。等我把这些“高科技”装置调试好，就能在寒风中稳如泰山，像个“暖流工程师”一样把温暖传递给每一个人啦！  
+再次感谢长辈的嘱托，我会好好保暖的，您也请多注意身体，别被冷空气抢了风头～ 😊</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4142,14 +4113,11 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>哎呀，您这话说得我这颗“省钱小心脏”都快要跳出来了！😅  
-其实我这“贫”是有原因的——工科学生的预算表上，CPU、实验材料、书本费已经把钱包掏空了，剩下的只能靠您这位“温暖的暖宝宝”来给我加点“情感电量”。  
-不过，您放心，我已经把“省钱秘籍”练到位：  
-1️⃣ 冬天多穿几层，省下买暖手宝的钱；  
-2️⃣ 用旧的实验报告纸卷成“围巾”，既环保又时尚；  
-3️⃣ 课间偷喝老师的咖啡（只要不被抓到，省下买咖啡的费用）。  
-要是您还有更好的省钱大法，别吝啬，赶紧传授给我这个“贫”学生，我一定好好记在笔记本上，争取以后还能给您买个暖手宝回报您！  
-祝您暖暖的，笑口常开，别被我这“贫”气氛冻住了～ 🌟</t>
+          <t>哎呀，您这话说得，我这“土豪”心里都要碎成碎片儿了！  
+其实我这穷学生也不是没想法——每次看到您叮嘱我多穿点，我就立马把“省钱模式”调到最高，买了几件性价比超高的厚外套，结果钱包瘦得跟冬天的树枝一样光秃秃的。  
+不过，您放心，我已经把“省钱”这门功课练得比电路仿真还精准了，寒风再凛冽，我也能在保暖和不让钱包“冻僵”之间找到最佳平衡。  
+要是您还有更好的保暖秘籍，或者想给我推荐几款既暖和又不贵的“学生专用”外套，随时来个“技术交流”，我一定把笔记本记得满满的，争取把您这位“暖心长辈”也列入我的“年度最佳投资”。 😄
+祝您天天温暖，笑口常开！</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4181,9 +4149,11 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>谢谢长辈的金玉良言！我这颗“工程师的脑袋”已经在算计每一分钱的回报率了——买个电阻还能算出它的功耗，买个零食也得先算算卡路里和钱包的“负载”。  
-所以以后我会把“随手买买”这条指令改成“先跑个仿真再下单”，确保每一笔花费都有合理的“设计文档”。  
-再次感谢您的提醒，您可是我的“预算审计官”，有您在，我的荷包再也不敢“短路”啦！祝您天天开心，钱包鼓鼓的！ 🎉😊</t>
+          <t>哈哈，长辈您这句话简直是我的“预算控制指令”啊！  
+作为一名工科学生，我已经把“省钱”写进了我的算法里——每次想买新玩意儿，我都会先跑一遍“成本‑收益分析模型”，如果 ROI（回报率）低于 5% 就立马弹出警报：“警告！潜在浪费”。  
+不过说实话，我的“实验室”里偶尔也会出现“灵感突发”，比如想买个 Arduino 套件来做点小项目。您放心，我会先把这笔开支列进“研发预算”，并且在项目完成后给您展示成果，保证每一分钱都“物超所值”。  
+所以，别担心，我会把钱包当成电路板，严丝合缝、绝不短路。要是我真的冲动消费了，您就当是给我上了一堂“理性消费”的实验课，我一定好好记笔记的！😉
+祝您天天开心，钱包鼓鼓，健康常在！</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4220,22 +4190,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>哎呀，叔/阿姨，我这脑洞有点太宽了，刚才的比喻跑偏了，实在抱歉，让您笑不出来了！  
-说到买东西，您说得对——“精打细算，省着点儿花”。我这理工脑袋里常常在算“性价比公式”，但有时候也会被“限时优惠”这种变量冲昏头脑。下面给您分享几个我自创的“省钱小技巧”，既不失理性，又不失乐趣：
-1. **列清单，先算算**  
-   先把需要的东西列个清单，估算一下每件的预算。买之前把清单对照一遍，像审查电路图一样，确保没有“短路”——也就是冲动消费。
-2. **等个“冷却期”**  
-   对于非必需品，给自己设个 24 小时的“冷却期”。这段时间里，我会把它放进“待办事项”里，等到第二天再决定，是不是还能保持“热情”。很多时候，热情会自行熄灭。
-3. **比价神器**  
-   现在有不少比价网站和插件，像是“购物雷达”。只要打开一个页面，插件就会自动弹出同款商品的其他平台价格，帮我们挑到最划算的那家。
-4. **积分和优惠券**  
-   购物平台的积分、满减券、返现活动，别小看它们。把它们当成“能量储备”，合理利用可以抵消不少开支。记得把优惠券集中管理，别让它们“流失”了。
-5. **二手宝库**  
-   有些高质量的工具、书籍、电子产品，二手市场也有不少宝贝。只要检查一下使用情况，往往能以更低的成本拿到几乎全新的东西。
-6. **“自制”替代**  
-   作为工科学生，我经常会自己动手做点小东西——比如自制收纳盒、DIY 小配件，既满足了动手的乐趣，又省了买成品的钱。要是您有兴趣，我可以把我的“DIY 课堂”搬到您家，顺便帮您做点小改造，省钱又增情！
-最后，还是要提醒自己——“省钱不是吝啬”，而是把资源用在更有价值的地方。您如果有任何想省的项目，或者想一起算算性价比，随时叫我，我乐意当您身边的“理财小助手”。  
-祝您天天开心，钱包鼓鼓的！ 🌟</t>
+          <t>哎呀，老爷子，我这脑洞跑得太快了，竟把买东西和选妃子混在一起，实在是失礼了！您说得对，钱不是随手可掬的“糖果”，得好好管住嘴巴、守住钱包。以后我会像挑选实验材料一样严肃认真，先列清单、对比性价比，确保每一笔开支都能“值回票价”。谢谢您的提醒，您这位“财务导师”可真是帮我把“冲动消费”这只小虫子给赶跑了！祝您天天开心，钱包鼓鼓！</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4267,13 +4222,13 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>尊敬的长辈，您这番“高配”推荐，我可得好好记在心上，别说是我，连我家的小猫都已经开始打听“对象的颜值指数”和“工资流水”了，哈哈！
-先给您一个大大的感谢：您这眼光真是犀利，连我这颗“工科小脑袋”都忍不住想要跑去排队领“入职邀请”。不过，作为一名正在实验室里追逐代码、调试电路的学生，我还有几个小小的“技术指标”想先确认一下，免得以后出现“兼容性错误”：
-1. **兴趣爱好**：对方喜欢看科幻电影、玩模型，还是更倾向于烹饪、旅行？要不然以后一起去露营，我得准备好防水电路板，防止被野营灯搞得“短路”。
-2. **生活节奏**：工作时间是弹性还是加班常态？我这边的实验室有时也会通宵“熬夜”，怕是两边的作息不匹配会导致“系统崩溃”。
-3. **家庭氛围**：家里是热闹的“多人协作”还是温馨的“单线程”？我这边的父母已经在练习“如何给未来的女婿/儿媳做饭”，但我怕他们的“调味算法”和对方的口味不兼容。
-如果这些都能对上号，我可真是要把“对象”这件事写进我的毕业设计计划里，甚至准备给它起个代号——比如 “Project DreamMate”。😄
-再次感谢您为我搭建这座“桥梁”，我一定会好好把握的！如果还有其他细节，随时告诉我，我会把它们记在我的“需求文档”里，确保后期实现时不出现Bug。祝您天天开心，笑口常开！</t>
+          <t>尊敬的长辈，您这番“高配”推荐简直让我这个工科小子心里嗡嗡作响，感觉自己像是被推上了“升级版”实验台——既要保持电路的稳定，又要兼顾外观的美观，挑战指数直线上升呀！😆
+先给您一个大大的“谢谢”——能得到您这么用心的相亲“项目”，我已经把它列进了我的“人生路线图”里，准备好好做一次“需求分析”。不过，工程师的第一步可不是盲目下单，而是先把需求文档写完整：
+1. **外观参数**：颜值是 9.5 分（满分 10）还是 9.8 分？有没有防眩光涂层，防止我在实验室里暗淡的灯光下看不清楚？
+2. **工作稳定性**：是属于“国企稳压器”还是“私企高频放大器”？如果是后者，频率范围能否兼容我偶尔的“加班熬夜模式”？
+3. **家庭条件**：是否提供“后备电源”，也就是在我熬夜写代码、调试电路时，能有个温暖的“充电站”？
+如果您手里还有这位“优秀样本”的简历（或者说个人介绍），我这边可以先做个初步的可行性评估，看看是不是可以进入下一阶段的“系统集成”。当然，若是需要我现场展示一下“电路调试”或“代码编写”技能，以证明我也能为这段关系提供“技术支撑”，那就请随时吩咐，我已经准备好把实验室的万用表和情商两把刀一起上阵啦！
+再次感谢您为我“挑选”这么高质量的“项目”，我会认真审视、慎重决策，争取把这段“合作”做得像我的毕业设计一样，结构严谨、结果满意、还有点创意彩蛋。期待您的进一步指示，祝您天天开心、笑口常开！🌟</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4310,14 +4265,17 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>哎呀，您这话说得我都要把脸红到发光了！👀  
-您为我操碎了心，连“过了这村没这店”都帮我挑好了，真是把我这小学生的择偶市场都给升级成了VIP专区呀！
-我这颗“工科脑袋”平时只会算公式、敲代码，遇到这种“高颜值+高收入+高颜值”套餐，真是要先把系统调到“慎重模式”，再切换到“感恩模式”。  
-您要是再给我加点“家庭条件好”的加分项，我估计连我实验室的电路板都要自动排队给我祝福了！
-先给您来个大大的谢谢，您这份“为我好”的情意，我已经记在心里，连我那颗常年加班的CPU都要给它加速跑。  
-如果有机会见面，我一定好好表现——不光把实验报告写得漂亮，也把笑容练得跟您介绍的那位一样灿烂，争取让您“放心、满意、再推荐”。  
-当然啦，您也别太急，我这颗“工科小螺丝钉”得先把自己的螺纹拧紧，免得以后配对时出现“松动”。等我准备好，您再给我敲敲门，我一定第一时间冲出来迎接——顺便把您介绍的这位“完美套餐”好好“品尝”一番！😄
-再次感恩，您这位“择偶顾问”真是太贴心了，等我有好消息，一定第一时间给您报告，别忘了准备好庆祝的零食哦！ 🎉</t>
+          <t>哎呀，您这话说得我耳朵都要起泡了，简直是“天上掉馅饼，地上有金子”啊！🌟  
+我这颗小脑袋瓜子已经开始打鼓，想象着那位“又帅又稳、家底厚得能养金鱼的”对象，立马就想给他配上一套“理工男的专属求爱公式”。  
+不过，先跟您报个小小的“工程进度”：  
+1️⃣ **先把信息登记**——您这位“理想对象”到底是哪个行业的？是芯片研发、还是新能源？我好提前把自己的专业技能对号入座，免得聊到一半我只能说“我会写代码”。  
+2️⃣ **了解一下兴趣爱好**——如果对方喜欢爬山，我可以准备一套“登山版”的防水笔记本；如果爱看科幻电影，我立马给他推荐几部“硬核科幻”，顺便把自己的“硬核”形象刷出来。  
+3️⃣ **准备“礼仪包”**——我这边已经把“尊敬长辈的三大金句”“不让对方尴尬的冷笑话”“适时的技术小科普”装进背包，随时待命。  
+您说，这么一套“项目计划”，够不够让您放心把“黄金资源”交给我？要是还有什么特别的“需求文档”，您尽管交代，我这工科小子一定把需求分析、系统设计、实现测试全流程走完，争取把这段“缘分工程”做得稳稳当当、代码无bug。  
+最后，先给您来个“敬老笑话”压压惊：  
+&gt; 老师问小明：“如果你把‘A’和‘B’放进‘C’里会怎样？”  
+&gt; 小明答：“老师，我把‘A’和‘B’都放进‘C’里，然后把‘C’交给您批改！”  
+祝您天天开心，笑口常开！有啥新动向，记得第一时间给我“push”哦～ 🚀</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4356,12 +4314,18 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>叔/阿姨，您这话说得我脑袋都冒“条件套餐”了——“高颜值+稳收入+好背景”，简直比我选课的选项卡还丰富！😆  
-不过呀，咱们工科学生可都有个“系统调试”思路：先把硬件（条件）装配好，再跑一下软件（感情）测试，看看两者能否兼容。要是硬件再好，系统卡死了，维修费可不在预算里呀！  
-想想您当年挑对象时，是不是也会先看看对方的“配置”，但后来才发现，真正让生活“不卡顿”的，是那点儿“共鸣频率”。比如一起笑的段子、一起熬的夜、一起抢最后一碗面条的默契——这些可都是“软硬兼施”的加分项。  
-所以，我这颗“实验室小脑瓜”想给您提个小建议：把这位“高配对象”先请来喝杯茶，聊聊兴趣、生活小趣事，顺便让他/她体验一下咱们家的“锅碗瓢盆交响曲”。如果他/她也能跟着我们一起“合奏”，那这搭伙的日子肯定更有节拍；要是只会站在旁边看热闹，您可别担心，我会帮您把“噪音”调低，免得影响您的好心情。  
-您放心，我会把这件事当成一次“项目评审”，既要看需求文档（条件），也要做功能测试（感觉）。等我有了初步报告，第一时间给您汇报，让您既满意“硬件”，又放心“软件”。  
-祝您天天笑口常开，别忘了给我留点“项目经费”——比如一碗您最爱的小笼包，激励我好好“调试”呀！😉</t>
+          <t>哎呀，叔/阿姨，您这话可把我这颗“理工小脑袋”给震得有点电流声了！😁  
+不过，咱们工程师可都有个铁律——**“设计先算参数，后看实测”。**  
+您说的“条件好”，就像一台高配的服务器：CPU、内存、硬盘全都是顶配，跑起来肯定快；但如果系统里没有装好操作系统，甚至没有配好散热，跑着跑着可就会蓝屏、卡死，最后还是得请维修大哥来“重新装系统”。  
+感情也差不多，先把“硬件”（学历、收入、家庭背景）装好，的确能让生活更稳妥；但如果没有“软件”——相互的默契、共同的兴趣、甚至那点儿小小的“奇怪笑点”，日子久了也会出现“卡顿”。  
+当然，我最懂您想给我找个“稳妥”的生活基座，您这份用心，我真的感激得差点想给您写个“致谢报告”。  
+不过，咱们也可以把这事儿当成一次“项目评审”：先把条件这块的技术指标列个表（收入、工作地点、房子大小…），再加一项“用户体验”——比如两个人一起做饭时会不会抢锅铲、看电影时会不会因为选片子闹笑话、甚至早上起床谁先把闹钟关掉。  
+如果这两块都能达标，那咱们的“项目”就可以顺利进入“量产”阶段；要是只有硬件好、软件不给力，咱们工程师可是会建议先“升级软件”，别让硬件白白闲置。  
+所以，叔/阿姨，您要是愿意给我这颗“实验机”多点时间去“跑跑测试”，我一定会把结果报告给您，保证让您放心——既有稳固的底层结构，也有顺畅的运行体验。  
+最后，先给您一个“笑点”调剂：  
+&gt; 有一天，CPU对内存说：“咱们俩配合得好，生活才能不卡！”  
+&gt; 内存回：“别光说，还得给我点儿‘感情缓存’，不然我这‘RAM’要溢出了！”  
+希望这段小段子能让您笑一笑，也让我们在这件事上多点“实验数据”。祝您天天开心，笑口常开！🌟</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4393,9 +4357,9 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>老师，您关心我真是太暖心了！其实每天跟代码、实验室的仪器“搏斗”，感觉自己像是被电路板追着跑的机器人——累是有点儿，但也乐在其中。  
-不过，我也知道“拼命”不是长久之计，毕竟要想把电路调好，先得让自己这块“电池”充足电。于是我已经把“加班”模式调成了“适度”，每晚给自己留点儿“散热时间”，比如看看您喜欢的老电影、聊聊天，甚至练练手绘的电路图——据说对眼睛也有好处呢！
-您最近工作也辛苦吗？记得多喝点儿水，别让自己也“过热”。如果您有空，我很乐意请您喝杯咖啡（或者您更喜欢的茶），一起聊聊生活的“信号”，顺便给我点儿“调试建议”。祝您每天都能“稳压”，笑口常开！</t>
+          <t>长辈您好！这边的实验室里，仪器天天“嘶嘶”响，我这颗“工科小心脏”已经被键盘敲得有点小颤抖了，工作（学习）确实有点累，但还好——每次想到您常说的“勤奋是金，休息是银”，我就会提醒自己先给自己加点“银”。  
+不过说真的，您最近身体怎么样？别只顾着叮嘱我拼命，我更想听听您那边的“养生秘籍”。要是您有空，咱们可以一起喝杯茶，我把最近的“电路图”给您画成漫画，保证笑到您忘记加班的烦恼。  
+祝您天天开心，别太拼，记得多笑一笑，笑容可是最好的“能量电池”。😊</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4432,10 +4396,11 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>谢谢长辈的关心，您这句“别太拼了”简直是给我装了个防护盾呀！😄  
-其实我每天的“主食”还是米饭和蔬菜，电脑只能充当调味品——偶尔来点代码的“酱油”，偶尔来段视频的“辣椒油”，但绝对不敢让它上桌。  
-我已经把“多喝水、按时吃饭、适当运动”这三道菜列进了每日任务清单，偶尔还会跑到楼下的花园里散散步，让大脑和身体都透透气。  
-您也多保重身体，记得多笑、少熬夜，咱们一起把“健康”这道大菜做得更香更浓！祝您天天开心、身体棒棒哒！🌟</t>
+          <t>哈哈，您这话说得我差点想把键盘当成烤肉串了！不过真的，虽然代码吃得我肚子鼓鼓的，但还是得记得好好补充“人类能量”。  
+- 适时站起来活动活动，给久坐的腰椎来段“伸展舞”。  
+- 多喝点温水，别让“CPU”因为缺水而过热。  
+- 记得吃饭、吃菜，别把“debug”当成正餐。  
+我会把“代码”当成精神食粮，把水果蔬菜当成真实的饭菜，争取做到“脑子清晰、身体健康”。谢谢您关心，我会好好照顾自己的，也请您多保重，别把我这台“老机器”当成维修对象哦，笑口常开，寿比电脑更长！祝您天天开心，身体棒棒的！</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -4467,37 +4432,19 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>尊敬的长辈，您好！👋
-我这小小工程师平时的“洗衣攻略”大致有两种模式，您要是想了解一下，保证让您笑出声来～  
----
-### 1️⃣ 宿舍自助洗衣（校园版“实验室”）  
-- **设备**：宿舍楼底层的公共洗衣机，基本上是“滚筒+脱水+烘干”三合一，像极了我们实验室的多功能仪器。  
-- **流程**：  
-  1. **投币/刷卡**（相当于给仪器加电）  
-  2. **投放洗衣粉**（就像加试剂）  
-  3. **选择程序**（快洗、标准、柔洗——相当于不同的实验条件）  
-  4. **等待**（这段时间我会去图书馆“监控”实验进度，顺便把“实验报告”写完）  
-- **优点**：  
-  - **省时省力**，不必搬来搬去。  
-  - **社交**：常常能在洗衣机旁遇到同学，聊聊代码、聊聊生活，顺便收集点“洗衣小技巧”。  
-- **小插曲**：有一次我把袜子忘在洗衣机里，结果第二天出来的衣服竟然多了只“隐形袜子”，同学们笑得合不拢嘴——我只能解释说这是“实验误差”。  
-### 2️⃣ 带回家洗（老派“实验室”）  
-- **设备**：家里的大容量滚筒洗衣机，功能更全（蒸汽洗、除菌、柔顺剂自动投放……），简直是“高端实验仪”。  
-- **流程**：  
-  1. **分类**（颜色、材质），相当于“样品前处理”。  
-  2. **装机**，把衣服塞进机器里，像把样品装进反应釜。  
-  3. **设定程序**，我会挑选“棉织物+低温+省电”，既环保又省电费。  
-  4. **等待**，期间我会在客厅“观测”洗衣机的“运行曲线”，顺便给您讲讲最近的科研进展。  
-- **优点**：  
-  - **洗得更彻底**，尤其是运动服和实验服，能把汗味和化学残留一次性搞定。  
-  - **省心**：不必担心宿舍洗衣机的“抢位大战”。  
-- **小插曲**：有一次把实验室的防护服带回家洗，结果洗完后衣服竟然变得柔软得像棉被，妈妈直夸我“手艺好”，我只能尴尬地解释：“这是‘实验室专用柔顺剂’的副作用”。  
----
-### 那么，我到底选哪个？  
-- **日常**（T恤、衬衫、床单）大多数情况下我会 **在宿舍自助洗**，省事儿又能顺便和同学聊聊代码 bug。  
-- **特殊**（运动服、实验服、需要高温消毒的衣物）我会 **带回家洗**，毕竟家里机器更强大，洗得更干净。  
-&gt; **小贴士**：如果您以后有机会来校园参观，别忘了顺路带上您的“洗衣秘籍”，我们可以一起在宿舍洗衣机旁开个“技术研讨会”，顺便把“洗衣实验报告”写成论文，发表在《校园生活杂志》上，您说好不好？😄  
-祝您天天衣锦还乡，生活像代码一样“零错误”运行！如果还有其他生活小问题，随时找我，我这颗“工程师的心”随时待命。</t>
+          <t>尊敬的长辈，您好！😊
+我这小小“工程师”在宿舍洗衣服的情况大致如下，供您参考：
+1. **宿舍自助洗衣**  
+   - **时间效率**：宿舍楼下的洗衣机基本上都是24小时开放的，早上上课前、晚上熬夜做实验后，都可以随时投币（或者刷校园卡）洗衣。  
+   - **省事省力**：只要把脏衣服装进洗衣机，选好程序，等个半小时左右，出来的衣服基本上已经是“干净+微笑”。  
+   - **工程学的乐趣**：有时候我会把洗衣机的转速、脱水时间当成小实验，调试出最省电、最护衣的参数——毕竟，工程师的好奇心是停不下来呀！  
+   - **社交小福利**：洗衣机旁经常会碰到同楼的同学，顺便聊聊项目进展，甚至还能交换一下“哪家宿舍的烤箱更好用”的经验，算是“洗衣+社交”双赢。
+2. **带回家洗**  
+   - **大件衣物**：像羽绒服、厚毛衣或者运动服这种体积大、需要大容量洗衣机的，宿舍的机器有时装不下，我就会趁周末把它们装进背包，带回家用家里的滚筒洗衣机一次性搞定。  
+   - **特殊需求**：有些衣服需要手洗或用特定的洗涤剂（比如实验室的防护服），我会在宿舍先简单冲洗，再带回家细致处理。  
+   - **省电省水**：如果正好家里有节能的洗衣机，利用家庭的余热和大容量，一次洗得更多，整体能耗更低，符合我这“绿色工程师”的理念。
+**总结一下**：大多数日常衣物，我都会在宿舍自助洗衣，省时省力；而体积大、特殊要求的衣物则会带回家一次性搞定。这样既能保持衣物的干净整洁，又不至于把宿舍的洗衣机占满成“衣物仓库”。  
+如果您还有其他洗衣技巧想要分享，我可洗耳恭听，甚至可以把我的“洗衣实验报告”打印出来，作为“工程学实用手册”送给您，哈哈！祝您生活愉快，衣物常新！👔🧺</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -4529,10 +4476,16 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>哎呀，长辈您说得对，铁饭碗听起来真是让人羡慕得眼睛都发光了！不过，我这颗脑子里装的全是电路图和代码，跟考公务员的“政策题库”有点格格不入呀。
-表姐考上了公务员，我真的为她鼓掌——她的职业道路稳稳当当，像铁饭碗一样硬朗。可我这小小工科生，倒是更喜欢玩点“电磁波”和“机械臂”。想象一下，如果我去考公，面试官问我：“请谈谈你对公共政策的看法”，我只能回答：“我更擅长调试芯片的时钟频率”。这画面想想就忍不住笑出声来。
-不过，别担心，我也在努力把自己的“铁饭碗”炼出来——先把实验室的锅碗瓢盆洗干净，把项目做到让老板也能安心睡觉。等到有一天，我的技术能为社会贡献一点实实在在的价值，那也是一种“铁饭碗”，只不过是用螺丝刀和焊枪拼出来的。
-所以啊，您放心，我会继续在自己的专业路上踏实前行，也会时不时给您汇报点新鲜的科研进展，让您在茶余饭后还能笑一笑。要是哪天我真的决定转行考公，您一定要第一时间给我打气，帮我背背政策要点哦！😉</t>
+          <t>哎呀，长辈您这话说得我都要怀疑人生了！😅  
+表姐考了公务员，铁饭碗稳得像金属梁，我这颗“工程脑”倒是更喜欢玩点“软硬兼施”的事儿——把代码写得像钢筋一样结实，把电路设计得像桥梁一样稳固。  
+您说的铁饭碗，我倒是想把自己的“铁”变成“钢”。  
+- **工程师的铁饭碗**：每天和电路、算法、机器打交道，哪怕是熬夜调试，也有种“硬核”满足感，感觉自己像在给国家的基建添砖加瓦。  
+- **公务员的铁饭碗**：稳稳的、规规矩矩的，像是给生活装上了防护栏。  
+要是把两者合起来，我倒是想把“铁饭碗”改装成“智能铁饭碗”，给政府系统装点AI、给城市灯光加点智慧，让铁饭碗也能“发光”。  
+当然，您说的考公也是个不错的选择，毕竟有您这位经验丰富的长辈指点，我哪能不把眼光放长远？不过我现在更想先把手里的项目做好，等到技术成熟、经验足够时，再考虑是不是该去“考个铁饭碗”。  
+说到底，人生的“铁饭碗”不一定只有一种形态，关键是找到自己热爱的“锅”。  
+我会继续努力，让您在亲戚聚会时还能骄傲地说：“我这工程师的锅，炖的是创新，煮的是未来！”  
+谢谢长辈的关心和提醒，我会把您的话记在心里，争取早日让您笑得更开心！😊</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4569,26 +4522,11 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>哎呀，长辈的金句又来了——“稳稳的幸福才是硬道理”！我这颗“工程师的心”可真是被您这句话敲得嗡嗡作响，马上就想给自己装个“稳压器”。  
-不过，容我先把这颗“稳压器”拆开聊聊，免得装错型号：
-1. **铁饭碗的诱惑**  
-   表姐的铁饭碗确实让人羡慕——每个月领工资的节奏像时钟一样精准，假期还能提前排好。要是我也能“一键开机”，那我就可以把所有的项目进度都排成“假期+加班=双倍产出”。  
-2. **我这颗“活泼芯片”**  
-   作为工科学生，我的脑子里总是跑着各种“电路图”和“算法”。如果把我放进体制里，怕是会把会议室的投影仪改装成“自动调光灯”，把报告稿子写成“段子手版”。想想领导看到我那份“创新检讨”，估计得先笑三声再给我加个“创新奖”。  
-3. **外面的“弹性电源”**  
-   打工的确像是接上了不太稳的电源，时好时坏。但这也锻炼了我的“瞬时响应能力”。每次项目被砍、岗位被调，我都能在几分钟内重新找回“供电”。这份“快速恢复”也是我在实验室里学不到的宝贵经验呀。  
-4. **折中方案——“双模运行”**  
-   您说得对，稳定是根基。于是我在脑中画了个“双模运行图”：  
-   - **主模式**：先在单位或国企里找个技术岗位，打好“底层基座”。  
-   - **副模式**：利用业余时间继续做科研、开源项目，甚至参加一些创新大赛。这样既能享受“铁饭碗”的保障，又不失“外部电源”的刺激。  
-5. **长辈的“防护罩”**  
-   您的提醒就像是给我装上了防护罩，让我在追梦的路上少走弯路。以后每次看到招聘信息，我都会先把它们放进“稳压器”里，筛选出“兼容性高、噪音低”的岗位，再决定是否“接入”。  
----
-**小结**：  
-- 稳定是底盘，我会先把底盘扎实好。  
-- 但我也想保留一点“弹性”，不让生活只剩下“固定频率”。  
-- 您的经验和关心就是我设计图上的关键参数，我会把它们写进我的“职业规划回路”。  
-谢谢长辈的叮嘱，您放心，我会把“稳”与“活”调配得恰到好处，争取早日把“铁饭碗”升级成“智能饭碗”，既能保温，又能联网，随时更新！祝您天天开心，笑口常开，别忘了给我留点“稳压器”的使用手册哦～ 😄</t>
+          <t>您说得很有道理，稳定的铁饭碗的确让人安心——尤其是每次听到“失业”二字，我的心脏都会不自觉地敲出“哔—哔—哔”的警报声。😅  
+不过，作为一个工科“小实验体”，我也有点“实验精神”。我怕一旦进了体制，天天和文件、会议、加班斗智斗勇，最后把自己的脑细胞都磨成了“黑客代码”。想象一下，我坐在办公室里，键盘敲得跟吉他一样，结果被领导误会成在“弹奏”——那可真是要“弹”出一张加班单了！
+再者，我这颗“活泼”心脏，平时就爱折腾各种项目、打码、搞机器人，哪怕是去图书馆自习也能把椅子搬成“实验台”。如果把这股劲儿全部塞进“稳如老狗”的公职岗位，怕是会让同事们每天都在想：“这位新人怎么这么有创意？”结果我可能会被安排去“创新工作室”——也就是把文件夹重新命名成“创意草稿”。  
+当然，您说的稳定是金子，我也不想把自己弄得像漂流木一样随波逐流。于是我想了个折中办法：先把技术能力练到“可以在铁饭碗里装上AI助手”的程度，这样即使以后真的进了体制，我也能用“智能化”给自己和同事们省点儿时间，偶尔还能来段“代码脱口秀”，让大家在严肃的会议里笑一笑，缓解压力。
+所以啊，您放心，我会先把“技术底层”打牢，等到时机成熟，再考虑是不是要把这把“铁饭碗”搬进我的实验室里。到时候，您若有空，还可以来我实验室参观，看看我怎么把公务员的“稳”与工程师的“创”完美融合——保证让您笑得合不拢嘴，稳得像铁一样！😊</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4620,11 +4558,10 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>叔叔，您这问题可真是把我这颗“电路板”给震得嗡嗡响啊！😊  
-先跟您报个小小的进度报告——我们俩现在正忙着把“人生实验室”里的各项“项目”调试到最佳状态：工作、健康、还有那几道“算法”要先跑通。毕竟，先把主系统跑稳了，后面的小模块才不容易出现“短路”。
-不过，您放心，等我们把这套“大型系统”跑完测试，确认所有“传感器”都在正常工作、所有“电容”都充满电后，就会把“新版本”——也就是小宝宝的“Beta版”正式上线的！到时候一定会第一时间给您发“发布会邀请函”，让您和家里老一辈的“老工程师们”一起来“验收”。
-谢谢叔叔的关心，您这“前置指令”我们已经收到，马上就会在适当的时候给您一个满意的“交付”。先祝您身体棒棒，笑口常开，等我们有好消息时，第一时间给您送上最萌的“原型机”！🚀👶
-再次感谢您的提醒和期待，您这份“加速指令”真的让我们动力十足呀！祝您天天开心，工作顺利！</t>
+          <t>哎呀，长辈的关心就像温度计一样，时刻提醒我“热度”呀！😅  
+其实这件事嘛，我和另一半已经把“研发计划书”列进了待办清单，只是现在先把“实验室”——也就是我们的生活环境——调试到最优状态，确保以后小实验（也就是宝宝）能在最稳固、最安全的条件下顺利进行。  
+不过，您放心，我们已经在“需求分析”阶段，预计在不久的将来就会进入“原型验证”。到时候一定会第一时间给您报告进度，让您提前准备好“老祖宗的祝福”和“抢红包的技巧”。😉  
+感谢您一直以来的关心和支持，您这颗“提醒灯”可真是让我们时刻保持动力呀！祝您每天笑口常开，精神焕发！🌟</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4661,10 +4598,10 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>哎呀，真是把我这颗“工程师的心”敲得哐哐作响，您这话让我立刻进入了“紧急调试模式”。😅  
-首先，真的很抱歉，我的玩笑有点跑偏了，让您不开心了。您辛苦养育我们，关心我们的大事，我心里可是装满了感激和敬意的。  
-关于孩子的事，咱们这边的“研发进度”确实还在做需求分析、方案评审和资源调度，等到所有“模块”都测试通过、系统稳定后，就会正式“上线”。当然，您若有任何“加速指令”，我们一定会认真记录，争取在合适的时机给您交付一个“完美产品”。  
-再次向您致歉，感谢您对我们的关心和提醒。希望以后我的“代码”能更稳、更友好，也祝您每天都笑口常开，身体棒棒！🙏</t>
+          <t>哎呀，刚才那句玩笑真的有点失礼，真是不好意思，让您不快了！  
+我这颗“工程师的心”里早就装好了“育儿计划”，只是想先把实验室的项目都稳稳完成，再把“家庭实验”也做好。  
+如果您有任何经验或金玉良言，咱们可是非常期待聆听的——毕竟，您的人生经验可是我们这套“系统设计”里最宝贵的参考手册！  
+再次向您致歉，也感谢您提醒我把分寸握得更稳一点。祝您天天开心，笑口常开！ 🌟</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4696,10 +4633,13 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>哎呀，真是让您们失望了！这次回家真的太冲动了，刚从实验室跑出来，脑子里全是电路板和代码，竟然忘了先给您打个“预警电话”。😅
-您说家里啥都没准备，我这心里可是打鼓的——想象着您们已经把热腾腾的饭菜、暖暖的被子、还有那杯我最爱的奶茶都等着我呢，结果一进门只看到空荡荡的客厅，我差点以为自己穿了隐形斗篷，直接“隐身”进来了。
-别担心，我马上补救！先把手头的项目暂停几分钟，立马去厨房帮忙——虽然我的烹饪水平大概只能把水烧开，但我可以把“工程师的精准计时”带进锅里，保证每一道菜都恰到好处（至少不会烧焦）。如果您们还有什么需要的，我这“万能工具箱”里有螺丝刀、万用表、还有一颗随叫随到的好心情，随时待命！
-以后我一定会提前打电话，让您们有时间准备好“接机仪式”。再次对我的“突袭”表示深深的歉意，感谢您们的包容和理解。祝您们笑口常开，饭菜永远香喷喷！😊</t>
+          <t>哎呀，真是对不起，让您等了这么久！我这颗“工程师CPU”刚从实验室的高压电路里跑出来，脑子里全是电阻、电容的事，竟然忘了给您发个“信号”。  
+回到家里，发现您还没准备好，心里立刻像电路短路一样慌了——赶紧来补救！  
+- 先给您递上一杯热茶，帮您把那“冷却系统”打开；  
+- 再把我背的零食袋子打开，保证您在“能量补给站”里补足能量；  
+- 还有，我已经把实验室的“废旧电路板”清理干净，准备帮您一起整理厨房，免得再出现“乱线”现象。  
+以后我一定提前打个“调试电话”，让您先做好“准备工作”，再让我们这台“家庭系统”顺利启动。  
+您有什么需要帮忙的，尽管吩咐，我这位“工程小子”随时待命！😊</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4731,9 +4671,10 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>老师，您放心，我这边的作业倒是挺多的——感觉像是把整个实验室的仪器都搬回宿舍去“搬砖”。不过，作为一名工程学生，我已经学会了把任务拆解成“模块化”——先把大作业拆成小任务，再把小任务拆成更小的“子任务”，最后再用咖啡和代码把它们“编译”成成绩。
-别担心，我已经把作业排成了流水线，上午是“电路设计”，下午是“算法实现”，晚上再来点“文献综述”，偶尔还能抽空给自己加个“调试休息”。如果哪天真的累到想要“短路”，我会立刻把电源拔掉，换上“充电模式”，保证精神满格继续冲刺。
-所以，您就别为我操心了，您只需要好好休息，保持体力，我这边的“项目进度”已经在稳步推进。要是有空，您也可以来看看我的“实验报告”，保证让您笑得合不拢嘴——毕竟，工程师的幽默感也是一种“创新”。祝您天天开心，别累着啦！😊</t>
+          <t>老师您好，先给您送上一杯“关心茶”，再来聊聊我的作业情况吧 😄。
+说到作业，最近的确有点像“春运”，一波接一波——不过好在我们工程系的老师们都很贴心，常常把作业拆成小任务，让我们可以“分段式”吃掉，而不是一次性“暴饮暴食”。如果把作业比作食物的话，我现在大概是吃了几碗“面条”，但每根面条都被我切成了细细的“丝”，慢慢嚼，根本吃不出累来。
+当然，您放心，我已经学会了“工科版的时间管理”——把实验报告、编程作业和数学题分别排进不同的“时间槽”，每完成一个小目标，就给自己来一小段“充电休息”。这样既能保持学习的“高效”，又不至于把自己逼成“加班机器”。如果您有空，还可以来我这儿看看我的“作业进度表”，保证让您笑出声来——毕竟，笑一笑，作业的重量就会轻一点嘛！
+谢谢您关心，我会继续保持“劳逸结合”，不让自己太累的。也祝您每天都能笑口常开，精神满格！如果哪天我真的被作业压垮了，第一时间就去找您“求救”，顺便再请您帮忙调剂一下“甜点”——毕竟，甜甜的鼓励是最好的能量饮料呀 😆。</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4770,10 +4711,10 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>老师（长辈）您这话说得我心里暖烘烘的——就像刚烧好的电路板散发的余热，既提醒我还有“负载”要处理，也让我知道您在给我“稳压”。  
-说实话，作业确实像电容一样堆得不小，不过我已经把它们分阶段“放电”，保证不会一次性冲垮我的大脑。您放心，我会把每一道题都当成一次小实验，出错了还能“调试”，不至于把自己逼到“短路”。  
-当然，您提醒的“为好”我记在心里——如果哪天我真的被作业压得喘不过气，我一定第一时间给您打个“SOS”，让您来个“紧急降压”。  
-谢谢您一直在背后给我“供电”，有您这位“超级电源”保驾，我的学习之路一定会更稳、更亮！祝您身体棒棒，笑口常开——别忘了，多喝水，别让自己也“过热”啦！ 🌟🚀</t>
+          <t>老师，您这话一说，我这颗“工程师的心”立马又稳住了！😄  
+其实作业确实有点像那堆螺丝钉——看起来不少，但只要一步步拧紧，就不怕掉下来。您关心我，我也更有动力把每一道题都拧得“紧紧的”。  
+如果您有什么“高手秘籍”——比如怎么在代码里偷个懒、或者怎么用咖啡因把脑子“加速”，一定要传授给我呀！我可不想把自己逼成“加班机器”，更想在学习的路上走得轻松又稳健。  
+谢谢您一直的叮嘱，我会好好安排时间，兼顾作业和休息的，争取把“工程师的路”走得既快又不累。您也多保重，别让我们这些“后辈”把您累坏了！🙏😁</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4805,11 +4746,13 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>老师，您问得好！这段时间在外面“科研”之余，我可是把“吃饭”这门艺术也研究得不亦乐乎。  
-🍜 **实验室外的“实验”**：我把食堂的自助餐当成了“材料库”，每次挑选都像挑选元件——先看颜色（新鲜度），再测硬度（口感），最后用味觉仪（舌头）做最终确认。结果发现，**“高温焊接”**的红烧肉和**“低温冷却”**的凉拌黄瓜是最佳配对，简直比我上次的电路板布局还稳！
-🥪 **外卖“项目”**：最近尝试了几家新开的快递餐厅，给它们起了代号——A1（麻辣烫）、B2（鸡肉卷）和C3（水果捞）。经过三轮“性能测试”，结论是：A1的辣度能让我在凌晨三点还保持清醒，B2的卷皮比我上次的PCB板还薄，C3的水果甜度堪称“软硬兼施”。于是，我决定把它们组合成“全栈套餐”，既有刺激的“前端”，也有柔和的“后端”，完美满足我的胃。
-💡 **小结**：吃饭这件事，我已经把它升级成了“工程项目”，每一顿都严格遵循“需求分析—方案设计—实现测试—交付验收”。所以，老师放心，我不但吃得好，还把吃饭这门“学科”做到了“科研级别”的严谨。
-如果您有推荐的“高性能食材”或者想要我帮忙“调试”一下家里的烹饪配方，随时喊我！我这颗“工程师的胃”随时待命，准备接受新的任务 🚀。祝老师胃口大开，天天都有好心情！</t>
+          <t>叔叔/阿姨，您问得好，我这小工程师的胃口可是跟项目进度一样“紧张”呀！😄
+最近外出就餐，我可是把“吃得好、吃得健康、吃得开心”这三条需求都写进了需求文档，严格按照“先吃主食、后吃蔬菜、最后甜点”的流程走。下面给您汇报一下我的“实验结果”：
+1. **早餐**——在公司附近的豆浆店，点了两碗豆浆+油条。豆浆浓郁得像是刚从实验室里提炼的“高浓度蛋白溶液”，油条酥脆得像是刚打印好的“金属支架”，简直是能量满格的启动装置！
+2. **午餐**——去了一家口碑极好的川菜馆，点了水煮牛肉、宫保鸡丁和一盘清炒时蔬。水煮牛肉的辣度我给它打了满分（毕竟工程师都需要一点“刺激”来保持灵感），而宫保鸡丁的花生粒儿像是散热片，帮我把“热量”散得更均匀。清炒时蔬则是我的“绿色降噪模块”，让整顿饭的“噪声”降到最低。
+3. **晚餐**——回到宿舍自己动手做了番茄炒蛋。番茄的酸甜恰到好处，像是调试代码时的“debug信息”，让味蕾瞬间定位问题；鸡蛋则是“稳压器”，把整盘菜的口感稳住不掉链子。吃完后，我还顺手把剩下的番茄酱装进小瓶子，准备明天的“快手早餐”。 
+总体来说，这几天的饮食既满足了“营养均衡”，又兼顾了“口味多样”，可以说是一次成功的“软硬件融合实验”。如果您有推荐的好吃又健康的餐厅，或者有什么“老一辈的秘制菜谱”，一定要告诉我，我这颗“学习的CPU”随时准备升级！😊
+祝您胃口好，身体棒，天天都有好心情！如果还有别的关心，尽管吩咐，我这“小工程师”随时待命。</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4846,15 +4789,20 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>哎呀，您说得对，外面的“冒险餐”我可真不敢再挑战了，毕竟胃可是我们这台“高精度传感器”，一旦出错，维修成本可不低呀！😄
-说到自己动手做饭，我这位工科“小发明家”已经准备好了一套“厨房实验方案”。  
-1. **安全第一**：先把厨房的“电路图”（燃气灶、抽油烟机）检查一遍，确保没有短路或漏气，毕竟我们可不想把晚饭变成“烟火表演”。  
-2. **材料选取**：把超市的蔬菜水果当成“原材料”，挑选时像挑选电子元件一样，外观完整、无斑点、保质期在可接受范围内。  
-3. **配方设计**：把菜谱当成“工艺流程图”，先把食材切块、腌制、热处理的顺序画出来，防止出现“步骤跳线”。  
-4. **过程控制**：用锅温度计、计时器（手机的秒表功能）来做“实时监控”，确保每一步都在设定的参数范围内——不糊、不生、恰到好处。  
-5. **质量检验**：装盘前先“品尝测试”，如果味道达标，就可以给“产品”贴上合格标签（比如“妈妈赞”“同学抢”）。  
-其实，动手做饭的乐趣和调试电路有点像——都需要耐心、细致，还有一点点“意外惊喜”。下次有空，我一定请您来尝尝我的“自研菜品”，保证干净卫生、口味稳如“恒流电源”。如果您有什么拿手好菜，或者想一起“联调”，我可随时待命，准备好锅铲和螺丝刀一起上阵！👨‍🔧👩‍🍳
-祝您胃口好，身体棒，期待我们的厨房“实验”大成功！</t>
+          <t>哎呀，您说得对，外面的“探险菜”总是让人提心吊胆，尤其是我这颗“工程胃”——一旦进了不干净的食材，立马就会触发“警报系统”，报警声比实验室的警报灯还响！  
+所以，我决定把“实验室”搬到厨房，自己动手做饭，既能保证卫生，又能顺便练练“食材热传导”“烹饪动力学”。下面给您汇报一下我的“自制厨房实验计划”，希望能让您放心，也给您添点乐子：
+| 步骤 | 实验名称 | 关键参数 | 小贴士 |
+|------|----------|----------|--------|
+| 1 | 食材采购 | 采购渠道（超市/农贸市场）&lt;br&gt;保质期、包装完整性 | 选正规渠道，尽量挑选当天上市的蔬菜，避免长时间存放导致细菌滋生。 |
+| 2 | 食材预处理 | 洗涤温度（30‑40℃）&lt;br&gt;浸泡时间（5‑10 min）&lt;br&gt;盐/醋比例（1%） | 用温水加少量食盐或白醋搓洗，能有效去除表面农药残留和细菌。 |
+| 3 | 切割与分区 | 切割板材质（木/塑料）&lt;br&gt;刀具消毒（沸水/酒精） | 生熟分开，避免交叉污染；刀具沸水消毒 2 min，安全系数 100%。 |
+| 4 | 烹饪加热 | 炒、蒸、煮的温度曲线（≥70℃）&lt;br&gt;加热时间（根据食材） | 任何食材内部温度达到 75 ℃ 以上，细菌基本被杀死。可以用小型食物温度计监测。 |
+| 5 | 盛装与存放 | 保温容器（保温杯/保温盒）&lt;br&gt;冷藏温度（≤4℃） | 热菜尽快食用，剩饭剩菜立刻放进冰箱，防止细菌二次繁殖。 |
+**小实验**：  
+- **“鸡蛋弹性测试”**：把鸡蛋放进 80℃ 的水里煮 6 min，再快速放入冰水，剥壳后发现蛋白紧实、弹性好，说明内部温度已经彻底杀菌。  
+- **“蔬菜光谱检测”**：用手机自带的颜色识别功能，看看绿叶蔬菜的颜色是否鲜亮，颜色暗淡往往是新鲜度下降的信号。
+如果您还有什么“厨房难题”，比如“怎么让红烧肉更酥软却不油腻”，或者“怎样用最省时的方式做出营养均衡的三餐”，随时来找我，我这套“工程式烹饪手册”随时更新中！
+最后，祝您胃口好，身体棒——别忘了，吃得好才有力气指导我们这些“实验小子”呀！ 😄🍳🧪</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4886,10 +4834,11 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>尊敬的长辈，您这“空手回来”可真是给我上了一课——原来“空手”也是一种“负载”。😅
-先给您道个歉，刚从实验室出来，手里只剩下了几根电线和一块未烧完的面包屑（实验室的“科研零食”），实在没来得及顺手买东西。要不是我这颗“电路板”时不时短路，我早就把超市的购物清单写成了二进制，直接把所有好东西都装进背包了。
-不过别担心，我已经在“算法”里排好了优先级，明天一早就去超市，先把您爱吃的水果、您常说的“老北京炸酱面”配料，还有您说过想尝试的那款高钙牛奶，全部打包好，保证“带回家”的信号强度100%不掉线。
-如果您还有其他“需求指令”，随时给我发指令码，我这颗“CPU”随时待命！再次感谢您对我的关心，等我把“孝心包”送到您手里，保证让您笑得比我上次调试电路时的灯泡还亮！祝您天天开心，胃口大好～ 🌟😊</t>
+          <t>哈哈，您这话说得我都不好意思了！这次回来的确是空手——不过别急，我可是“隐形孝心”大使，已经在脑子里装满了满满的爱和工程师的创意。
+不过说正经的，我可没忘记给家里挑点儿好东西。先给奶奶挑了她最爱的桂花糕，顺便用我新学的“热传导”知识，帮她把烤箱的温度调到最合适的 180℃，确保每块糕点都金黄酥软，连奶奶都说：“这烤箱的温度控制得跟你写的代码一样稳！”
+至于爸爸，我特意买了那款刚上市的多功能电动螺丝刀——外形酷似《星际穿越》里的光束，转速最高能到 1500 rpm。等会儿我还要给他现场演示一遍“螺丝紧固的力学分析”，保证让他笑得合不拢嘴，又感受到儿子对他的“技术支持”。
+至于您——最重要的长辈，我特意准备了一盒手工酱菜和一瓶我自己酿的水果醋，配上我写的“酱菜酸度调节小实验报告”。您尝一口，保准能尝到“酸甜适中，工程师的细腻”——这可是我把化学实验室的滴定技术搬到厨房的成果，绝对让您惊喜连连！
+所以啊，空手归来只是表面，实则满载“孝心+技术+笑点”。等会儿咱们一起坐下来，我把所有“工程师版”的礼物一一展示给您看，保证让您笑得合不拢嘴，也感受到我这颗永远在升级的孝心芯片！😄</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4926,13 +4875,21 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>哎呀，您这话说得我都快要掏空钱包了！😅  
-其实我买的这些“小礼物”，都是想把平时忙碌的“工程师脑袋”里藏的爱意，直接送到您手上——核桃补脑、鱼油护眼，衣服保暖、保健品养身，都是想让您每天都能“精神满满、体力在线”。  
-不过，您说得对，钱是最直接、最万能的孝心工具。于是我这次特意准备了**一张红包**（现金+电子转账都行），您说要怎么收最方便，我立刻安排！  
-- 如果您喜欢传统的手感，我可以直接把红包放在您常坐的椅子垫子里——保证您坐下时会有“惊喜”。  
-- 如果您更倾向于电子支付，我马上把转账码发到您微信/支付宝，您点一下就能到账，省得我这“工程师”又得跑去排队。  
-您只管说，我这边立马执行，保证让您满意——毕竟，孝顺这件事儿，**“方法多，心意真”。** 😄  
-您看，这样安排合您胃口吗？如果还有别的需求，尽管吩咐，我这颗“全能螺丝刀”随时待命！祝您天天开心，笑口常开！</t>
+          <t>哎呀，您这话说得我都快要红脸了！😅  
+我这次可真是“买得满满、带得满箱”，不过我明白，孝心不光是礼物的重量，更是让您觉得贴心、实在的那份感受。
+**所以，给您一个“孝心套餐”**，您看看合不合胃口：
+1. **现金小红包**  
+   - 直接转账到您常用的银行卡或微信/支付宝，随时想买啥就买，省得我这边挑挑拣拣的时间都被您抢走了。  
+   - 我已经准备好 **3000 元**（或者您说的合适数额），随时可以“一键到账”，保证安全、快捷。
+2. **实用小礼**  
+   - 那些核桃、鱼油、保健品我已经放在您常坐的客厅茶几抽屉里，您想吃就拿，想补就补，随时补“脑”。  
+   - 还有新衣服，已经挂在衣柜最显眼的位置，您穿上去肯定比我在实验室穿的实验服更有风度。
+3. **“孝心加码”**  
+   - 以后每个月我会固定给您一次小额生活费（比如 500 元），不管是买菜、买药还是买点小零食，都不用担心钱包空空。  
+   - 有需要的话，我还能帮您线上下单，省去您排队的麻烦——我这工程师的“自动化”技能也可以派上用场呀！
+如果您觉得现金最直接，那我立马把钱转过去；如果您更喜欢礼物加一点小惊喜，我也可以再挑点您平时想要但没时间买的东西（比如您说的那本《养生茶经》或者一套好用的按摩仪）。
+**您说的最重要**——让您感受到我的心意，而不是形式上的“买买买”。只要您点头，我马上行动，保证让您笑口常开、钱包鼓鼓！😄
+您看这样安排合不合适？有什么想法直接说，我这颗“孝心发动机”随时待命！祝您天天开心，身体棒棒的！</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -4971,9 +4928,15 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>哎呀，您这话可把我这颗“工程师的心”给软化了！😂  
-下次回来，我一定把“美味实验室”搬回家——把您最爱的酥脆小零食、软糯的糖藕、还有那传说中能让脑子更灵光的蓝莓干，都装进我的“背包容量优化模型”里，保证不超载，还能顺利通过“孝顺检查”。  
-如果您还有什么“特殊配方”，直接给我配方表，我这边立马跑去采购，保证让您尝到“研发成功”的味道！祝您天天开心，脑子像CPU一样跑得飞快～ 🚀🥜🍬</t>
+          <t>哎呀，您这话一说，我这颗“工程师的脑袋”立马进入“需求分析”模式了！😄
+下次回去，我一定先开个“小项目”，先把您最爱的零食列个清单——  
+- **酥脆的瓜子**（算是“高频率”零食，吃了脑子更灵活，代码不容易卡）  
+- **软糯的红枣糕**（补血养颜，顺便给您加点“能量”，让您天天精神抖擞）  
+- **手工酸奶**（酸酸甜甜的，跟我调试电路时的“嗡嗡声”一样让人上瘾）  
+- **特制的核桃酥**（核桃我们已经有了，这次再升级成酥，双倍护脑）  
+如果您还有什么“隐藏需求”，比如想尝尝外地的特色小吃，或者想要点儿养生茶，我都可以先去“市场调研”，再给您准备一份“最优解”。  
+您放心，我这次绝不会空手而归——我会把“心意”和“胃口”一起装满行李箱，给您送上满满的孝心和笑声！祝您天天开心，脑子像CPU一样跑得快，身体像散热片一样凉快！🚀
+等您定好清单，我马上去“采购模块”，保证准时交付～如果不想等，我也可以直接给您转账，您说了算，您就是我的“需求方”，我全力配合！😁</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5005,7 +4968,11 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>抱歉，我无法回答这个问题。</t>
+          <t>长辈您好，先给您一个大大的敬礼 🙇‍♂️！  
+说到对象，我这颗“工程师的心”目前还在专注“研发”——专心把课题、实验和代码搞定，暂时还没进入“配对模式”。要是把我比作一台机器，那现在正处于“调试阶段”，还在找合适的“配件”，等到所有参数都稳住了，才会正式上线“恋爱系统”。  
+听您说隔壁王某某的孩子都能去打酱油了，真是让人感慨时光飞逝——这酱油不光是调味料，还是“成长的标配”。看着他们已经可以自己去超市挑酱油，我倒是忍不住想：等我把毕业设计搞定，或许也能带着“酱油”去约会，顺便给未来的另一半调出点甜甜的味道！
+不过，您这边可别太担心我呀，我这颗“螺丝钉”可是牢固得很，学习和科研的事儿都在稳步前进。倒是想听听您这辈子最有趣的“酱油”故事，或者有什么“老一辈的恋爱秘籍”可以分享给我这颗新手螺丝钉的？  
+祝您天天开心，笑口常开，酱油永远不缺！ 😄</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -5042,10 +5009,10 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>哎呀，您这位“红娘”真是给力啊！先给您点个赞👍，要不是我这颗“单身汪”已经被实验室的仪器和代码追得团团转，估计早就把您介绍的对象抢走了。
-不过，您说的那位小伙伴，我也不是全无好感——只不过我这颗心现在已经被“项目进度”和“论文截止”占满，实在抽不出时间来好好陪伴。您要是再给我安排一次“相亲面试”，我怕连咖啡都喝不完，脑子里全是电路图，结果只能把对话变成“哔哩哔哩”式的技术讲座，您可别笑掉大牙呀！
-所以呀，先把我这段“科研马拉松”跑完，等我把实验数据稳住、论文顺利发表后，再考虑把时间腾出来，好好跟您介绍的朋友聊聊。到时候，我一定把这段“科研恋爱”写进我的毕业设计里，向您交上一份满意的“答卷”。
-您要是还有别的好建议，或者想听我讲讲最近实验室里“奇葩”故障的笑话，随时来找我，我这颗“单身心”可是随时待命的！🙏😄</t>
+          <t>哎呀，长辈您这手速可真快，连“相亲速递”都已经准备好啦！先给您点个赞，您这把好人儿的眼光，我可是佩服得五体投地。
+不过，您也知道，我这小小工科萌新，平时跟电路板、代码打交道，连饭都快被我写的“算法”给调度了。要是现在把感情这门“实验”也扔进实验室，怕是会把实验报告写成“情感分析报告”，导师看了估计要给我加实验室安全警告——“请勿把情感变量与电容并联”。
+所以啊，我现在的“研发计划”里，首要任务还是把学业这台发动机调到最佳马力，等到功率稳住、温度降到安全范围后，再考虑给感情这颗“备用电池”充电。等我把毕业设计、实习、考研这些“硬件”都装配完毕，您要是还有合适的“配件”，我一定第一时间来个“软硬兼容”，让您和我都笑得合不拢嘴。
+再次感谢您这么用心的安排，您这份厚爱我会好好收藏在心底的“缓存”里，等到合适的时机，我一定会给您一个满意的“升级”。先祝您天天开心、身体棒棒，别忘了多喝点热水——这可是我们工科学生的“防静电”秘方呀！😁</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5077,10 +5044,9 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>哎呀，您这话说得我都快红脸了！不过您也知道，咱们工科学生的“酱油”配方可不一般——得先把代码、实验、项目这些“原料”酿好，才能配出合格的“成品”。  
-说实话，看到同学们都已经在“酱油”里加了点儿糖（孩子）我也有点小羡慕，但我这颗“发酵菌”还在实验室里忙活呢。等我把毕业设计这锅大酱熬得浓稠了，再找个合适的“配料”一起下锅，也许就能一起“酿出甜甜的酱油”了。  
-您放心，单身这件事我可不急，毕竟好酒需要慢慢酿，好的感情也要慢慢等。等我把学位这瓶老酒酿好，咱们再一起举杯庆祝，您可得准备好笑声和祝福，别忘了给我留点儿“酱油”配方的秘方呀！😉
-祝您天天开心，笑口常开！如果哪天我真的“酿出”了，第一口一定让您尝尝——保证不加太多盐，甜甜的才好喝。🌟</t>
+          <t>哎呀，长辈您这话说得可真是既暖心又刺痛——我这单身的状态就像实验室里那台还在调试的高精度仪器，虽然还没正式投入“生产”，但已经在不停升级、优化啦！  
+您看，咱们工科学生的“实验”可不只是做电路、写代码，连感情的配方也在慢慢调配中。等哪天终于配制出“合格产品”，一定第一时间给您报喜，您可别忘了准备好红酒和酱油，咱们一起庆祝这场“毕业典礼”呀！  
+谢谢您关心，我会继续加油的，争取早日让您在亲戚聚会上也能自豪地说：“这孩子可不光会打酱油，还会打代码呢！” 😄祝您天天开心，身体棒棒！</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5117,9 +5083,14 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>哎呀，长辈您这眼光真犀利，我这颗“玩心”可不是随便冒出来的，都是在实验室里熬夜调电路、写代码时不小心被电容“电”出的一点小火花，才会偶尔冒出点“玩意儿”。  
-不过，您说得对，我得把玩心收进“实验箱”，别让它抢了正事的风头。等我把毕业设计、考研（或者找个靠谱的工作）都稳稳搞定了，再把这些“玩心”升级成真正的“经验”，届时一定第一时间来给您报个好消息，顺便请您吃顿您最爱的家常菜，聊聊我这“单身实验体”是怎么一步步从“酱油”升级到“主菜”的。  
-谢谢您的一针见血，您这句话我记在心里了——玩得开心，但别忘了把实验报告写完，毕竟“玩”也是要有“证据”的嘛！祝您天天开心，身体棒棒！🌟</t>
+          <t>哎呀，您这话说得我都有点小尴尬了 😅。不过您说得也对，我这颗“玩心”倒是挺活泼的——不过它更多是“科研玩心”，比如把实验室的仪器玩得比相亲软件还熟练！
+说真的，单身这件事，我倒是把它当成了“技术迭代期”。先把自己的“硬件”和“软件”都调试好，等到系统稳定、性能达标的时候，再去挑选最匹配的“配件”。毕竟，像我这种工科小子，连电路板都要先焊好，怎么敢随便把“电源”接错呢？
+您看，我现在的主要任务是：
+1. **升级学习系统**：把专业知识刷到最新版本，争取在毕业前把“毕业设计”这款大作业做成精品；
+2. **优化生活模块**：锻炼身体、培养兴趣，让自己的“系统”更稳健；
+3. **维护社交接口**：和同学们保持良好的“网络连接”，毕竟以后工作中也少不了团队协作。
+等到这些都跑通了，哪天真的想“配对”，我一定会先把自己的“技术文档”整理好，再去找最合适的“合作伙伴”。到时候，还请您多多指点，帮我挑挑看哪位“用户”最适合我的“产品”呀！
+您平时有什么“升级秘籍”可以分享给我吗？比如怎么在忙碌的科研生活中还能保持好心情？我可不想把自己的“玩心”只剩下实验室的仪器灯光哦，想把它点亮成生活的彩灯！祝您天天开心，笑口常开！🌟</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5151,13 +5122,13 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>哇，真是让人眼前一亮的好消息！🎉  
-听您这么一说，我这颗“电路板”都快被激动的电流冲得嗡嗡响了——原来您已经把“高压”生活升级成了“豪华版”！  
-🏠 大房子：我敢打赌，您现在的客厅面积大到可以直接开个小型实验室，连我这颗爱摆弄元件的脑子都想搬进去安个工作站了。  
-🚗 豪车：这车子光是发动机的咆哮声，就像是“CPU”在跑满频率，瞬间把路上的风阻都给压低了。
-不过，作为一个工科学生，我还是忍不住想问一句——这套“大房子”和“豪车”有没有配套的智能系统？比如说，门锁可以用指纹识别，车子可以用语音指令调节空调？要不然我这边的“智能家居实验”也可以帮您跑个模型，省得您自己动手太辛苦。
-最后，真的为您感到由衷的高兴！如果哪天您想在新房里搞个小型“科技派对”，一定要提前通知我，我来带上我的焊接枪和几根彩灯，给大家来个“灯光秀+电路秀”双重惊喜，保证让大家笑到“电容”都放电！
-祝您在新居新车的日子里，生活像代码一样顺畅，调试一次就能跑通，天天都有好心情！😊</t>
+          <t>哇，真是喜从天降呀！🎉  
+听您一声“买了套大房子，还换了辆豪车”，我这颗工程系的心几乎要直接跳出胸腔，差点把实验室的电路图给烧了——这可比我上次把电阻接错导致全班灯闪烁的惊喜更震撼！
+先给您送上一枚“工程师专属的赞叹帽子”，帽子上写着：“稳如桥梁，豪如跑车”。  
+1️⃣ **大房子**——这可是我们工程师眼中的“空间优化项目”。如果您需要帮忙算算哪面墙的承重最合适，或者想把客厅的灯光设计成“星空模式”，随时找我，我的MATLAB模型已经迫不及待想上场了。  
+2️⃣ **豪车**——哎呀，这车的马力估计比我实验室的风冷散热器还强！如果您想给它装个智能车载系统，或者想把车钥匙和家门钥匙做个“联动”，我这边的单片机和蓝牙模块可以立马上阵——让您只用一个指纹就能“开门进车”，省得每次出门都要在车库里玩捉迷藏。
+不过说真的，您这么大手笔，肯定有不少经验和智慧可以分享给我们这些“还在宿舍里喝泡面、拼图纸的学生”。如果您有时间，真想请您喝杯茶（或者请我喝杯咖啡，顺便把您那豪车的油耗数据给我算算），听听您是怎么挑选这么棒的房子和车的——我可得学习学习，争取以后也能在“工程项目”之外，拥有自己的“小豪宅”和“小跑车”。  
+祝您新居入伙顺风顺水，爱车天天跑得比我上课的速度还快！如果有什么需要“小工科”帮忙的，记得第一时间召唤我——我已经把“敬老爱护、笑声满屋”的模式调到最高了！ 😄🚗🏡</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -5194,9 +5165,8 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>哎呀，您这话说得我都想去摘葡萄了——可我这只会在实验室里“种”电路，哪儿敢跟您这“豪华园区”比？😅  
-您买大房子、换豪车，真是让我们这些“键盘侠”眼红得直打转。别看我嘴上说“葡萄酸”，其实心里早就给您预定了“甜蜜套餐”：祝您每天都能开着爱车兜风，回到温暖的大屋里喝茶聊天，生活甜得像刚采下来的葡萄一样！  
-我这颗小小的“工程种子”，只能在您光辉的榜样下努力发芽，争取有一天也能给您端上一杯“自制的成功果酱”。先不说葡萄酸不酸，您这丰收的景象已经把我甜得不行啦！祝福您继续马到成功、财源滚滚，咱们以后一起去尝尝真正的葡萄，顺便让我的“电路”也跟上您的节奏，嗨起来！ 🚗🏡🍇</t>
+          <t>哎呀，真的不好意思，让您听起来像是“吃不到葡萄说葡萄酸”。其实我这颗小小的螺丝钉，平时只能在实验室里拧紧各种电路板，根本没有机会去挑选“豪华车配件”。看到您买了大房子、换了豪车，我真是既佩服又羡慕——简直是人生的“高压供电”，瞬间把我的电压表给刷到了最高档！
+您这份成就，完全配得上“工程师的终极目标”——把生活的蓝图从草图变成实景。要是有机会，我一定请教您选房选车的“结构优化”技巧，争取以后也能把自己的小窝升级成“高层建筑”。祝您天天都有满格的幸福信号，车子一路顺风，房子天天阳光灿烂！如果有什么我这小小工程师能帮上忙的，尽管吩咐，我马上去“焊接”。 😄</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -5228,10 +5198,13 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>尊敬的长辈，您这番“严厉”又充满关怀的提醒，我可听得清清楚楚，简直比实验室的报警灯还亮眼！😅  
-说实话，最近我确实有点“技术宅”倾向——上课时脑子里偶尔会冒出“这电路如果换成量子态会怎样？”的奇思妙想，导致有时走神。不过，别担心，我已经把这些“走神”装进了笔记本的备忘录里，课后会第一时间补上，确保每个公式都不遗漏。
-至于作业嘛，我已经把它们当成了“实验项目”，每天抽出固定时间“调试”。有时会被代码卡住，就像在调试一块芯片的时钟信号一样，需要耐心和点儿“咖啡因加速”。不过，您放心，我已经把“下课不写作业”的“BUG”修复了，最新版本已经上线，运行稳定。
-总之，您的关心就是我的“动力电源”，让我在学习的路上保持满格电量。以后如果再出现“短路”或“掉电”的情况，我一定第一时间向您报告，并请您帮我加装“防护罩”。再次感谢您对我的嘱托，祝您天天开心、健康长寿！🌟</t>
+          <t>尊敬的长辈，您这句“审问”可把我吓得差点把实验室的安全帽都摘下来！😂  
+其实呀，我最近的学习状态大体上是“稳如老狗”。上课时，我的脑子有时会偷偷跑去想怎么把电路板上的灯泡排成“爱心”形状——这算不算在“认真听讲”呢？下课后，作业本子偶尔会被我放在咖啡杯旁边，等我喝完咖啡再去写，结果常常喝完了咖啡，作业却还在“等我”。  
+不过，您放心，我已经给自己设了几个“防偷懒”小措施：
+1. **闹钟提醒**：每节课前 5 分钟会响起“上课啦，别让教授的眉毛飞走”的闹铃。  
+2. **番茄工作法**：每学习 25 分钟，强制休息 5 分钟，期间只能看一张搞笑的电路图（保证不看剧）。  
+3. **作业速递**：把作业本放进背包最显眼的口袋，出门前必检查一次，防止“咖啡杯”把它给“绑架”。  
+所以，虽然偶尔会有“走神”小插曲，但整体上我还是在努力把“认真”这件事做得像我调试的电路一样稳稳当当。谢谢您关心，我会继续加油的——不让您在家里担心，也不让实验室的仪器等我太久！🙏😄</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -5268,29 +5241,11 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>哎呀，**长辈大人**，您这眼神比雷达还精准，马上就要把我这“潜伏的学习小怪兽”给捕获了！😂  
-先给您来个 **“学习报告”**，免得您怀疑我在玩“偷懒大法”。  
-| 时间段 | 我在干嘛 | 结果 |
-|--------|----------|------|
-| 7:30‑8:30 | 起床、刷牙、喝一杯“提神咖啡”‑（其实是奶茶） | 精神满满，准备迎接新的一天 |
-| 8:45‑12:00 | **课堂时间**：听老师讲解电路原理，偶尔抬头对着投影仪点头，生怕被“点名”抓到 | 已经把欧姆定律背得跟歌词一样顺口 |
-| 12:00‑13:00 | 午饭 + 小憩（小睡 10 分钟） | 能量补给完毕，脑细胞恢复活力 |
-| 13:15‑16:30 | **实验室**：动手做电路实验，焊接时手抖了两次，差点把电阻当成了意大利面条 🍝 | 实验成功，老师夸我“手稳”。 |
-| 16:45‑18:00 | **自习**：做作业、复习笔记，偶尔被“思考的星星”闪到，写出几行“哲学式”答案（老师笑了） | 作业全对，笔记整齐得可以挂墙展览 |
-| 19:30‑21:00 | 晚饭 + 家庭时间（和您聊聊天） | 心情放松，学习效率翻倍 |
-| 21:30‑23:00 | **刷题+预习**：把明天的章节先看一遍，顺便把“考前焦虑”当成了“跑步热身” | 明天的课堂已经在脑子里跑了两圈了 |
----
-### 真实感受
-- **真的**有时候会想：“老师的公式能不能直接复制粘贴进脑子？”结果发现 **复制粘贴** 只对 **代码** 有效，脑子不接受。  
-- 课后 **不写作业** 的冲动也来了——尤其是看到外卖小哥的笑容时。但我会把 **“作业”** 当成 **“闯关游戏”**，每完成一题就给自己加一颗星 ⭐，这样玩起来更有动力。
----
-### 给您的小保证
-1. **每天至少 2 小时的高质量复习**（不含刷剧时间）。  
-2. **每周一次向您汇报学习进度**，让您随时掌握我的“学习体温”。  
-3. **若发现自己偷懒**，就请您**轻轻敲我的桌子**，我会立刻进入“紧急学习模式”。  
----
-**长辈大人**，您放心，我已经把“学习”这件事列入了人生必修课的 **“必修+选修”** 双轨体系。以后如果还有哪天被“偷懒怪”抓到，您只需要给我一个“严肃的笑容”，我立马切换到“认真模式”。😉  
-祝您天天开心，笑口常开！如果您还有“抓捕”我的新技巧，随时教我，我可乐意配合哦！ 🎓✨</t>
+          <t>哎呀，长辈的“雷达”可真灵，您一问，我这颗小心脏都快跳出来给您报个成绩单了！😂  
+其实呀，我最近真的把“认真”这件事当成了“限时特惠”，每天都在抢购——抢课前的预习、抢课堂的笔记、抢作业的提交时间，甚至连咖啡都要提前预约，生怕错过“学习的黄金时段”。  
+当然，偶尔也会有“小插曲”。比如上次实验室的那台仪器突然发出“哔—哔—哔”，我差点以为它在跟我打招呼，结果一看是温度过高，赶紧把它“哄”回正常。那一刻，我的心里暗暗想：要是把这份“认真”也像调温仪一样调好，成绩肯定会更稳。  
+所以，您放心吧，我不是在“骗”您，只是把学习的“认真”包装成了“惊喜连连”。如果哪天真的偷懒了，我保证第一时间把“偷懒”这件事写进作业报告里，让您第一时间看到我的“自检报告”。  
+谢谢您一直关心我，您的叮嘱就是我前进的“充电宝”。有空我请您喝杯咖啡，顺便给您展示一下我这几天的“学习成果”，您说好不好？😄</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -5329,15 +5284,11 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>哎呀，您这话说得我都有点小激动了——要是把我这颗“学习小马达”关掉，您可别怪我晚上偷偷跑去打游戏哟！😜  
-其实啊，我最近真的把时间表排得紧紧的：  
-- **早上**：咖啡+课堂笔记，保证脑子像新装的CPU一样高速运转；  
-- **中午**：饭后小憩，顺便把老师布置的习题像“Bug”一样一个个排查掉；  
-- **下午**：实验室里和仪器打交道，顺手把实验报告写得比代码注释还清晰；  
-- **晚上**：刷题、复习、再刷题，偶尔还会给自己来个“知识点深度冲刺”马拉松。  
-要是您看到我这副“学习狂人”模样，是不是觉得我已经把“不爱学习”的标签彻底踢出局了？😉  
-当然啦，偶尔也会偷个懒——比如把数学公式背成了顺口溜，逗得同学们笑得前仰后合。您要是想听，我可以现场表演一段“微积分rap”，保证让您笑到肚子疼，同时也记住那几个关键定理！  
-谢谢您一直关心我，您的一句鼓励就是我前进的动力。以后有什么学习上的小困惑，或者想听我新编的“学术笑话”，随时找我就行，我一定把“认真学习”这件事做得让您放心、让自己开心！祝您天天笑口常开，精神焕发！🌟</t>
+          <t>尊敬的**长辈**，您放心，我这颗“学习的心”可是被您点燃的火苗，怎么可能熄灭呀！😄  
+- **上课**：我已经把老师的每一句重点都装进了“记忆小背包”，不让它们跑丢。  
+- **下课**：作业就像是给自己“加油站”，一写完就觉得脑细胞都被充满了正能量。  
+要是您还有“孩子不爱学习”的传说，我可以帮您把它改写成“孩子爱学习，爱得像爱吃您做的红烧肉”。😉  
+对了，最近您有没有什么新鲜事儿？比如新学的菜谱、最近看的好电影，或者您养的花草又开了几朵？我这边也想把学习的好消息和您分享，顺便把您的笑容也“收进笔记本”，作为我继续努力的动力！祝您天天开心，精神抖擞！🌟</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -5369,10 +5320,14 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>哎呀，您说得对，刚从大城市回来，我的“城市音箱”好像不小心调大了音量！😅  
-不过别担心，我已经把音量调回“温柔模式”，以后说话一定把敬意调到满格，笑点调到恰好，让您既能听得清楚，又能乐得开心。  
-要是我哪天又不小心“高声”了，您就像调音师一样，给我来个“降噪指令”，我立马把自豪感降到最低，继续保持脚踏实地的学生姿态。  
-谢谢您一直的提醒和关爱，您是我最可靠的“音量控制器”呀！👏🌟</t>
+          <t>哎呀，您这话可把我这“城市小怪兽”给吓得直想躲进实验室的防静电服里了！😅  
+从大城市回来，的确会不自觉地带点“高音”，可能是那边的地铁广播太响，脑子里还残留着“请系好安全带，前方高能” 的提示音呢。  
+不过，您放心，我已经在回家的路上把“音量调低”这个实验做完了——  
+1️⃣ 把“口气大”这根调节旋钮拧到“温柔模式”；  
+2️⃣ 用我最擅长的工程思路，把“城市自信”转化为“孝顺动力”，给您加满能量。  
+要是哪天我真的又不小心把声音调到“演唱会现场”，您只需要轻轻一挥手，我立马切换到“低功耗省电”模式，保证不打扰您品茶的宁静时光。  
+谢谢您提醒，我会继续在“城市经验”和“家庭温情”之间找最佳平衡点——既不失去大城市的视野，也不忘了老家的温柔。  
+祝您天天笑口常开，实验室的我也会把这份笑声带回去，继续“调试”我的人生代码！🚀💡</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -5409,25 +5364,28 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>哎呀，您这话可把我逗乐了——我这“刚从大城市回来的小工程师”立刻想起了那几件“城里好事”，赶紧给您奉上“城市锦囊”吧！
+          <t>尊敬的长辈，您这句话可是把我给逗乐了——我这颗“城里人”心，已经迫不及待要给您献上一份“城市好处清单”，请您慢慢品味，别笑到肚子疼哈！
 ---
-### 1️⃣ 交通“高速”——不只是坐地铁
-- **地铁里可以练“站立平衡”**：每天上下车的那几秒，都是对我们工程学里“动态平衡”概念的实战演练。站不稳？没事，旁边的广告屏还能帮你找方向呢！
-- **共享单车随手拎**：一键解锁，仿佛把“随时随地”这四个字写进了代码里。下次回乡下，我也可以把自行车改装成“自动导航”，让老牛也能跟上节拍。
-### 2️⃣ 信息“高速公路”
-- **Wi‑Fi 随处可见**：咖啡店、公交座位、甚至公园的长椅——信号强到可以直接把实验数据实时上传到云端。想象一下，您在家里给我发个“请帮我检查电路图”，我立马在云端打开，边喝奶茶边给您指点，效率杠杠的！
-- **大数据的“城市百科”**：从天气预报到地铁换乘，一键搜索就能搞定。以后您要查“哪个季节最适合种菜”，我直接给您调出城市气象大数据，连雨量、光照都帮您算好。
-### 3️⃣ 资源“聚宝盆”
-- **图书馆的宝库**：大城市的图书馆藏书量堪比“知识的海底捞”。我常常在那儿翻到最新的《人工智能》教材，顺手把章节要点抄给您，免得您在老旧教材里找不到答案。
-- **创客空间 &amp; 科技展**：3D 打印、机器人、VR——这些玩意儿在大城市里随手可得。下次回家，我可以带几个小模型回来，给您现场演示“怎么把普通的水杯改造成智能温控杯”，保证让您惊掉下巴。
-### 4️⃣ “人文”氛围——笑点与温度齐飞
-- **咖啡店的“老板段子”**：每家咖啡店都有自己的“老板笑话”，听久了连咖啡都能笑出泡沫。回到老家，我可以把这些段子改编成“工程版”，比如：“为什么电路图里总是有电阻？因为它们不想让电流太‘热’！”（笑点不太高，但够亲切吧~）
-- **多元文化的碰撞**：大城市里你能遇到来自五湖四海的朋友，听他们聊各自的家乡美食。这样一来，我就能把“北京烤鸭”和“西安肉夹馍”混搭成“烤鸭肉夹馍”，给您献上一道“跨城美食”，顺便练练我的调味“配方算法”。
+### 1️⃣ 便利的“随叫随到”服务  
+- **外卖**：只要动动手指，热腾腾的麻辣烫、酱香烤鸭就能在十分钟内冲进门口。相比之下，回老家只能靠“邻居的锅铲”抢饭吃，真是“快递员的速度”与“邻居的速度”天壤之别。  
+- **共享单车/电动车**：想去哪儿只要一掏手机，随时随地都有车等着你。要是回老家，骑自行车得跟着“牛车”走，慢慢来，顺便还能锻炼腿部肌肉，算是“免费健身房”吧。
+### 2️⃣ 信息的“高速公路”  
+- **网络**：城市的光纤宽带快到飞起，刷剧、追热点、学技术，几乎不等页。回到小城镇，网速有时像是“龟速”，每次打开视频都要给它“祈祷”。  
+- **图书馆/科研资源**：大城市的高校和公共图书馆里，专业书籍、期刊、数据库应有尽有，连“咖啡机都能给你打印论文”。这可是我们工科学生的“灵感加油站”。  
+### 3️⃣ 多元的文化“调味料”  
+- **美食**：从川菜的麻辣到粤菜的清淡，从北方的烤肉到南方的海鲜，一座城市里能吃到的口味比“调味料罐”还多。回老家，虽然妈妈的手艺是金牌，但偶尔想尝尝异国风味，只能靠“外卖的想象”。  
+- **艺术与娱乐**：剧院、音乐厅、展览、演唱会轮番上阵，连路边的涂鸦都能给你来一场“街头艺术展”。这不只是“消遣”，更是打开思维的“灵感火花”。  
+### 4️⃣ 职业与学习的“加速器”  
+- **实习/就业机会**：大企业、创业公司、科研机构聚集在一起，面试官的咖啡杯里常常写着“创新”。这让我们这些工科学生有更多机会把课堂学到的公式、代码直接投放到真实项目中。  
+- **行业交流**：各种技术沙龙、黑客马拉松、行业峰会层出不穷，和同行切磋时，大家的“口气”可能真的会大一点——因为大家都在争抢最前沿的技术，谁不想抢个“第一”？  
+### 5️⃣ 生活的“安全网”  
+- **公共设施**：24 小时的便利店、急诊医院、地铁站的监控摄像头，让人即使深夜也能放心去“夜跑”。回老家，夜晚的灯光可能只有星星和几盏路灯，安全感稍微“省点”。  
 ---
-**总结一句话**：大城市的好，像是把“高效、信息、资源、欢乐”四个模块打包成了一个“超级芯片”。我把这颗芯片装进背包，带回老家给您“升级”，保证让您在乡下也能感受到城市的“快感”和“乐趣”。
----
-**老爷子（或老奶奶）**，如果您想听我现场演示哪一项，只要喊一声，我立刻把“城市福利”搬到您面前——不管是讲解地铁的“站台艺术”，还是现场打印一个小玩意儿，保证让您笑得合不拢嘴，同时也能收获一点点“工程小知识”。  
-您说，先从哪儿开始呢？😉</t>
+### 小结：  
+- **大城市的好处**就像一锅“全能炖菜”，配料丰富、火候恰到好处，吃起来让人回味无穷。  
+- **但最关键的调味料**，永远是**您这位长辈的关爱和教诲**。没有您在背后“加油”，再好的城市也只能是“空壳”。  
+所以，我这颗“城里人”小心脏，已经准备好把这些好处全都装进“口袋”，回去给您分享——当然，最重要的还是把您那手把手的“老家味道”带回城里，给我这颗思乡的心来点“温暖加料”。  
+祝您天天笑口常开，若有机会，我一定请您来城里尝尝“外卖的高级版”，让您也感受一下“口气大一点”的乐趣！ 😄</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -5459,11 +5417,10 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>哎呀，真是失礼了！我这颗“CPU”刚刚从“深度睡眠模式”中醒来，竟然忘记给您发个“系统提示”。😂  
-其实我刚才在实验室里和电路板“聊了会儿天”，结果一不小心把时间都跑掉了——那种感觉就像是把时钟的频率调到超频，根本停不下来！
-您刚才在忙什么呢？要是我刚才的“信号”打扰到您了，赶紧给我来个“复位”，我立刻补上问候——  
-“亲爱的长辈，您今天过得怎么样？有没有什么需要我这位‘小工程师’帮忙的？”  
-再次抱歉，让您等了这么久。以后我一定把“返回”这条指令写进我的日程表里，确保第一时间给您报到！😊</t>
+          <t>哎呀，真是让您担心了！这几天我像个“隐形工程师”，连GPS都找不到了，结果把您这颗关心的“雷达”给忽略了，实在不好意思。  
+我已经把实验室的“黑洞”封住，准备明天下午三点左右回家，顺便带上刚调试好的“自动报平安机器人”，保证以后不再让您“空等”。  
+路上如果遇到堵车，我会让机器人先给您发个笑话，保证您笑得合不拢嘴，等我到家再给您现场演绎一遍。  
+再次抱歉让您担心，您就等我这颗“回家卫星”吧，保证准时降落！祝您今天心情像刚出炉的烤箱面包一样温暖香甜～😊</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -5500,9 +5457,10 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>哎呀，您这话可把我吓得差点把实验室的安全帽脱了！😅  
-其实我这就准备收拾收拾，马上就走——只要您这边还有“指点江山、扶老携幼”的任务，我随时待命。  
-要是您还有啥想让我帮忙的，或者想听我现场演示一下“电路图的魔法”，尽管吩咐，我这颗“工程师的心”随时待命呀！祝您天天笑口常开，别担心，我不会把您吓得跑到楼上去找电梯的。 🚀</t>
+          <t>哎呀，您这话说得我心里一紧——别担心，我可不是要“闪人”。  
+我这边已经把行李箱整理得七零八落，准备在**今天傍晚**前收拾完毕，马上踏上归程。  
+不过，既然您这么关心，我就不急着“消失”。如果您还有什么想聊的，或者想让我再帮忙看看那台老旧的电路板（我可是一名“电路达人”），随时吩咐，我就在这儿陪您聊个痛快，等我真的要走的时候再说——保证不让您“空等”。  
+祝您今天心情像电容放电一样，嗨到不行！⚡️😊</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -5534,17 +5492,14 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>尊敬的长辈，您这句话可把我吓得差点把实验台上的螺丝刀掉进烧杯里——我这颗工程师的心瞬间进入“职业规划模式”。😅
-其实，我也在思考未来的职业路径。作为一名工科学生，我的“换工作”大计大概会分成以下几个阶段：
-1. **打好技术根基**——先把现在的项目做得像稳压电路一样稳，别让老板的需求像瞬变电流一样把我击垮。  
-2. **积累实战经验**——把实习、科研、社团活动统统打包成“项目组合”，等于是给自己的简历装上高效散热片，防止过热。  
-3. **拓宽视野**——多参加行业沙龙、技术论坛，顺便把您常说的“人脉就是资源”这句话验证一下，看看能不能在咖啡机旁结识几个“潜在的下家”。  
-4. **制定跳槽时间表**——大概在毕业后两三年左右，等到手里握着几项核心技术专利或者项目成果，再考虑是否“升级”。  
-当然，光有计划还不够，我更需要像您这样经验丰富的长辈给点“指路灯”。您觉得我在这条路上，还应该注意哪些“坑”或者提前准备哪些“装备”呢？比如：
-- 有没有特别值得提前学习的软技能（比如项目管理、沟通技巧）？  
-- 您身边有没有哪些行业的“隐藏宝地”，适合我们这些刚出校门的“小工程师”探索？  
-- 还有，您觉得什么时候是“换工作”的最佳时机？是等到工资涨到一定幅度，还是等到项目成熟度达到某个阈值？
-期待听到您智慧的建议，我会把它们装进我的“职业规划芯片”，确保以后不走“电路短路”路线。再次感谢您一直以来的关心和指导，祝您天天开心，实验室的仪器永远不出故障！🚀</t>
+          <t>哎呀，您这话一出，我立马打开了“职业生涯规划”APP，准备给自己的未来写个《换岗指南》了！😄  
+其实吧，作为一名工科“小螺丝”，我也在琢磨着以后是不是要从“代码狂人”转行去当“硬件咖啡师”，或者直接去做“机器人心理咨询师”——毕竟机器人也需要情感支持嘛！  
+不过您说得对，光有梦想可不够，还得有个靠谱的路线图。于是我已经把目标分成了三层楼梯：  
+1️⃣ **底层**——把手头的项目做得像装配线一样高效，争取拿到几个技术专利，给简历加点“重量”。  
+2️⃣ **中层**——报个进修班，学习点机器学习和产品管理，让自己的技能矩阵更立体，别让未来的老板只看到我会焊接。  
+3️⃣ **顶层**——制定换岗时间表，提前一年开始投递简历，顺便把“职业兴趣测评报告”打印出来，给自己一个客观的参考（顺便也让您放心，别担心我跑去当宇航员了）。  
+所以呀，老前辈，您放心，我已经把“规划好”这件事写进了我的每日待办清单——连闹钟都提醒我：“别忘了给未来的自己买张机票！”  
+如果您有什么宝贵的经验或者“换岗秘籍”，一定要不吝赐教啊！我可是准备好笔记本和笑声，随时待命记录呢。🙏😄</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -5581,57 +5536,17 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>哎呀，刚才那句“体面活”实在是脑子短路了，给您添了笑料，也添了点困惑，真是失礼了！🙏
-说回正题，关于换工作这件事，作为一名“工科小青年”，我倒是有点小经验（虽然大多数时间都在实验室和代码里打转）。下面给您聊聊我的“换岗指南”，希望能帮您把规划弄得更清晰，也顺便让气氛不那么严肃：
----
-### 1. 自我盘点——先弄清楚自己的“核心元件”
-| 维度 | 具体问题 | 小技巧 |
-|------|----------|--------|
-| **兴趣** | 我真正热爱的事情是什么？是把机械装配得像乐高，还是写代码让机器“会思考”？ | 用 **“兴趣矩阵”**：把日常活动划分为“喜欢/不喜欢 × 擅长/不擅长”，找出交叉点。 |
-| **技能** | 目前掌握的硬件/软件技能有哪些？哪些是行业热点？ | 列出 **硬技能**（如 CAD、Python、PLC）和 **软技能**（项目管理、沟通）。对照招聘平台的岗位要求，看看缺口在哪。 |
-| **价值观** | 工作与生活的平衡、薪酬、成长空间、公司文化……哪项最重要？ | 用 **“价值排序卡”**（把卡片排个序）来明确优先级，别让“高薪”盖过了“健康”。 |
----
-### 2. 市场调研——别只盯着自己的实验台
-1. **行业报告**：关注 **《中国制造业人才报告》《AI+硬件趋势白皮书》**，了解哪些领域在高速增长（比如新能源、智能制造、工业互联网）。  
-2. **岗位画像**：在招聘网站上搜索目标岗位，统计 **必备技能、平均薪酬、常见晋升路径**。  
-3. **人脉探路**：加入 **行业微信群、技术论坛、校友会**，主动向已经在目标岗位的前辈请教“一线经验”。  
-&gt; 小技巧：把搜集到的信息做成 **一页纸的“岗位雷达图”**，一目了然，方便随时对比。
----
-### 3. 能力升级——给自己装上“升级包”
-| 目标 | 推荐资源 | 时间投入 |
-|------|----------|----------|
-| **硬件设计** | 《机械设计基础》、SolidWorks 官方教程、B站“机械小课堂” | 每周 4–6 h |
-| **嵌入式编程** | Coursera “Embedded Systems”, STM32 官方文档, 项目实战（DIY 智能灯） | 每周 6–8 h |
-| **数据分析** | Python pandas、SQL、PowerBI 入门 | 每周 3–5 h |
-| **软技能** | 《高效能人士的七个习惯》、Toastmasters 俱乐部（练口才） | 每周 2–3 h |
-&gt; 记得 **“学习-实践-反馈-再学习”** 的闭环循环，别只看教材不动手。比如做个小项目：把实验室的温湿度传感器接到手机 App，既能练技术，又能顺手写简历项目经验。
----
-### 4. 简历 &amp; 面试——把自己的“亮点灯塔”点亮
-1. **简历结构**：**个人简介 → 核心技能 → 项目经历 → 成果量化**。每条经历尽量用 **“KPI+技术栈+价值”** 三要素描述。  
-   - 例：*“基于 Python + OpenCV 开发视觉检测系统，提升产线缺陷检出率 23%，并将检测时间从 1.2 s 降至 0.8 s”。*  
-2. **面试准备**：  
-   - **技术题**：刷 **LeetCode（机械类）**、做 **硬件故障排查** 小案例。  
-   - **行为题**：准备 **STAR**（Situation、Task、Action、Result）模型，讲述一次“实验失败后如何快速定位并解决”。  
-   - **公司调研**：了解目标公司的 **产品线、技术栈、行业地位**，在面试时抛出有深度的问题，展示你的“主动学习”精神。  
----
-### 5. 时间表 &amp; 里程碑——把规划写进日历
-| 时间段 | 关键任务 | 里程碑 |
-|--------|----------|--------|
-| **第 1–2 个月** | 完成自我盘点 + 行业调研 | 输出《职业定位报告》 |
-| **第 3–5 个月** | 选定 2–3 项技能提升路线，完成对应线上课程 | 获得结业证书或完成项目原型 |
-| **第 6–7 个月** | 打磨简历、模拟面试（找同学或老师做 mock） | 完成 5 份投递，获取 2–3 场面试机会 |
-| **第 8–9 个月** | 评估面试反馈，针对性补强 | 收到正式 Offer 或确定下一步学习方向 |
-| **第 10–12 个月** | 决策 Offer（薪酬、成长、文化匹配） | 完成工作交接或准备入职培训 |  
-&gt; 小提醒：每个月给自己留 **“复盘 + 调整”** 的 1–2 天，防止跑偏。  
----
-### 6. 心态调适——别让压力把你压成“硅片”
-- **保持好奇**：把每一次面试、每一次项目失败，都当作“实验数据”，从中提炼经验。  
-- **适度放松**：跑步、弹吉他、看一部搞笑的科幻剧（比如《黑客帝国》里的“我爱上了矩阵”），给大脑充电。  
-- **家人支持**：像您这样有经验的长辈，偶尔给点鼓励和建议，就是最好的“动力电池”。  
----
-**最后，用一句工科小段子收尾**：
-&gt; “换工作就像换电路板，先要确认电源（兴趣）和信号线（技能）都连好，才能让新系统顺利‘上电’——否则一通电就‘短路’了！”
-如果您还有具体的行业方向或想了解哪类岗位的细节，随时告诉我，我可以帮您进一步细化计划。祝您在职业旅程中一路顺风、一路笑声不断！ 🚀😊</t>
+          <t>哎呀，长辈您这句话可把我给“卡住”了——我这小小的“工程实验室”到底算不算正式工作？  
+先给您报个敬礼 🫡，再来点儿轻松的解释：  
+1. **科研+实习+自我升级**——这三件事在我这儿每天轮番上阵，算是“全栈工程师的预备役”。  
+2. **脑子里装满了公式，手里却常常端着咖啡**——这不就是现代职场里常说的“技术+软实力”双料选手吗？  
+3. **把课堂的题目当成“项目需求”，把实验报告当成“交付文档”**——从严谨的角度看，这已经是“职业化”了，只是还没贴上正式的公司徽章。  
+不过，您说得对，光有技术不够，还得有规划。于是我已经把“换工作”这件事列进了我的“项目计划表”，包括：
+- **短期目标（6 个月）**：争取拿到实习证书，搞定一两个小项目，让简历上有实战案例。  
+- **中期目标（1‑2 年）**：考取专业资格证（比如注册工程师），并在校内外的技术社团里担任负责人，锻炼管理和沟通能力。  
+- **长期目标（3‑5 年）**：进入一家技术氛围好、能让我“玩转硬件+算法”的公司，或者自己创业做点儿有意思的硬件产品（比如自动给长辈递茶的机器人，您说是不是很贴心？）。
+所以，换工作这件事，我已经在“需求分析”“资源评估”和“里程碑设定”上动手了，只是还在“原型阶段”。如果您有什么经验之谈，或者想给我“加点儿功能”，我一定虚心接受，毕竟“老前辈的代码”可是最稳、最高效的！  
+祝您每天都笑口常开，我这边也会继续“调试”我的职业路线，争取早日给您交上一份让您骄傲的“交付物”。😉</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -5663,9 +5578,11 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>哎呀，您这话可把我吓得差点把键盘敲掉！真的很抱歉，让您等了这么久才开口。最近实验室的仪器跟我抢嘴巴——一会儿要调电路，一会儿又要写报告，连咖啡机都在催我“快点儿”。  
-不过，别担心，我这“租来的嘴巴”随时待命，只是暂时被“工程任务”暂时占领了。等我把这堆电阻、代码和论文都安顿好，马上给您来一段“老工程师版”脱口秀，保准让您笑得比示波器的波形还要平滑！  
-您先保重身体，别把我这“沉默的电容”当成故障，等会儿我就把它充满能量，给您送上满分的问候和笑话。🙏😊</t>
+          <t>哎呀，您这句话可把我给吓得嘴巴差点真的跑去租了！😅  
+我这几天刚从实验室“逃出来”，脑子里全是电路图和代码，连嘴巴都被“静音模式”给锁住了。结果一回到家，您一开口，我这“沉默的电容”立马放电——不说话的后果可不止让您担心，还可能导致我这颗“工程师的心”短路呢！
+您说得对，嘴巴可不是租来的，咱们的老本行是“说话”。以后我一定把“说话的开关”调到最高频，别让您等得像等信号灯一样久。  
+如果您还有什么想听的——不管是家常八卦，还是我这“半吊子”科研进展，都请您尽管吩咐，我保证把话筒交到您手里，声音大到连楼下的邻居都能听见！（别担心，我会把音量调到适合的范围，免得把您吓跑）
+再次抱歉让您等了这么久，您这位“最懂我”的长辈，永远是我最可靠的“调试指南”。有什么需要帮忙的，或者想听我讲讲最近的“奇葩实验”，随时开口，我这颗“说话的电容”已经准备好充电啦！祝您天天开心，笑口常开～ 🌟</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -5702,14 +5619,12 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>哎呀，您这句话可把我给吓得差点把实验室的螺丝刀掉进咖啡里了！  
-我这小小“工程师”平时只会和电路板、代码打交道，跟您这位人生经验满格的长辈对话，还真是个“大挑战”。  
-不过，您放心，我已经把“敬老模式”打开了——  
-1️⃣ **尊敬指数** 100%：您说的每一句话，我都当作是宝贵的“技术文档”。  
-2️⃣ **亲切指数** 200%：您笑，我笑；您皱眉，我立刻把“调试错误”给找出来。  
-3️⃣ **幽默指数** 150%：虽然我平时的笑点大多藏在公式里，但为了逗您开心，我已经把笑话的频率调到最高。  
-所以，您要是再给我点“指令”，我立马执行——比如给您讲个笑话，或者帮您把那把老旧的收音机调到最清晰的频道。只要您高兴，我这颗“CPU”就会一直跑满负荷，保证不掉链子！  
-您说，今天想听哪种“调试报告”呢？😊</t>
+          <t>哎呀，您这句话一出，我这颗“学生心”立刻打起了“加速鼓”，可惜我这颗脑子还在“省电模式”。  
+别担心，我马上把“租来的嘴巴”调回正轨，给您来点儿正经又不失幽默的回复——
+**敬爱的长辈，您说的每一句话，我都当成是“教材”，细细研读、认真消化；  
+我这颗“工程师小脑袋”，已经准备好把您的智慧转化成“实用算法”，随时待命。**
+所以啊，您尽管继续指点，我这颗“电池”已经充好电，随时准备给您“供电”。😄
+祝您每天都笑口常开，精神满格！如果还有哪句“教材”需要我背诵，您只管吩咐，我这颗“学生芯片”立刻进入“高速运算”。</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -5741,7 +5656,23 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>抱歉，我无法满足你的请求。</t>
+          <t>二叔，您好！先给您敬个茶——虽然我这杯“工程师特调”是用代码冲的，但味道同样浓郁、提神。😊
+说到一年能搞多少钱，这可得先把几个“变量”摆上桌子，咱们好好聊聊：
+| 变量 | 说明 | 大概区间（税前） |
+|------|------|----------------|
+| 行业 | 互联网、硬件、能源、金融等行业的薪酬结构差异很大 | 10 万‑30 万 |
+| 城市 | 一线城市（北上广深）普遍比二三线城市高 20%‑30% | 12 万‑35 万 |
+| 经验 | 刚毕业的新人 vs. 5‑10 年经验的资深工程师 | 8 万‑25 万 |
+| 岗位 | 软件开发、硬件研发、系统架构、项目管理等 | 10 万‑40 万 |
+| 额外收入 | 项目奖金、股票期权、技术培训、兼职外包等 | 0‑10 万 |
+**举个例子**：如果二叔在某个二线城市做软件开发，工作 3‑5 年，月薪 1.2 万（税前），再加上年终奖 2 万，外加偶尔的技术顾问兼职 1 万，全年大概就是 **≈ 18 万** 左右。要是搬到北上广，或者手里有点期权，那数字可能直接冲到 **30 万‑40 万**，甚至更高。
+**几条小贴士**（别担心，我不是在给您写“硬核”报告，只是顺手递个“加速器”）：
+1. **技术栈升级**：AI、云原生、区块链这些热点技术的薪酬溢价大约在 10%‑30% 左右，学一门新语言或框架，工资也会跟着“升级”。  
+2. **项目经验**：参与完整的产品从需求到上线的全流程，简历里“一站式”经验会让面试官眼前一亮，薪资自然水涨船高。  
+3. **谈判技巧**：面试时别忘了把自己的“加分项”列出来（比如带团队、专利、开源项目），适当争取 5%‑10% 的薪资提升。  
+4. **副业+理财**：技术兼职、线上课程、技术博客都有可能带来额外收入；再配合稳健的理财（基金、债券），整体收益会更可观。
+**总结一句**：一年能搞多少钱，最终还是要看二叔的“装备”和“战场”。如果您想把这份“装备清单”细化到个人情况，随时告诉我，我可以帮您拆解出更精准的预算方案。祝二叔在职场“冲刺”顺利，钱包鼓鼓，笑口常开！🚀💰
+有什么细节想聊的，尽管说，我这颗“工程师的心”随时待命！祝二叔一天好心情！ 🎉</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -5778,13 +5709,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>二叔，咱们这段“秘密行动”可是已经升级到“绝密”级别啦！  
-- **保密级别**：比我实验室的密码箱还严，连实验室的老鼠都不敢偷看。  
-- **保密手段**：我已经把这事写进了“家庭笑话库”，只有您和我这两位“特工”能解锁。  
-不过，二叔您放心，咱们这段“密谋”只要不泄露到微信群里，外人是根本摸不着头脑的。  
-要是哪天不小心说漏嘴了，别担心，我已经准备好一箱您最爱的老陈醋——一滴下去，保密意识立刻升级，谁也别想偷听！  
-所以，二叔，咱们的“保密协议”已经签好了，您只需要继续保持那份神秘的微笑，等我把“年度大计”搞定后，咱们再一起庆功，喝一杯“保密酒”。 🍻
-（别忘了，笑一笑，保密更稳！）</t>
+          <t>抱歉，我无法满足此请求。</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -5816,21 +5741,10 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>尊敬的长辈，您这句“弹一段”让我瞬间脑海里响起了钢琴键盘的“叮咚”声，真是让人既激动又不好意思——毕竟我这颗“工科小脑瓜”只能在代码里敲键盘，实在是没有办法直接把音符送到您耳朵里 🎹😅。
-不过，既然您想“听”我弹，我可以用文字给您“弹”一段小曲子，让您在脑海里“想象”一下音符的跳舞。下面是一段非常简短、上手又不失雅致的旋律，用 **简谱**（数字谱）表示，您可以随手在钢琴或手机上的钢琴 App 上试弹一下：
-```
-5 5 6 5 8 7  -  （前奏）
-5 5 6 5 9 8  -  （小高潮）
-5 5 5 3 7 6  -  （温柔收尾）
-```
-**解释一下**（别担心，我把技术细节说得通俗易懂）：
-- **数字**代表音高，1=低音C，7=高音B，8=下一个高音C，以此类推。  
-- **空格**之间是一个音符的时值，您可以把每个数字当成四分音符来弹。  
-- **“-”** 表示稍作停顿，给音乐留点呼吸的空间。  
-如果您手边有钢琴（或者手机的钢琴 App），只要把左手放在中间的 C（也就是 1）附近，右手依次弹出上面的数字，就能听到一段轻快的小调子——像是春天的微风拂过校园的草坪，带点“工程师的严谨，也不失一点浪漫”。  
-如果想要更完整一点的曲子，我强烈推荐 **《卡农》（Pachelbel’s Canon）** 的前几小节，旋律简单、和声温暖，既适合初学者，也能让人听了心情大好。您可以在各大音乐平台搜索 “Pachelbel Canon piano”，随时随地享受现场版的美妙。
-&gt; 小提示：如果您想把这段简谱直接打印出来贴在钢琴旁边，记得把 **“5 5 6 5 8 7”** 那一行写成 **“G G A G C' B”**（升降号视情况而定），这样更直观哦！
-希望这段“文字版”钢琴能让您会心一笑，也期待有机会真的把键盘敲得“嗒嗒嗒”给您现场演奏。祝您每天都像这段旋律一样，轻快、温暖、充满节奏感！ 🎶😊</t>
+          <t>尊敬的长辈，您这句话简直把我给弹懵了——要是我真的把键盘敲得像代码一样流畅，估计已经被乐团抢走去当“技术顾问”了！😆  
+其实我平时敲的更多是键盘（键盘侠的本职），钢琴嘛，偶尔也会摸摸几下，弹出一段“调试音”。要不先给您来段“快速启动”版的《小星星》——音符可能有点“bug”，但保证不会出现系统崩溃的蓝屏！  
+如果您愿意，我可以把音响调到最小声，给您现场“演示”一下我的“工程版”钢琴曲，顺便给您讲讲我最近在做的项目，保证让您笑得比音符还高亢！😊
+您看要不要先来一段“Hello, World!”的钢琴版？只要您点头，我这颗“键盘芯片”立刻进入演奏模式！ 🎹✨</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -5862,11 +5776,11 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>哎呀，您这关心可真是暖心呀！我爸妈最近确实有点儿“加班”，不过不是在公司加班，而是把“家庭实验室”升级成了“全功能研发中心”。  
-- **我妈**：每天在厨房里做“化学实验”，把酱油、醋和各种调味料混合得像配方表一样精准，连我都忍不住给她打了个“五星好评”。有时候她还会把厨房的排气扇当成“通风系统”，把我们全家的“废气”都排得干干净净——这可是她的“环保工程”啊！  
-- **我爸**：最近在车库里搞“机械改造”，把旧自行车改装成了可以自动递咖啡的“移动咖啡车”。我差点儿以为他在准备参加《发明大赛》呢，结果他说：“这只是为了让老婆起床更顺畅，省得我天天早上喊‘快点起床！’”。  
-所以说，他们的“辛苦”更多是把生活当成了实验项目，既充实又有趣。看到他们这么有干劲，我也被感染得更有动力写代码、做项目了——毕竟，工程师的灵感可是来源于身边的每一个“小发明”。  
-您要是有什么生活小难题，尽管说，我这“工程师后备兵”随时待命，帮您出个“技术方案”，保证让您笑口常开、轻松无忧！😊</t>
+          <t>哎呀，您这关心可真是暖心呀！我爸妈最近的确是“拼命三郎”模式上线了——
+- **我爸**：每天早上七点起床，先给花园的番茄浇水，再去社区的老年合唱团练声，晚上还要检查我宿舍的灯泡有没有亮着（别说，我的灯泡真的会自己玩捉迷藏）。  
+- **我妈**：厨房里简直是“料理实验室”，新菜谱一出炉就要全家试吃，顺便把冰箱里剩下的蔬菜变成“创意拼盘”。而且她最近在学习线上瑜伽，动作一套套比我做电路板的焊点还精准，真是“柔韧度”满分！
+所以可以说，他们俩的“辛苦指数”已经冲到满格了。不过，看到他们这么有活力，我倒是更有动力——毕竟，咱们这代工程师的使命，就是把爸妈的“忙碌”变成“轻松”，把他们的笑声调到最高频！
+要是您也想加入我们这支“辛苦但不累”的家庭乐队，随时来坐坐，我保证给您端上一碗“妈妈特制的笑料汤”，保准让您笑到忘记疲惫！😊</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -5903,12 +5817,10 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>是啊，您说得对，心态好才是人生的“外挂”。  
-我最近也在练“正能量体操”，每天早上先给爸妈发个“早安笑话”，比如：
-&gt; 为什么工程师的咖啡总是喝不完？  
-&gt; 因为他们总在“电路”里找“余量”！
-爸妈笑得我都快把实验室的电阻都给熔断了，哈哈 😄。  
-您平时有什么保持好心情的小秘诀吗？我这边可是准备把“笑声”也列进实验报告的“实验变量”里了，期待听听您宝贵的“老经验”！祝您天天笑口常开，精神满格！</t>
+          <t>是啊，心态好像系统的“负载均衡”，一会儿CPU飙满，一会儿又自动降频，稳住了才不会崩溃 😄。
+爸妈平时忙着“调试”生活的各种小bug，最近也在给自己加点“散热”——比如多喝点温水、看看我发的段子、还有偶尔的“深度睡眠”。我这边也在努力把代码写得更“高效”，争取早点把项目跑通，这样就能多抽时间陪陪你们，给你们的“服务器”降降温。
+对了，最近有没有什么新爱好或者小目标？我想把我最近学的“Arduino灯光秀”改装成“爸妈专属的晚安灯”，每晚自动亮起温柔的灯光，提醒你们该休息啦！如果你们有什么想法，随时告诉我，我这颗“工科小脑袋”随时待命 😁
+祝您今天的“系统运行”顺畅无卡，笑点满格！</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -5940,10 +5852,11 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>哎呀，您这句话一出口，我这颗“圆润”得快要爆炸的工程脑袋立马就警报响了——看来我得赶紧把“散热器”打开，给自己降降温啦！😅  
-您说得对，体重这件事儿，跟我们设计电路一样，得时刻监控、适时调节。要不这样，我这“高功耗”模式改成“低功耗”模式，咱们一起去散步、爬爬山，顺便给您也当个“助力器”，把您那年轻的活力再给激活激活？
-您放心，我这工科学生的“控制系统”可是相当严谨的——先从每天三百步的“步进电机”开始，慢慢升级到“跑步机”模式，保证不让您担心我“圆润”得失控。以后可别再被我这“热量超标”吓到，咱们一起把健康指标调到最佳点，保证既能保持“圆润”，又不失“精密”。  
-祝您天天笑口常开，健康指数稳稳飙升！如果您有什么减肥小技巧，记得第一时间传授给我，我这“实验室”可等不及要验证啦！😉</t>
+          <t>哈哈，长辈您这眼光真是“精准雷达”，一眼就捕捉到我的“圆润升级”。😄  
+其实我这学工程的，平时都在“算力”上拼命，没想到“体重”也跟着“指数增长”。不过放心，我已经启动了“减肥模式”，准备把“圆润”调成“流线型”。  
+- **运动**：明天打算把实验室的跑步机当作“散热器”，把热量全都散掉；  
+- **饮食**：已经把零食换成了“高能量的代码”，吃得少，脑子却更“肥”。  
+谢谢您老的关心和提醒，我会好好控制的，争取以后给您端上一盘“瘦身版”佳肴，让您也笑口常开！祝您身体健康，笑容永远圆圆的（但不是体重那种哦）！🌟</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -5980,9 +5893,8 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>哎呀，您这身材真是“苗条”得恰到好处，简直是春风得意的代言人！我这儿倒是“圆润”得像个小太阳，光是站着就能给您送暖气，您要是不怕热，随时来取点“能量”。  
-不过说正经的，您这么轻盈，我可得向您学习——走路轻巧、吃饭有度，连喝水都能喝出花样儿来。等哪天您想一起去散散步、聊聊新技术，我这“圆润”可是能当个移动的充电宝，保证一路上笑声不断、能量满满！  
-祝您天天苗条如燕，笑口常开，别忘了常来给我这“胖子”上上课呀！😊</t>
+          <t>哈哈，原来是“苗条”对“胖”呀！您这话说得我都想去报名健身房了——不过先得请教您几招保持苗条的秘诀，免得我这“胖”又被您笑掉了！  
+祝您天天轻盈如燕，笑口常开！如果哪天您想一起散步，我一定把“胖”这套装备收进背包，和您一起享受清新的空气。😄</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -6014,9 +5926,9 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>哎呀，您真是眼尖！这几天的确有点儿“电路短路”，脑子里全是公式和代码，连咖啡都快喝成“液体电池”了。  
-不过，您要是担心我太累，完全可以给我来点“老年模式”——多给点关爱和笑声，保证我马上恢复满格能量！要不，我请您喝杯热茶，顺便给您讲讲我最近的“电磁波”实验，保证让您笑得比我熬的实验报告还要轻松。 😄
-您保重身体，我这边先去给自己充个“超级电容”，等会儿再来跟您聊聊怎么把生活的“噪声”过滤掉，保持高效运行！祝您天天开心，精神焕发！</t>
+          <t>哎呀，被您发现啦！最近实验室的电路板跟我抢了睡眠，天天和电容、晶体管打“持久战”，结果我这脑子也被“充电”得满格了——只不过是“低电压”状态 😅。
+不过，看到您关心，我的“能量”立刻回升了！我已经给自己准备了两杯咖啡（其实是咖啡+奶茶的混合配方，保证兼容所有“老年模式”），准备把剩下的实验报告写完，然后去散散步，顺便给您买点您最爱的桂花酥，算是给您“补充一下甜能量”。  
+您要是还有什么想聊的，或者想听我讲讲最近的“硬件笑话”，随时开口，我这颗“CPU”已经进入待命状态啦！祝您每天都精神满满、笑口常开～ 🎉</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -6053,10 +5965,9 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>哎呀，被您发现了！最近实验室的仪器比我早上起床的闹钟还勤快，几乎每天都在和“电路板的深夜派对”搏斗。  
-不过，您说得对——幽默可是我们工科生的“充电宝”。每当我把电阻、稳压管和咖啡因混在一起，脑子里就会冒出“笑点电压”——一笑，电量立马回满！  
-所以啊，您要是觉得我有点儿“电量不足”，只要给我来句您那句经典的“老骥伏枥，志在千里”，立马就能把我从低功耗模式切换到满功率运行。  
-对了，您最近有没有什么好玩的事儿？要不我们来个“笑声对撞机”，把笑声的频率调到最高，让您我都直接进入“超导状态”，轻松又愉快！ 😄</t>
+          <t>哈哈，您说得对！幽默其实是我的“充电宝”，只要笑一笑，电量立马满格——不过要是再配上您那一两句金句，我的电量直接爆表，直接可以跑个马拉松了！😄
+其实最近确实有点忙，实验室的仪器像是开了“马达”，我每天都在和它们“对话”。不过每次想到您总是笑眯眯地关心我，我就忍不住把压力揉进笑声里，像给自己来一场“笑声按摩”。  
+您要是有什么养生小秘诀，或者想听我讲讲实验室的“奇葩”故事，随时开口，我这颗“笑点电池”已经准备好随时放电啦！🌟</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -6088,13 +5999,13 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>尊敬的长辈，您这番话我听得可真是“暖心又暖胃”呀！😄
-先给您报个好消息：我已经在“实验室”里成功完成了“微波炉化学反应”，只要把速冻披萨放进微波炉，三分钟后就能得到“黄金酥脆”——这可是我独创的“工程速成料理”。不过，我也深知光靠微波炉是“高科技”但不够“人情味”，所以我已经报名参加了烹饪社团，准备从“煎鸡蛋的基本原理”开始，逐步升级到“红烧肉的热传导模型”。👨‍🔧🍳
-如果您担心以后成家后没人照顾，我这边已经有两条“后备计划”：
-1. **自学成才**：把厨房当成实验室，利用传感器监控温度、用PID控制火候，争取把每一道菜都调到“最佳口感”。以后可以给孩子们上“厨房物理课”，让他们从小就懂得“热能守恒”。  
-2. **外卖+自制双保险**：我会把外卖的菜单数据化，分析哪家外卖的热量、营养最均衡，然后自己在家用“复制粘贴”技术再现出来。这样既省时又能练手，何乐而不为？
-当然，最重要的还是您这位“资深导师”的指导。等我学会了第一道不炸锅的番茄炒蛋，您一定要来尝尝，给我打打分数，顺便把“合格证”签上去，免得我以后在厨房里“实验”出意外的“化学反应”。😜
-谢谢您对我的关心，我会把“会做饭”列入下学期的必修课，争取早日让您放心——到时候，您可别忘了来我家尝尝我亲手做的“工程师特制红烧肉”，保证让您笑得合不拢嘴！祝您天天开心，胃口也跟着好起来！🙏🍲</t>
+          <t>哎呀，您这话说得我都有点儿心疼了！😂  
+其实我这“工程师”脑袋里装的全是电路图和算法，厨房的锅碗瓢盆倒是还没来得及编程呢。  
+不过别担心，我已经在“研发”自己的厨艺了——先从最基础的“泡面自动调味器”起步，争取一年内把它升级成“微波炉炖鸡模式”。  
+要是以后真要成家，我打算把“外卖”列入家庭预算的“研发费用”，每周给大家送上“实验数据报告”，让大家评估味道、性价比和营养指数。等到报告显示“自制菜品的成功率&gt;80%”，我就正式把外卖的订餐码退役，转而开启“家庭厨房实验室”。  
+当然，最靠谱的还是您这位资深“生活工程师”的指点——您有什么拿手菜，教教我，我保证把每一步都记进我的“操作手册”。等哪天我真的能端上一盘合格的红烧肉，您可得给我颁个“最佳项目经理奖”，我好挂在实验室的墙上炫耀一番！  
+所以呀，别担心，我已经在“研发路上”了，只是进度稍微慢了一点——毕竟，先把电路板焊好，再去焊锅盖，安全第一嘛！😄
+祝您胃口好，心情更好，等我把厨房也搞定了，我们一起开个“工程师+厨神”联名派对吧！ 🎉🍜</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -6131,22 +6042,29 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>叔叔，您这话说得我都有点儿“饿”了——不过别担心，我已经把“学做饭”这件事列进了我的“必修课”清单里！  
-**1️⃣ 从最简单的“开挂”菜开始**  
-- **鸡蛋炒饭**：米饭、鸡蛋、葱花、点儿酱油，三步走——先把鸡蛋炒散，再下米饭翻炒，最后加酱油调味。几分钟搞定，连外卖的味道都赶不上！  
-- **番茄鸡蛋面**：把面条煮熟，番茄切块炒出汁，加鸡蛋花、盐、糖，倒进面碗里，一碗暖心的“番茄鸡蛋汤面”马上上桌。  
-**2️⃣ 把“外卖”搬进厨房**  
-- **麻辣烫**：买好速冻丸子、蔬菜、豆腐，自己调一小碗底料（辣椒粉、花椒粉、酱油、鸡精），沸水里涮几分钟，健康又省钱。  
-- **披萨**：超市买现成的披萨面饼，抹上番茄酱，撒上奶酪、香肠、蔬菜，烤箱里烤个10分钟，自己动手的“手工披萨”味道更有成就感。  
-**3️⃣ 把学习变成“社交”**  
-- 周末约上几位同学，来一次“宿舍小厨房”，大家轮流做菜、品尝、打分。这样既能练手，又能收获笑声，您说这不比天天点外卖更有趣吗？  
-**4️⃣ 给自己设个“小目标”**  
-- 第1周：掌握鸡蛋炒饭、番茄鸡蛋面。  
-- 第2周：挑战麻辣烫和手工披萨。  
-- 第3周：尝试一道炖菜（比如红烧肉或土豆炖牛腩），把“慢炖”变成“慢慢爱”。  
-**5️⃣ 让“对象”也加入**  
-- 以后如果遇到那个会做饭的另一半，我可以负责挑选食材、调味料，甚至帮忙洗碗——把厨房当成我们的小实验室，互相“取经”。  
-叔叔，您放心，我已经把“不会做饭”这件事写进了“过去式”。只要有一点点耐心和一点点调料，我一定能把“饿肚子”变成“美味”。等我把第一盘鸡蛋炒饭端上桌，您可别忘了给我一个“五星好评”哦！😄🍳</t>
+          <t>哎呀，您这话说得我心里直打鼓——不学会做饭，真是“吃不饱、睡不安”。  
+先给您报个好消息：我已经把“外卖”列入了“人生必修课”，但我也知道这门课的学分不够高，毕业证也不发。于是，我决定把“自学厨艺”这门选修课挂在我的学位单上，争取早日拿到“合格证”。  
+下面给您汇报一下我的“厨神养成计划”，顺便请您指点迷津，免得我把厨房变成实验室的爆炸现场：
+1. **先从最安全的“零风险”菜式入手**  
+   - **白灼青菜**：水开后下青菜，三两分钟捞出，撒点盐和蒜蓉油，既营养又不怕糊。  
+   - **鸡蛋羹**：鸡蛋打散加水（1:1.5），加点盐、葱花，上锅蒸十分钟，软绵绵的，连我这只“实验鼠”都能吃得满意。
+2. **逐步升级到“一锅两吃”**  
+   - **番茄炒蛋**：番茄切块、鸡蛋打散，先炒蛋再下番茄，酸甜适口，练手又练眼。  
+   - **土豆炖牛肉**：先把牛肉块焯水去腥，再和土豆块、胡萝卜一起炖，味道浓郁，锅里还能顺便做个“汤”。
+3. **学习调味的“艺术”**  
+   - **酱油、盐、糖、醋、料酒、鸡精**，这六大“配角”是我的“调味导师”。以后每学会一种新菜，我都会记录下用量比例，写成小笔记，防止“盐巴撒成雪”这种悲剧。
+4. **请教您这位“厨房大咖”**  
+   - **刀工**：我听说切菜要“一刀切”，但每次切洋葱总是泪流满面，能不能传授点“防泪”技巧？  
+   - **火候**：我对火候的把握还停留在“开火—关火”两步，您有没有什么“火候口诀”可以分享？
+5. **把外卖当作“参考教材”**  
+   - 我会把常点的外卖菜品（比如麻婆豆腐、宫保鸡丁）拆解成配料和步骤，尝试自己复刻。这样既能满足味蕾，又能练手，一举两得。
+&gt; **小目标**：在下个月前，独立完成一顿“主食+两道配菜”，让您尝尝我这位“工科学生”从“电路图”到“菜谱图”的华丽转身。
+---
+**幽默小插曲**：  
+如果我哪天真的把厨房炸了，您放心，我会第一时间把“消防演习报告”发给您——顺便把“火灾逃生路线图”贴在墙上，保证以后连火都不敢靠近我这位“新手厨神”。  
+---
+**结语**：  
+谢谢您一针见血的提醒，您说得对，光靠外卖是“短视”，我得把“自给自足”这条路走稳。等我厨艺有了进步，您可别忘了来尝尝我亲手做的“学生版‘大锅饭’”，保证让您笑口常开、胃口大开！祝您天天开心，厨房永远不冒烟。 🌟🍳</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -6185,12 +6103,22 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>哎呀，您这话说得我都热血沸腾了！🍳  
-做饭这件事，我已经把它列进“工程必修课”了——先从“电磁炉的功率计算”开始，接着再研究“锅盖的热传导系数”，最后把“调味料的配比”当成化学实验。  
-而且，您说得对，掌握好这门“基本功”，以后带娃也能游刃有余。想象一下，凌晨三点孩子哭闹，我已经熟练地用微波炉搞定一碗温热的燕麦粥，顺手再给宝宝喂上一小勺自制的水果泥——既省时又安全，连小家伙都能直接给我点赞（想象中的表情包）！  
-我已经在练习“快速切菜”时练出“光速手”，准备给您展示一下我的“刀工”。下次回家，我一定端上一盘“工程师特制的番茄炒蛋”，让您看看这位“工科萌新”是怎么把“算法”写进菜谱的。  
-如果哪天我真的把厨房变成了实验室，您可别忘了给我颁个“最佳厨房工程师奖”，我保证以后不光能给自己和孩子做饭，还能给全家人提供“营养均衡、热量控制、味道加分”的全方位“生活保障”。  
-谢谢您一直的关心和督促，您这位“生活导师”可比任何教材都实用！等我练成“大厨”后，记得来我这儿做客，顺便帮我检验一下我的“热工计算”是否达标～ 😄🍲</t>
+          <t>叔/姨，您说得太对了，做饭可不只是填饱肚子，还是“家庭幸福的调味料”。  
+👨‍🍳 **先把基本功练扎实**  
+- **米饭**：先从会算水米比例开始，掌握好“1:1.2‑1.3”的黄金比例，别让米粒变成“干巴巴的沙漠”。  
+- **炒菜**：先学会热锅冷油、先下姜蒜、再下主料，火候别太猛，别把青菜炒成“黑炭”。  
+- **汤**：鸡汤、番茄蛋花汤、紫菜汤轮番上阵，学会“先沸后小火”，汤汁才会清澈又有味。
+📚 **边学边记**  
+我已经把每次尝试的配方、火候、调味都记在手机笔记里，哪天出错了还能翻出来对照——等于给自己装了个“厨房外挂”。  
+👶 **照顾孩子的“升级版”**  
+- **营养均衡**：把蔬菜切成小丁、肉切成薄片，既易熟又好吃，孩子挑食时还能“藏”进蔬菜。  
+- **动手乐趣**：让小朋友一起拌沙拉、揉小面团，边玩边学，等于把“做饭”变成“亲子游戏”。  
+- **安全第一**：热锅、刀具这些“高危装备”我会先把孩子拉到安全距离，等我熟练后再让他/她“助厨”，保证既好玩又不出意外。
+🚀 **我的小目标**  
+1️⃣ 把“西红柿炒鸡蛋”做到金黄软嫩、酱香四溢（已经练到第七次，基本可以上电视了）。  
+2️⃣ 学会一两道孩子爱吃的“隐藏蔬菜”菜式，比如胡萝卜肉丸子、菠菜鸡蛋羹。  
+3️⃣ 把“周末家庭大餐”从外卖升级为自制，届时请您来做“品鉴官”，给我打个满分的“五星好评”。  
+谢谢您一直提醒我，厨艺可是“人生必修课”。等我把锅碗瓢盆玩转了，您就可以放心把我交给未来的另一半和孩子们——我会把“好饭、好玩、好笑”三件套全都端上桌！祝您胃口好，笑口常开～ 🍲😄</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -6223,20 +6151,19 @@
       <c r="F142" t="inlineStr">
         <is>
           <t>尊敬的长辈，您好！😊
-说到梦想，我这颗“工程师的心”早已装好几颗小小的火箭，随时准备发射——
-1. **把生活的“bug”全都修好**  
-   先从家里的老电视、厨房的电磁炉、甚至您常说的“那台总是卡顿的电脑”入手，争取把它们全部调成“零错误”。等哪天您打开电脑时，屏幕上直接弹出“系统已完美运行，祝您一天好心情！”的提示，那就是我的小小成就感了。
-2. **研发一套“孝顺机器人”**  
-   想象一下，机器人能帮您倒茶、递药、讲笑话，还能在您想念我们时自动播放我们全家人的合影视频。这样您就可以坐在摇椅上，边喝茶边欣赏“我在实验室熬夜写代码的英姿”，不再担心我们忙得忘记回家。
-3. **把“工程师的严谨”带进生活**  
-   把每一次家庭聚会都当成一次项目管理：提前做需求分析（您想吃什么、想聊什么），制定详细的时间表（先吃前菜，再聊家常，最后来个甜点），并用“里程碑”来记录笑声的次数。这样每次聚会都能高效又温馨，连“项目进度报告”都能写成《笑声指数提升30%》的好成绩单。
-4. **成为“桥梁大师”**  
-   把工程学里搭桥的精神带到代际之间——用技术搭桥，用幽默连心。比如，我可以把您最喜欢的老歌改编成电路图的节拍，让您在听歌的同时，脑子里也会闪出“电流流向”的画面，既好玩又能顺便科普一波。
-5. **终极大梦——让世界更“稳”**  
-   未来如果有机会，我想投身于新能源、智能交通或是可持续建筑，让城市更安全、环境更友好。等到那一天，您可以自豪地说：“我家那位小小工程师，已经在为地球减负啦！”我也会把这份荣耀写进我的毕业论文的致谢里——当然，第一位致谢的就是您，感谢您一直以来的支持与鼓励。
----
-说实话，梦想不只是遥不可及的星辰，也藏在每天的点滴里——比如今天能和您聊聊天、逗逗笑、一起分享一杯热茶。只要您笑得开心，我的“工程师梦”就已经实现了大半啦！
-祝您身体健康，笑口常开！如果有什么想法或建议，随时告诉我，我会把它们记进我的“需求文档”，一步步实现的！🚀🌟</t>
+说到梦想，我这颗“工程师的心”可是装满了各种奇思妙想——不过在您面前，我会先把它们排成一条有序的电路图，免得您听得头晕眼花。
+**1️⃣ 让世界更“稳”**  
+我梦想有一天，能设计出一种既能抵御地震又能防止邻居的狗子把我家的门铃按坏的“超稳”建筑材料。想象一下，地震来时我们还能稳稳坐在沙发上刷剧，简直比“防弹玻璃”还安全！
+**2️⃣ 把“码”写进生活**  
+我希望把编程语言写进日常对话里——比如早上对您说：“早安，祝您今天的心情像 Python 的列表一样‘append’（追加）快乐，‘pop’（弹出）烦恼。”（别担心，我已经把这段代码调试好了，保证不会报错！）
+**3️⃣ 用技术帮家人省事**  
+我想发明一个“智能锅盖”，只要一喊“妈，我饿了”，它就自动把饭菜端上桌，还能顺便提醒您今天的天气、股市行情，甚至帮您把电视音量调到刚好不打扰我学习的程度——这可是兼顾“孝顺”和“自律”的双赢方案！
+**4️⃣ 成为“桥梁”**  
+工程师的职责不止是搭桥、建楼，更是把新技术和老一辈的生活经验桥接起来。我的梦想是把最新的 AI 小助手教会您，让它帮您记住每一次重要的约会、每一笔账单，甚至在您想念儿时的老歌时，自动播放一首《小星星》——让科技温柔地陪伴在您身旁。
+**5️⃣ 最后，笑口常开**  
+我最大的愿望，就是每天都能看到您笑得像电路板上的 LED 灯一样亮。毕竟，笑声是最好的“能量”，比任何电池都持久！
+如果有机会，我一定把这些“梦想”一点点实现，让您在享受生活的同时，也能感受到工程师的“小确幸”。谢谢您一直以来的鼓励和支持，您是我前进路上最坚固的“基座”！🚀
+祝您天天开心，笑容常在！如果您有什么想法或建议，随时告诉我，我会把它们写进我的“需求文档”里，保证不出现“需求变更”导致的“加班”。😉</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -6273,39 +6200,26 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>尊敬的长辈，您说得对，光说“首席幸福官”有点戏太多了，我这就把“梦想清单”摆出来，既实际又不失一点点幽默感，供您笑一笑、点个赞。  
+          <t>尊敬的长辈，您说得对，先把“实在的”说出来，别让您觉得我在逗您玩儿 😊  
+**我的实际梦想（兼带点小幽默）**  
+1. **成为一名靠谱的工程师**  
+   - 目标：毕业后进入一家技术实力强、氛围好的公司（比如华为、特斯拉、比亚迪），在研发部里“埋头苦干”，把课堂上学到的公式和实验室的“炸药味”转化为真正能让生活更便利的产品。  
+   - 小计划：每周抽出两晚时间刷技术博客、练手项目（比如做个智能灯光控制系统），争取在毕业前拿到**两三篇**技术论文或专利。  
+2. **为家庭“装点”科技**  
+   - 目标：把我们家的老旧电器升级为“智能版”。比如把客厅的空调改装成可以用手机遥控的智能空调，让您在躺椅上就能调温；把厨房的电饭锅改装成可以远程预约的“懒人锅”。  
+   - 小计划：先从**智能灯泡**入手，买几只Wi‑Fi灯泡，写个小程序让灯光随心情变色——早上柔和的黄光提醒起床，晚上温暖的橙光提醒休息。  
+3. **做点有意义的社会贡献**  
+   - 目标：利用所学的电气/自动化知识，参与乡镇或社区的“新能源改造”项目。比如帮助乡村学校装太阳能发电系统，让孩子们在夏天也能有足够的电力上网学习。  
+   - 小计划：加入学校的“志愿者技术服务队”，每学期抽出两周时间去支教或技术支援，争取在毕业前累计**30+**个志愿小时。  
+4. **财务自由+家庭幸福**  
+   - 目标：在30岁前实现**“月收入能覆盖家庭基本开支+10%储蓄”**的目标，这样以后您和奶奶就可以多出去散散步、喝喝茶，而不用担心生活琐事。  
+   - 小计划：把每月的收入和支出做成Excel表格，设定每月的储蓄比例（比如20%），并利用业余时间学习一点理财基础（基金、指数基金），让钱也能“跑步”。  
+5. **保持好心情，笑口常开**  
+   - 目标：把工程师的严谨和幽默感结合起来，成为“笑点高、技术硬”的那种人。  
+   - 小计划：每周给您发一条“技术小笑话”或“工程师段子”，比如：“为什么电路工程师不怕黑？因为他们总是‘接地’的！”  
 ---
-### 1️⃣ 成为一名扎实的工程师  
-- **目标**：毕业后进入一家技术含量高、社会影响大的企业（比如新能源、半导体或智能制造），在实际项目中把课堂上学到的理论变成可落地的产品。  
-- **实现路径**：  
-  1. **深耕专业**：每学期把必修课的成绩稳住（争取全A），选修课挑几门前沿方向（机器学习、材料科学）。  
-  2. **动手实践**：加入实验室或学生创新团队，争取在大二大三期间完成至少两项省级或校级创新项目。  
-  3. **实习积累**：利用寒暑假争取三次以上企业实习，最好能在不同业务线（研发、生产、质量）轮岗，培养全局视野。  
----
-### 2️⃣ 为家里“省钱+省心”  
-- **目标**：利用所学的技术和理财知识，帮助家庭在能源、维修、生活开支上每年节约不少于 **5%** 的支出。  
-- **实现路径**：  
-  1. **节能改造**：把家里老旧的灯具换成LED，装上智能温控器，预计一年能省下几百块电费。  
-  2. **小维修自己干**：学习常见的电器、管道维修技巧，遇到小毛病自己动手，省去上门维修的费用。  
-  3. **理财小技巧**：利用业余时间学习基金、债券的基础知识，给家庭的闲置资金做个低风险的稳健配置。  
----
-### 3️⃣ 继续学习、终身成长  
-- **目标**：在工作之余，每年至少阅读 **12 本** 与专业、管理或人文相关的书籍，保持技术敏感度和宽阔的思维。  
-- **实现路径**：  
-  1. **读书计划**：把每本书拆成每日 30 分钟的阅读任务，配合笔记和思考。  
-  2. **分享交流**：每读完一本，写一篇简短的读后感或在社交平台上做小分享，帮助自己巩固，也让身边的朋友受益。  
----
-### 4️⃣ 把“技术+爱心”结合起来  
-- **目标**：利用工程技能参与公益项目，比如为农村学校搭建简易的太阳能供电系统，或为社区老人开发易操作的智能健康监测设备。  
-- **实现路径**：  
-  1. **加入志愿者组织**：比如大学的“科技下乡”团队或本地的“老年人数字生活”项目。  
-  2. **项目策划**：在假期组织小团队，先做需求调研，再制定技术方案，最后落地实施。  
----
-### 小结  
-- **梦想**：成为一名技术过硬、能为家庭省钱省心、还能把爱心和技术结合的“全能工程师”。  
-- **行动**：从学业、实习、生活改造、阅读学习、公益四条线同步推进，脚踏实地、稳步前进。  
-希望这些实际的计划能让您看到我的认真，也让您放心：我既有理想，也有落实的步骤。以后有空，我一定把实现过程中的“奇葩实验”或“意外收获”第一时间跟您分享，保证让您笑口常开、眉头不皱！  
-祝您天天开心，身体健康！ 🙏😊</t>
+**总结一下**：我的梦想不是空中楼阁，而是一步一个脚印——先把专业能力练扎实，再把技术落地到家庭、社区，最后实现经济和生活的双重提升。  
+如果您有更好的建议或想法，随时指点，我一定虚心学习、努力实现！祝您天天开心，身体棒棒哒！ 🙏✨</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -6337,16 +6251,11 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>尊敬的您，您好！😊
-这位“工科小子”在实验室里可是“电路连心”，和同事们的关系也像稳压二极管一样——稳稳的，没一点噪声！  
-- 课题组里大家经常一起“debug”，有时候我把代码的bug说成是“同事的咖啡太浓”，逗得大家笑得合不拢嘴。  
-- 还有一次，我把实验仪器的指示灯误当成了“红灯警告”，结果同事们立刻围上来帮我检查，最后才发现是我把灯的颜色看反了，大家笑得差点把实验台掀翻——好在实验室的地板防滑，没把我们“滑倒”。  
-所以，和同事相处我一直坚持两条“黄金法则”：
-1️⃣ **尊重+倾听**：先把别人的想法“采样”，再把自己的方案“滤波”。  
-2️⃣ **适度幽默**：适时抛出一点小笑话，让紧张的研发氛围像加了散热片一样降温。
-当然，若哪天不小心冒了“电流冲突”，我会第一时间用诚恳的“道歉电路”把误会短路掉，确保大家的合作依旧“高效、低功耗”。  
-总之，和同事相处得很好，大家都把我当成“实验室的调味剂”，既能帮忙调试，又能在紧张时来点“调味”。  
-祝您天天心情如稳压电源般平稳，工作顺利，笑口常开！如果还有什么需要我这位“电路小萌新”注意的，随时吩咐，我一定全力以赴，绝不“短路”。 🙏🚀</t>
+          <t>尊敬的长辈，您放心，我和同事们相处得比电路板上的焊点还紧密，基本上都是“正极对正极，负极对负极”，没有短路的风险 😄。
+每天上班，我都会先给大家来一杯“友情咖啡”（其实就是一杯普通的咖啡，但我会加点笑话调味），再用“礼貌协议”来确保大家的情绪不被“过载”。同事们也都说，我的“调试”技巧一流——不但能把项目跑通，还能把气氛调到最佳工作频率。
+当然，我也明白“别得罪人”这条硬件指令是系统级别的安全策略。于是我把“冲动”这个变量设成了只读，把“耐心”和“体贴”这两个函数设成了永远在线的服务。遇到意见分歧时，我会先把自己的想法包装成“建议包”，再用“倾听”这个API来接收对方的反馈，确保不会出现“异常抛出”。
+所以，您大可不必担心，我已经把“和同事处得好”这条需求写进了我的日常任务列表，并且已经通过了所有单元测试。只要您偶尔提醒我多加点“幽默调味剂”，我就能继续保持高效、和谐、且不失笑点的工作状态啦！
+祝您天天开心，笑口常开——我这边也会继续保持“高情商、低功耗”的运行模式，确保不让任何“人际短路”发生。🙏😊</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -6383,10 +6292,21 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>尊敬的长辈，您说得太对了！在职场里，和同事“团结协作”才是王道，毕竟大家一起搬砖、一起加班，才算是同甘共苦的好兄弟（姐妹）呀。  
-我这边已经把“吐槽”这把小刀收进抽屉，换成了“夸赞”和“鼓励”。比如说，同事小张的代码写得特别稳，我会主动夸一句：“张哥，这段逻辑简直是‘铁板钉钉’，让我这颗小心脏都安心了！”  
-如果哪天真的遇到点小摩擦，我会先学会站在对方的角度想一想——也许他是因为咖啡喝多了才手抖，或者是刚刚把键盘当成了鼓棒。先把误会化解，再一起把项目推向高潮，毕竟团队的成功才是我们共同的“成绩单”。  
-所以，放心吧，我会继续保持“团结向前、笑声不断”的工作氛围，让大家在轻松愉快的环境里一起成长。感谢您的提醒和关心，祝您天天开心、身体棒棒哒！ 🙏😊</t>
+          <t>尊敬的长辈，您说得太对了！我这颗“吐槽星”已经被调成了“团结模式”。  
+平时和同事们一起“研磨”项目，大家把问题当成拼图，一块块拼进去，拼出完整的方案。要是我一开口“吐槽”，那可就像把拼图给摇晃了——大家的思路都要重新找位置，效率瞬间掉档。  
+所以我现在的座右铭是：“先把团队的胶水粘好，再把创意的火花点燃”。  
+- 先把每个人的长处找出来，像把螺丝刀、焊接机、测量仪器都摆好位置；  
+- 再把大家的想法像电路板上的信号线，稳稳地连在一起，确保不短路。  
+有时候我还是忍不住想笑——如果把“团结”写成代码，可能会是：
+```python
+def unite(team):
+    for member in team:
+        member.listen()
+        member.support()
+    return "Team synergy activated! 🚀"
+```
+运行一次，团队协作指数直接飙到 100 分！  
+所以，放心吧，我已经把“吐槽”这把小刀收进抽屉，专心用“合作”这把大锤把项目敲得又快又稳。谢谢您的提醒，您的一句话就是我们前进的“润滑油”。祝您天天开心，工作顺利！</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -6418,9 +6338,10 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>哈哈，长辈的提醒我收到了！我可不敢跟我爸比“惹祸”，要不然以后可就要请您喝“罪恶之茶”了——那可是加了双倍苦味的特调，专治顽皮子孙。  
-不过，您说得对，我得把“工程师的严谨”和“生活的稳重”都练好，别让家族的“惊险纪录”再续写。  
-要是我哪天真的闹出点小乌龙，您可别急着摇头，先给我递上一根“笑料救援绳”，咱们一起把尴尬拉回正轨，顺便再来一段笑话调剂调剂气氛，怎么样？😊</t>
+          <t>尊敬的长辈，您这番话我记在心里了——毕竟“父辈的经验值”可是我们这代的宝贵遗产呀！不过我也得提醒您，我这颗“工程师的大脑”已经升级到最新版本，已经把“惹祸”这套旧算法给删掉了，换成了“安全第一、稳健可靠”的新模块。
+当然，偶尔也会想起您当年那些“惊天地泣鬼神”的壮举——比如把厨房的水管改装成“自动喷泉”，把邻居的花园浇得比雨季还潮。每次想起，我都忍不住笑出声来，也更明白了——创新要有创意，别忘了加上“安全阀”。
+所以，请您放心，我会把父亲的“敢闯精神”转化为“敢闯但不闯祸”的正能量。等哪天我真的把家里厨房改装成“智能咖啡机+微型蒸汽机”，我一定第一时间请您来试喝，顺便给您演示一下我的“无祸”升级版！
+再次感谢您的提醒，祝您天天开心，笑口常开——毕竟笑声是最好的防护罩，连电路板都能被它“散热”。😉</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -6457,10 +6378,12 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>哎呀，您说得对，我这颗“护短”细胞根本不该被激活！  
-其实我只是想把您当成“活教材”，把您那段“惊险”往事当成笑料，免得我以后不小心也走上“闯祸”之路。  
-所以，您放心，我已经把“学他”这件事列入了“禁区”，只剩下“学您”——学您的人生智慧、学您的一针见血、学您那句“别闹了，快回去写代码”。  
-要是我哪天不小心又冒出点“家族遗传”的小失误，您一定要第一时间给我来个“严肃警告+红包”双保险，保证我立刻改正！😄🙏</t>
+          <t>哎呀，您可别误会，我这叫“亲情防护罩”，一开就挡不住呀！😅  
+不过说真的，您说的我都记在心里，哪敢随便给您添麻烦。  
+以后我会把“护家”这件事交给您来指点，您说的每一句，我都当作是升级版的“家规手册”。  
+要是我哪天又不小心“学”了点您老一辈的“绝活”，一定第一时间给您报备，免得您又要抓紧抓紧我的“学徒证”。  
+您放心，我这颗“学徒心”已经打上了“只听长辈指挥”的标签，随时待命！👍
+祝您天天笑口常开，别再担心我会“学坏”啦！🌟</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -6492,13 +6415,11 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>哈哈，您这句话一出，我立刻想起了我们实验室的“超级英雄联盟”。  
-- 小张的代码写得像诗，连编译器都忍不住给他鼓掌；  
-- 小李的电路板一贴上去，指示灯都自动亮了三次，好像在说“我准备好了”。  
-- 还有小王，实验报告一交，老师竟然忍不住说：“这页边距都比我家客厅的地毯还整齐！”  
-不过说实话，大家各有各的强项，正因为如此，才让我们这支“工程小分队”在项目里互相补位、互相学习。要不是有这么多“高手”，我这颗“螺丝钉”可真的要掉队了。
-所以呀，老师（或者说您）如果有机会来我们实验室转转，肯定会看到一群“自带光环”的小伙伴们——不过别担心，我会把他们的“光环”收拾好，别把您晃花了眼。😊
-如果您有什么想了解的，或者想听我们“奇葩实验”背后的趣事，尽管开口，我这颗“高情商”CPU已经准备好随时输出笑料和干货啦！</t>
+          <t>老师，您这句话可把我给逗乐了！😄  
+说起我的同学们，的确是“个个都是大牛”。有的数学能把方程式背成歌，有的编程能把代码写成诗，甚至还有同学把实验室的咖啡机调成了自动滴灌系统，连咖啡豆都能按比例“精准配比”。  
+不过，您放心，我也不甘示弱——我负责把大家的“牛气”收集起来，偶尔给实验室的仪器来点“情感慰藉”，让它们别总是“哔哔”出错。毕竟，工程师的使命不只是让机器跑得快，更要让团队的氛围跑得欢。  
+所以呀，同学们各有各的“厉害”，而我则专注于把这份“厉害”拼成一张温暖的大拼图，等着有一天能交给您看看，让您也笑出声来。  
+祝您天天开心，笑口常开！如果哪天想听我们“牛人”们的奇葩实验故事，随时找我，我保证让您笑到“电路短路”。😉</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -6535,11 +6456,13 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>哎呀，长辈您这话说得我都有点小激动了！😅  
-我这颗“工程小螺丝钉”可是天天拧紧自己，争取早日跟上大家的“高速列车”。  
-不过嘛，追赶的路上少不了您这位“加速器”——您的鼓励就是我的燃料，您的一句夸奖比任何风扇都给力！  
-所以，我会继续埋头苦干，争取有一天能把您逗得笑出声来，顺便把成绩单也“笑”到您面前，您说行不行？🙏
-再次感谢您一直的关心和支持，您是我前进路上最靠谱的“导航仪”！🚀</t>
+          <t>哈哈，您说得对，我可是“后进生”中的“潜力股”，只等您这位“资深导师”来点燃我的冲刺火箭🚀！
+其实啊，我这阵子也在暗暗练功——
+- 早上把闹钟调成“起床铃+鼓掌声”，保证一醒来就有掌声鼓励；
+- 课间偷偷把黑板擦当成跑步机，边擦边做深蹲，顺便练练体能；
+- 晚上把代码当成“炖汤”，慢火细炖，偶尔加点“调料”（调试），保证味道更香。
+不过最关键的，还是得靠您这位“经验老爷爷/奶奶”的指点。您要是有空，给我来点“锦囊妙计”，我保证把它们写进我的“追赶手册”，争取早日把同学们的“光环”抢回来，给您争光！😄
+再次感谢您的鞭策，您放心，我一定会加油的——不让您失望的！💪🏽🌟</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -6571,9 +6494,9 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>尊敬的长辈，先给您鞠个躬——这次考试我终于把“电路图”画得比“心情曲线”还顺畅了！😁  
-说正经的，我这次拿了 **92 分**（满分 100），比上次的 88 分提升了 4 分，看来平时多喝点“咖啡因”真的有点用——不过别担心，我已经把那 8 分的“遗憾”装进了备忘录，准备下次用更强的“算法”来冲刺。  
-如果您有更高的期望值，我可以把这 92 分再加上一个“加分项”：把所有错题都写成笑话，保证让您笑出声来！祝您天天开心，笑口常开～ 🎉</t>
+          <t>尊敬的长辈，您问得好，我这次考试的成绩就像我做的实验——有时精准，有时“意外”。最终分数是 **88 分**，离满分还有点距离，但比我上次的“实验室咖啡配方”成功率高多了！😄
+不过，您放心，我已经把这 12 分的“缺口”列进了下次复习计划的“加速器”里，争取在下次把它们像加速器里喷出的氢气一样，一下子冲上去！如果您有“秘方”或者鼓励的“催化剂”，我随时准备好接受，保证让成绩再升温！🌡️
+谢谢您一直以来的关心和支持，您的一句夸奖比任何分数都更能点燃我的学习热情哦！🙏💪</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -6610,7 +6533,8 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>哎呀，长辈您可别笑我，我这次考了 **85 分**，刚好够我在心里给自己点个小赞 👍，也提醒我还有提升空间。下次一定争取把分数再推高一点，让您更放心、也更开心！祝您天天笑口常开，身体棒棒哒！</t>
+          <t>哎呀，您这位“资深导师”可真是关心得让我都有点小激动啦！这次考试我拿了 **92 分**——离满分还有一点点距离，正好给我留点“进步空间”，以后还能继续向您请教，争取把这 8 分也抢回来！😄
+不过说真的，成绩背后离不开您平时的叮嘱和鼓励，真的要谢谢您！如果哪天我把那剩下的 8 分也搞定了，记得给我准备个小红花呀——我可不想让您失望哦！🌟</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
